--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E667592-B81F-4653-BED0-1566002A721C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30573F1-F70B-4238-9202-99A922EA32A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="90">
   <si>
     <t>TYPE</t>
   </si>
@@ -284,6 +286,30 @@
   </si>
   <si>
     <t>Pdiss (W)</t>
+  </si>
+  <si>
+    <t>6V</t>
+  </si>
+  <si>
+    <t>5V_ANAL</t>
+  </si>
+  <si>
+    <t>7V</t>
+  </si>
+  <si>
+    <t>SWR - PTN78060</t>
+  </si>
+  <si>
+    <t>SWR - PTN78020</t>
+  </si>
+  <si>
+    <t>SWR - LMZ23605</t>
+  </si>
+  <si>
+    <t>SWR - PTH08T260</t>
+  </si>
+  <si>
+    <t>SWR - PTN78000</t>
   </si>
 </sst>
 </file>
@@ -443,27 +469,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,6 +499,21 @@
     <xf numFmtId="2" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1381,8 +1407,1038 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A08A7C-C398-4699-B1F5-9E980BD83648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="15303"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21316950" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3727</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0D0EB4-7A41-49E9-935B-47CF36A0768D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6824" t="2199" r="4236"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9544050" y="4800600"/>
+          <a:ext cx="2232577" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E278084-6187-4D30-B583-27010C0917A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12487276" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D73BED-5D72-491F-B4DB-F112C188C99F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18373725" y="4811806"/>
+          <a:ext cx="2228851" cy="2189069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C78C1E-8209-4B8B-869E-4CBC79A98EE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="24260175" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959F0436-1A83-C62A-6118-E6E79DD65365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2623" t="27003" r="67275"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3657600" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C15DC6-FEDD-48E6-BE3F-3ACA71F7A139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6600825" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1190CE-99B9-D275-2D9F-2F82A42B8D38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2691" t="22878" r="63747"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15396882" y="4840941"/>
+          <a:ext cx="2218765" cy="2218765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE41955-AD4A-435E-A2A1-F75C58BF1694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="15303"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21316950" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3727</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B60D28C-D61E-4568-BF58-5EC873368F4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6824" t="2199" r="4236"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9544050" y="4800600"/>
+          <a:ext cx="2232577" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00F930F-932C-40DF-A5AF-5D18A70868D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12487276" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA853234-D273-410E-96B9-F0294F2DEBDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="24260175" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808CD451-487E-4B1F-A8FA-7E59D20AA10F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6600825" y="4800601"/>
+          <a:ext cx="2228850" cy="2200274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F09F1F-D4A8-F813-8A6F-7345526B306F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10882" t="1773" r="58767" b="15958"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3657601" y="4791075"/>
+          <a:ext cx="2228850" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1113692</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F670953-CD7F-F15A-D7A9-59D66FE30D76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1518" t="6667" r="66940" b="18181"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15455348" y="4770783"/>
+          <a:ext cx="2236304" cy="2186608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D271FE-AC91-8C29-9E86-059B9ECA73DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="5672" t="25918" r="56924"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18390577" y="4755174"/>
+          <a:ext cx="2227385" cy="2168768"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1697,26 +2753,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +2813,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1798,7 +2854,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1839,7 +2895,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1880,7 +2936,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1913,7 +2969,7 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1948,7 +3004,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1983,7 +3039,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2018,7 +3074,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2130,1142 +3186,1142 @@
   </sheetPr>
   <dimension ref="B1:AD40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="12" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="12" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="12" customWidth="1"/>
-    <col min="11" max="12" width="16.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="12" customWidth="1"/>
-    <col min="14" max="15" width="16.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="12" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" style="12" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="12" customWidth="1"/>
-    <col min="20" max="21" width="16.7109375" style="12" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="12" customWidth="1"/>
-    <col min="23" max="24" width="16.7109375" style="12" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="12" customWidth="1"/>
-    <col min="26" max="27" width="16.7109375" style="12" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="12" customWidth="1"/>
-    <col min="29" max="31" width="16.7109375" style="12" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
+    <col min="29" max="31" width="16.7109375" style="9" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="E1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="H1" s="10" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="N1" s="10" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="Q1" s="10" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="T1" s="10" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="W1" s="10" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Z1" s="10" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="11"/>
-      <c r="AC1" s="10" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="11"/>
+      <c r="AD1" s="36"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="13" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="13" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="13" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="13" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="13" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="13" t="s">
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="14"/>
+      <c r="AD2" s="34"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <v>24</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="12">
         <f>C4</f>
         <v>24</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="12">
         <f>F4</f>
         <v>8</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="12">
         <f>I4</f>
         <v>5</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="13"/>
+      <c r="N3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="12">
         <f>I4</f>
         <v>5</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="16" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="12">
         <f>I4</f>
         <v>5</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="16" t="s">
+      <c r="S3" s="13"/>
+      <c r="T3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="12">
         <f>I4</f>
         <v>5</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="16" t="s">
+      <c r="V3" s="13"/>
+      <c r="W3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="12">
         <f>R4</f>
         <v>3.3</v>
       </c>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="16" t="s">
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="12">
         <f>X4</f>
         <v>1.8</v>
       </c>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="19" t="s">
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AD3" s="15">
         <f>AA4</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="12">
         <v>24</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="12">
         <v>8</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="12">
         <v>5</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="16" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="12">
         <v>5</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="16" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="12">
         <v>3.3</v>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="16" t="s">
+      <c r="P4" s="16"/>
+      <c r="Q4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="12">
         <v>3.3</v>
       </c>
-      <c r="S4" s="21"/>
-      <c r="T4" s="16" t="s">
+      <c r="S4" s="16"/>
+      <c r="T4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="12">
         <v>3.3</v>
       </c>
-      <c r="V4" s="21"/>
-      <c r="W4" s="16" t="s">
+      <c r="V4" s="16"/>
+      <c r="W4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="17">
+      <c r="X4" s="12">
         <v>1.8</v>
       </c>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="16" t="s">
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="17">
+      <c r="AA4" s="12">
         <v>1.5</v>
       </c>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="19" t="s">
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AD4" s="15">
         <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="18">
         <f>SUM(C6:C19)</f>
         <v>533.05514466267562</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="18">
         <f>SUM(F6:F19)</f>
         <v>1094.5241188898226</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="18">
         <f>SUM(I6:I19)</f>
         <v>1628.6518889080562</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="18">
         <f>SUM(L6:L19)</f>
         <v>34.900000000000006</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="18">
         <f>SUM(O6:O19)</f>
         <v>506.79</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="18">
         <f>SUM(R6:R18)</f>
         <v>1038.2708021390376</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="18">
         <f>SUM(U6:U19)</f>
         <v>286.66999999999996</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="X5" s="23">
+      <c r="X5" s="18">
         <f>SUM(X6:X19)</f>
         <v>981.05</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="AA5" s="18">
         <f>SUM(AA6:AA19)</f>
         <v>580.04999999999995</v>
       </c>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="22" t="s">
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AD5" s="23">
+      <c r="AD5" s="18">
         <f>SUM(AD6:AD19)</f>
         <v>98.47</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <v>95.83</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="18">
         <f>I23/I3</f>
         <v>1094.5241188898226</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="18">
         <v>21.6</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="18">
         <v>21.6</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="18">
         <v>75.760000000000005</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="18">
         <v>13</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="18">
         <v>163.63999999999999</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="W6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="X6" s="23">
+      <c r="X6" s="18">
         <v>58</v>
       </c>
-      <c r="Z6" s="24" t="s">
+      <c r="Z6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AA6" s="23">
+      <c r="AA6" s="18">
         <v>300</v>
       </c>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="24" t="s">
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AD6" s="23">
+      <c r="AD6" s="18">
         <v>98.47</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="18">
         <v>8</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23"/>
-      <c r="H7" s="24" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="H7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="18">
         <v>13.3</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="18">
         <v>13.3</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="18">
         <v>23.03</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="18">
         <v>15</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="18">
         <v>23.03</v>
       </c>
-      <c r="W7" s="24" t="s">
+      <c r="W7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="18">
         <v>343</v>
       </c>
-      <c r="Z7" s="24" t="s">
+      <c r="Z7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AA7" s="23">
+      <c r="AA7" s="18">
         <v>181.53</v>
       </c>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="23"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="18"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="18">
         <f>F23/F3</f>
         <v>429.22514466267558</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="H8" s="24" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="H8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="18">
         <f>O23/O3</f>
         <v>506.79000000000008</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="N8" s="24" t="s">
+      <c r="K8" s="19"/>
+      <c r="L8" s="18"/>
+      <c r="N8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="18">
         <v>56</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="18">
         <v>6.6</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="18">
         <v>100</v>
       </c>
-      <c r="W8" s="24" t="s">
+      <c r="W8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="X8" s="23">
+      <c r="X8" s="18">
         <f>AA23/AA3</f>
         <v>580.04999999999995</v>
       </c>
-      <c r="Z8" s="24" t="s">
+      <c r="Z8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AA8" s="23">
+      <c r="AA8" s="18">
         <v>0.05</v>
       </c>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="23"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="18"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="18">
         <f>R23/R3</f>
         <v>736.83734345351047</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="23"/>
-      <c r="N9" s="24" t="s">
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="18">
         <v>318</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="18">
         <v>100</v>
       </c>
-      <c r="T9" s="24"/>
-      <c r="U9" s="23"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="23"/>
-      <c r="Z9" s="24" t="s">
+      <c r="T9" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="18"/>
+      <c r="Z9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AA9" s="18">
         <f>AD23/AD3</f>
         <v>98.469999999999985</v>
       </c>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="23"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="18"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="23"/>
-      <c r="H10" s="24" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="18">
         <f>U23/U3</f>
         <v>286.66999999999996</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="23"/>
-      <c r="N10" s="24" t="s">
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+      <c r="N10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="18">
         <v>34</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="18">
         <v>35</v>
       </c>
-      <c r="T10" s="24"/>
-      <c r="U10" s="23"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="23"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="23"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="23"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="18"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="18"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="18"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="18"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23"/>
-      <c r="H11" s="24" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="18">
         <f>L23/L3</f>
         <v>63.45454545454546</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="Q11" s="24" t="s">
+      <c r="K11" s="19"/>
+      <c r="L11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="18"/>
+      <c r="Q11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="18">
         <v>100</v>
       </c>
-      <c r="T11" s="24"/>
-      <c r="U11" s="23"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="23"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="23"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="23"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="18"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="18"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="18"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="18"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="23"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="23"/>
-      <c r="Q12" s="24" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="Q12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="18">
         <v>100</v>
       </c>
-      <c r="T12" s="24"/>
-      <c r="U12" s="23"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="23"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="23"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="23"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="18"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="18"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="18"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="18"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="23"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="23"/>
-      <c r="Q13" s="24" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="Q13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="18">
         <v>8</v>
       </c>
-      <c r="T13" s="24"/>
-      <c r="U13" s="23"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="23"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="23"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="23"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="18"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="18"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="18"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="18"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="23"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="23"/>
-      <c r="Q14" s="24" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="Q14" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="18">
         <v>25.76</v>
       </c>
-      <c r="T14" s="24"/>
-      <c r="U14" s="23"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="23"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="23"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="23"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="18"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="18"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="18"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="18"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="23"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="23"/>
-      <c r="Q15" s="24" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="Q15" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="18">
         <v>4</v>
       </c>
-      <c r="T15" s="22"/>
-      <c r="U15" s="23"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="23"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="23"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="23"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="18"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="18"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="18"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="23"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
-      <c r="Q16" s="24" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="Q16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="18">
         <v>0.7</v>
       </c>
-      <c r="T16" s="24"/>
-      <c r="U16" s="23"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="23"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="23"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="23"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="18"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="18"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="18"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="18"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="23"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
-      <c r="Q17" s="24" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="Q17" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="18">
         <v>0.66</v>
       </c>
-      <c r="T17" s="24"/>
-      <c r="U17" s="23"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="23"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="23"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="23"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="18"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="18"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="18"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="18"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="23"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
-      <c r="Q18" s="24" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="Q18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="18">
         <f>X23/X3</f>
         <v>629.5508021390375</v>
       </c>
-      <c r="T18" s="24"/>
-      <c r="U18" s="23"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="23"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="23"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="23"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="18"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="18"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="18"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="18"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="23"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="23"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="23"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="23"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="23"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="23"/>
-    </row>
-    <row r="20" spans="2:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="18"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="18"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="18"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="18"/>
+    </row>
+    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="22">
         <f>C5*C4</f>
         <v>12793.323471904216</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="22">
         <f>F5*F4</f>
         <v>8756.1929511185808</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="22">
         <f>I5*I4</f>
         <v>8143.259444540281</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="22">
         <f>L5*L4</f>
         <v>174.50000000000003</v>
       </c>
-      <c r="N20" s="26" t="s">
+      <c r="N20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="22">
         <f>O5*O4</f>
         <v>1672.4069999999999</v>
       </c>
-      <c r="Q20" s="26" t="s">
+      <c r="Q20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="22">
         <f>R5*R4</f>
         <v>3426.2936470588238</v>
       </c>
-      <c r="T20" s="26" t="s">
+      <c r="T20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="U20" s="27">
+      <c r="U20" s="22">
         <f>U5*U4</f>
         <v>946.01099999999985</v>
       </c>
-      <c r="W20" s="26" t="s">
+      <c r="W20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="X20" s="27">
+      <c r="X20" s="22">
         <f>X5*X4</f>
         <v>1765.8899999999999</v>
       </c>
-      <c r="Z20" s="26" t="s">
+      <c r="Z20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA20" s="27">
+      <c r="AA20" s="22">
         <f>AA5*AA4</f>
         <v>870.07499999999993</v>
       </c>
-      <c r="AC20" s="26" t="s">
+      <c r="AC20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AD20" s="27">
+      <c r="AD20" s="22">
         <f>AD5*AD4</f>
         <v>73.852499999999992</v>
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="22">
         <v>1</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="22">
         <v>0.85</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="22">
         <v>0.93</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N21" s="28" t="s">
+      <c r="N21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="27">
+      <c r="O21" s="22">
         <f>O4/O3</f>
         <v>0.65999999999999992</v>
       </c>
-      <c r="Q21" s="28" t="s">
+      <c r="Q21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="22">
         <v>0.93</v>
       </c>
-      <c r="T21" s="28" t="s">
+      <c r="T21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="U21" s="27">
+      <c r="U21" s="22">
         <f>U4/U3</f>
         <v>0.65999999999999992</v>
       </c>
-      <c r="W21" s="28" t="s">
+      <c r="W21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="X21" s="27">
+      <c r="X21" s="22">
         <v>0.85</v>
       </c>
-      <c r="Z21" s="28" t="s">
+      <c r="Z21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA21" s="27">
+      <c r="AA21" s="22">
         <f>AA4/AA3</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AC21" s="28" t="s">
+      <c r="AC21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AD21" s="27">
+      <c r="AD21" s="22">
         <f>AD4/AD3</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="22">
         <f>C20/C21-C20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="22">
         <f>F20/F21-F20</f>
         <v>1545.210520785633</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="22">
         <f>I20/I21-I20</f>
         <v>612.93350657829978</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="22">
         <f>L20/L21-L20</f>
         <v>142.77272727272728</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="27">
+      <c r="O22" s="22">
         <f>O20/O21-O20</f>
         <v>861.54300000000035</v>
       </c>
-      <c r="Q22" s="28" t="s">
+      <c r="Q22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="22">
         <f>R20/R21-R20</f>
         <v>257.89307020872866</v>
       </c>
-      <c r="T22" s="28" t="s">
+      <c r="T22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="U22" s="27">
+      <c r="U22" s="22">
         <f>U20/U21-U20</f>
         <v>487.33900000000006</v>
       </c>
-      <c r="W22" s="28" t="s">
+      <c r="W22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="X22" s="27">
+      <c r="X22" s="22">
         <f>X20/X21-X20</f>
         <v>311.62764705882364</v>
       </c>
-      <c r="Z22" s="28" t="s">
+      <c r="Z22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="27">
+      <c r="AA22" s="22">
         <f>AA20/AA21-AA20</f>
         <v>174.01499999999999</v>
       </c>
-      <c r="AC22" s="28" t="s">
+      <c r="AC22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AD22" s="27">
+      <c r="AD22" s="22">
         <f>AD20/AD21-AD20</f>
         <v>73.852499999999992</v>
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="25">
         <f>C22+C20</f>
         <v>12793.323471904216</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="25">
         <f>F22+F20</f>
         <v>10301.403471904214</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="25">
         <f>I22+I20</f>
         <v>8756.1929511185808</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="25">
         <f>L22+L20</f>
         <v>317.27272727272731</v>
       </c>
-      <c r="N23" s="29" t="s">
+      <c r="N23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="25">
         <f>O22+O20</f>
         <v>2533.9500000000003</v>
       </c>
-      <c r="Q23" s="29" t="s">
+      <c r="Q23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="R23" s="30">
+      <c r="R23" s="25">
         <f>R22+R20</f>
         <v>3684.1867172675525</v>
       </c>
-      <c r="T23" s="29" t="s">
+      <c r="T23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="U23" s="30">
+      <c r="U23" s="25">
         <f>U22+U20</f>
         <v>1433.35</v>
       </c>
-      <c r="W23" s="29" t="s">
+      <c r="W23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="X23" s="30">
+      <c r="X23" s="25">
         <f>X22+X20</f>
         <v>2077.5176470588235</v>
       </c>
-      <c r="Z23" s="29" t="s">
+      <c r="Z23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AA23" s="30">
+      <c r="AA23" s="25">
         <f>AA22+AA20</f>
         <v>1044.0899999999999</v>
       </c>
-      <c r="AC23" s="29" t="s">
+      <c r="AC23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AD23" s="30">
+      <c r="AD23" s="25">
         <f>AD22+AD20</f>
         <v>147.70499999999998</v>
       </c>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="29">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="31">
         <v>0.52</v>
       </c>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="27">
         <f>C23/1000</f>
         <v>12.793323471904216</v>
       </c>
@@ -3273,11 +4329,6 @@
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="N30"/>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C32" s="12">
-        <v>12.45</v>
-      </c>
-    </row>
     <row r="33" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F33"/>
     </row>
@@ -3286,11 +4337,8 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
@@ -3304,8 +4352,11 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -3317,1065 +4368,1065 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BFB0A4-B77F-48CD-92E5-8B149633A6E8}">
   <dimension ref="B1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="12" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="12" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="12" customWidth="1"/>
-    <col min="11" max="12" width="16.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="12" customWidth="1"/>
-    <col min="14" max="15" width="16.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="12" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" style="12" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="12" customWidth="1"/>
-    <col min="20" max="21" width="16.7109375" style="12" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="12" customWidth="1"/>
-    <col min="23" max="24" width="16.7109375" style="12" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="12" customWidth="1"/>
-    <col min="26" max="28" width="16.7109375" style="12" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="28" width="16.7109375" style="9" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="N1" s="10" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="Q1" s="10" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="T1" s="10" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="W1" s="10" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Z1" s="10" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="11"/>
+      <c r="AA1" s="36"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="13" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="13" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="13" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="13" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="13" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="14"/>
+      <c r="AA2" s="34"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <v>24</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="12">
         <f>C4</f>
         <v>24</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="12">
         <f>F4</f>
         <v>5</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="12">
         <f>F4</f>
         <v>5</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="13"/>
+      <c r="N3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="12">
         <f>F4</f>
         <v>5</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="16" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="12">
         <f>F4</f>
         <v>5</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="16" t="s">
+      <c r="S3" s="13"/>
+      <c r="T3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="12">
         <f>O4</f>
         <v>3.3</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="16" t="s">
+      <c r="V3" s="13"/>
+      <c r="W3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="12">
         <f>U4</f>
         <v>1.8</v>
       </c>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="19" t="s">
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="20">
+      <c r="AA3" s="15">
         <f>X4</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="12">
         <v>24</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="12">
         <v>5</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="12">
         <v>5</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="16" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="12">
         <v>3.3</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="16" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="12">
         <v>3.3</v>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="16" t="s">
+      <c r="P4" s="16"/>
+      <c r="Q4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="12">
         <v>3.3</v>
       </c>
-      <c r="S4" s="21"/>
-      <c r="T4" s="16" t="s">
+      <c r="S4" s="16"/>
+      <c r="T4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="12">
         <v>1.8</v>
       </c>
-      <c r="V4" s="21"/>
-      <c r="W4" s="16" t="s">
+      <c r="V4" s="16"/>
+      <c r="W4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="17">
+      <c r="X4" s="12">
         <v>1.5</v>
       </c>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="19" t="s">
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="20">
+      <c r="AA4" s="15">
         <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="18">
         <f>SUM(C6:C19)</f>
         <v>516.69298098310867</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="18">
         <f>SUM(F6:F19)</f>
         <v>1644.8461162367048</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="18">
         <f>SUM(I6:I19)</f>
         <v>34.900000000000006</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="18">
         <f>SUM(L6:L19)</f>
         <v>506.79</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="18">
         <f>SUM(O6:O18)</f>
         <v>1038.2708021390376</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="18">
         <f>SUM(R6:R19)</f>
         <v>286.66999999999996</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="18">
         <f>SUM(U6:U19)</f>
         <v>981.05</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="X5" s="23">
+      <c r="X5" s="18">
         <f>SUM(X6:X19)</f>
         <v>580.04999999999995</v>
       </c>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="22" t="s">
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="AA5" s="18">
         <f>SUM(AA6:AA19)</f>
         <v>98.47</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <v>95.83</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="18">
         <v>21.6</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="18">
         <v>21.6</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="18">
         <v>75.760000000000005</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="18">
         <v>13</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="18">
         <v>163.63999999999999</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="18">
         <v>58</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="W6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="X6" s="23">
+      <c r="X6" s="18">
         <v>300</v>
       </c>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="24" t="s">
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AA6" s="23">
+      <c r="AA6" s="18">
         <v>98.47</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="18">
         <v>8</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="18">
         <v>13.3</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="18">
         <v>13.3</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="18">
         <v>23.03</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="18">
         <v>15</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="18">
         <v>23.03</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="18">
         <v>343</v>
       </c>
-      <c r="W7" s="24" t="s">
+      <c r="W7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="18">
         <v>181.53</v>
       </c>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="23"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="18">
         <f>F23/F3</f>
         <v>412.86298098310868</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="18">
         <f>L23/L3</f>
         <v>506.79000000000008</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
-      <c r="K8" s="24" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+      <c r="K8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="18">
         <v>56</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="18">
         <v>6.6</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="18">
         <v>100</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="18">
         <f>X23/X3</f>
         <v>580.04999999999995</v>
       </c>
-      <c r="W8" s="24" t="s">
+      <c r="W8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="X8" s="23">
+      <c r="X8" s="18">
         <v>0.05</v>
       </c>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="23"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="18">
         <f>O23/O3</f>
         <v>753.03157078215906</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
-      <c r="K9" s="24" t="s">
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="K9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="18">
         <v>318</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="18">
         <v>100</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="23"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="23"/>
-      <c r="W9" s="24" t="s">
+      <c r="Q9" s="19"/>
+      <c r="R9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="W9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="X9" s="23">
+      <c r="X9" s="18">
         <f>AA23/AA3</f>
         <v>98.469999999999985</v>
       </c>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="23"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="18"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="23"/>
-      <c r="E10" s="24" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="18">
         <f>R23/R3</f>
         <v>286.66999999999996</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
-      <c r="K10" s="24" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="K10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="18">
         <v>34</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="18">
         <v>35</v>
       </c>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="23"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="23"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="23"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="23"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="18"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="18"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="18"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="18"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="23"/>
-      <c r="E11" s="24" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="E11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="18">
         <f>I23/I3</f>
         <v>63.45454545454546</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="23"/>
-      <c r="N11" s="24" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="18"/>
+      <c r="N11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="18">
         <v>100</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="23"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="23"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="23"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="23"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="18"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="18"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="18"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="18"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="23"/>
-      <c r="N12" s="24" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+      <c r="N12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="18">
         <v>100</v>
       </c>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="23"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="23"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="23"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="23"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="18"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="18"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="18"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="18"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="23"/>
-      <c r="N13" s="24" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+      <c r="N13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="18">
         <v>8</v>
       </c>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="23"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="23"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="23"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="23"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="18"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="18"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="18"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="18"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="23"/>
-      <c r="N14" s="24" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
+      <c r="N14" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="18">
         <v>25.76</v>
       </c>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="23"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="23"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="23"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="23"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="18"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="18"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="18"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="18"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="23"/>
-      <c r="N15" s="24" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="N15" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="18">
         <v>4</v>
       </c>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="23"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="23"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="23"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="23"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="18"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="18"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="18"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="23"/>
-      <c r="N16" s="24" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
+      <c r="N16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="18">
         <v>0.7</v>
       </c>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="23"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="23"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="23"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="23"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="18"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="18"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="18"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="18"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="23"/>
-      <c r="N17" s="24" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="18"/>
+      <c r="N17" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="18">
         <v>0.66</v>
       </c>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="23"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="23"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="23"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="23"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="18"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="18"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="18"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="18"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="23"/>
-      <c r="N18" s="24" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="18"/>
+      <c r="N18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="18">
         <f>U23/U3</f>
         <v>629.5508021390375</v>
       </c>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="23"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="23"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="23"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="23"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="18"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="18"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="18"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="18"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="23"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="23"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="23"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="23"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="23"/>
-    </row>
-    <row r="20" spans="2:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="18"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="18"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="18"/>
+    </row>
+    <row r="20" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="22">
         <f>C5*C4</f>
         <v>12400.631543594609</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="22">
         <f>F5*F4</f>
         <v>8224.2305811835249</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="22">
         <f>I5*I4</f>
         <v>174.50000000000003</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="22">
         <f>L5*L4</f>
         <v>1672.4069999999999</v>
       </c>
-      <c r="N20" s="26" t="s">
+      <c r="N20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="22">
         <f>O5*O4</f>
         <v>3426.2936470588238</v>
       </c>
-      <c r="Q20" s="26" t="s">
+      <c r="Q20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="22">
         <f>R5*R4</f>
         <v>946.01099999999985</v>
       </c>
-      <c r="T20" s="26" t="s">
+      <c r="T20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="U20" s="27">
+      <c r="U20" s="22">
         <f>U5*U4</f>
         <v>1765.8899999999999</v>
       </c>
-      <c r="W20" s="26" t="s">
+      <c r="W20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="X20" s="27">
+      <c r="X20" s="22">
         <f>X5*X4</f>
         <v>870.07499999999993</v>
       </c>
-      <c r="Z20" s="26" t="s">
+      <c r="Z20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA20" s="27">
+      <c r="AA20" s="22">
         <f>AA5*AA4</f>
         <v>73.852499999999992</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="22">
         <v>1</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="22">
         <v>0.83</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="22">
         <f>L4/L3</f>
         <v>0.65999999999999992</v>
       </c>
-      <c r="N21" s="28" t="s">
+      <c r="N21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="27">
+      <c r="O21" s="22">
         <v>0.91</v>
       </c>
-      <c r="Q21" s="28" t="s">
+      <c r="Q21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="22">
         <f>R4/R3</f>
         <v>0.65999999999999992</v>
       </c>
-      <c r="T21" s="28" t="s">
+      <c r="T21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="U21" s="27">
+      <c r="U21" s="22">
         <v>0.85</v>
       </c>
-      <c r="W21" s="28" t="s">
+      <c r="W21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="X21" s="27">
+      <c r="X21" s="22">
         <f>X4/X3</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="Z21" s="28" t="s">
+      <c r="Z21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA21" s="27">
+      <c r="AA21" s="22">
         <f>AA4/AA3</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="22">
         <f>C20/C21-C20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="22">
         <f>F20/F21-F20</f>
         <v>1684.480962411084</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="22">
         <f>I20/I21-I20</f>
         <v>142.77272727272728</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="22">
         <f>L20/L21-L20</f>
         <v>861.54300000000035</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="27">
+      <c r="O22" s="22">
         <f>O20/O21-O20</f>
         <v>338.86420685197163</v>
       </c>
-      <c r="Q22" s="28" t="s">
+      <c r="Q22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="22">
         <f>R20/R21-R20</f>
         <v>487.33900000000006</v>
       </c>
-      <c r="T22" s="28" t="s">
+      <c r="T22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="U22" s="27">
+      <c r="U22" s="22">
         <f>U20/U21-U20</f>
         <v>311.62764705882364</v>
       </c>
-      <c r="W22" s="28" t="s">
+      <c r="W22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="X22" s="27">
+      <c r="X22" s="22">
         <f>X20/X21-X20</f>
         <v>174.01499999999999</v>
       </c>
-      <c r="Z22" s="28" t="s">
+      <c r="Z22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="27">
+      <c r="AA22" s="22">
         <f>AA20/AA21-AA20</f>
         <v>73.852499999999992</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="25">
         <f>C22+C20</f>
         <v>12400.631543594609</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="25">
         <f>F22+F20</f>
         <v>9908.7115435946089</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="25">
         <f>I22+I20</f>
         <v>317.27272727272731</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="25">
         <f>L22+L20</f>
         <v>2533.9500000000003</v>
       </c>
-      <c r="N23" s="29" t="s">
+      <c r="N23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="25">
         <f>O22+O20</f>
         <v>3765.1578539107954</v>
       </c>
-      <c r="Q23" s="29" t="s">
+      <c r="Q23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="R23" s="30">
+      <c r="R23" s="25">
         <f>R22+R20</f>
         <v>1433.35</v>
       </c>
-      <c r="T23" s="29" t="s">
+      <c r="T23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="U23" s="30">
+      <c r="U23" s="25">
         <f>U22+U20</f>
         <v>2077.5176470588235</v>
       </c>
-      <c r="W23" s="29" t="s">
+      <c r="W23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="X23" s="30">
+      <c r="X23" s="25">
         <f>X22+X20</f>
         <v>1044.0899999999999</v>
       </c>
-      <c r="Z23" s="29" t="s">
+      <c r="Z23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AA23" s="30">
+      <c r="AA23" s="25">
         <f>AA22+AA20</f>
         <v>147.70499999999998</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="29">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="31">
         <v>0.52</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="31">
         <f>C23/1000</f>
         <v>12.400631543594608</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="31">
         <f>(C22+F22+I22+L22+O22+R22+U22+X22+AA22)/1000</f>
         <v>4.0744950435946068</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="27">
         <f>1-C29/C28</f>
         <v>0.67142842449026419</v>
       </c>
@@ -4386,6 +5437,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -4394,16 +5455,2412 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89155B3-D098-4E85-9AE8-838E056D1B92}">
+  <dimension ref="B1:AD42"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
+    <col min="29" max="31" width="16.7109375" style="9" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="36"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="34"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="34"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="34"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="34"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="12">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C4</f>
+        <v>24</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="12">
+        <f>F4</f>
+        <v>7</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="12">
+        <f>I4</f>
+        <v>5</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="12">
+        <f>I4</f>
+        <v>5</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="12">
+        <f>F4</f>
+        <v>7</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="12">
+        <f>F4</f>
+        <v>7</v>
+      </c>
+      <c r="V3" s="13"/>
+      <c r="W3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="12">
+        <f>R4</f>
+        <v>3.3</v>
+      </c>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="12">
+        <f>X4</f>
+        <v>1.8</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="12">
+        <f>AA4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12">
+        <v>24</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
+        <v>7</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="12">
+        <v>5</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="12">
+        <v>5</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="V4" s="16"/>
+      <c r="W4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="18">
+        <f>SUM(C6:C19)</f>
+        <v>607.43958434333172</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="18">
+        <f>SUM(F6:F19)</f>
+        <v>1467.6622172291379</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="18">
+        <f>SUM(I6:I19)</f>
+        <v>605.14454545454555</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="18">
+        <f>SUM(L6:L19)</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="18">
+        <f>SUM(O6:O19)</f>
+        <v>506.79</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="18">
+        <f>SUM(R6:R18)</f>
+        <v>1038.2708021390376</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="18">
+        <f>SUM(U6:U19)</f>
+        <v>286.66999999999996</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="18">
+        <f>SUM(X6:X19)</f>
+        <v>981.05</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" s="18">
+        <f>SUM(AA6:AA19)</f>
+        <v>580.04999999999995</v>
+      </c>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="18">
+        <f>SUM(AD6:AD19)</f>
+        <v>98.47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="18">
+        <v>95.83</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="18">
+        <f>I23/I3</f>
+        <v>605.14454545454555</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="18">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="18">
+        <v>13</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="18">
+        <v>163.63999999999999</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="X6" s="18">
+        <v>58</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>300</v>
+      </c>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>98.47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="18">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="18">
+        <f>R23/R3</f>
+        <v>575.8476717745923</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="18">
+        <v>23.03</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="18">
+        <v>15</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" s="18">
+        <v>23.03</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="X7" s="18">
+        <v>343</v>
+      </c>
+      <c r="Z7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>181.53</v>
+      </c>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="18"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="18">
+        <f>F23/F3</f>
+        <v>503.60958434333173</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="18">
+        <f>U23/U3</f>
+        <v>286.67</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="18">
+        <f>O23/O3</f>
+        <v>506.79000000000008</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="18"/>
+      <c r="N8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="18">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="18">
+        <v>6.6</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="18">
+        <v>100</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="18">
+        <f>AA23/AA3</f>
+        <v>580.04999999999995</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="18"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="H9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="18">
+        <f>L23/L3</f>
+        <v>63.45454545454546</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="18">
+        <v>318</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="18">
+        <v>100</v>
+      </c>
+      <c r="T9" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="18"/>
+      <c r="Z9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="18">
+        <f>AD23/AD3</f>
+        <v>98.469999999999985</v>
+      </c>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="18"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+      <c r="N10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="18">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="18">
+        <v>35</v>
+      </c>
+      <c r="T10" s="19"/>
+      <c r="U10" s="18"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="18"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="18"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="18"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="18"/>
+      <c r="Q11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="18">
+        <v>100</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="18"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="18"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="18"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="18"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="Q12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="18">
+        <v>100</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="18"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="18"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="18"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="18"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="Q13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="18">
+        <v>8</v>
+      </c>
+      <c r="T13" s="19"/>
+      <c r="U13" s="18"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="18"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="18"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="18"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="Q14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="18">
+        <v>25.76</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="18"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="18"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="18"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="18"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="Q15" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="18">
+        <v>4</v>
+      </c>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="18"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="18"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="18"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="Q16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="T16" s="19"/>
+      <c r="U16" s="18"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="18"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="18"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="18"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="Q17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="18">
+        <v>0.66</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="18"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="18"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="18"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="18"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="Q18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="18">
+        <f>X23/X3</f>
+        <v>629.5508021390375</v>
+      </c>
+      <c r="T18" s="19"/>
+      <c r="U18" s="18"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="18"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="18"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="18"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="18"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="18"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="18"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="18"/>
+    </row>
+    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="22">
+        <f>C5*C4</f>
+        <v>14578.550024239961</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="22">
+        <f>F5*F4</f>
+        <v>10273.635520603966</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="22">
+        <f>I5*I4</f>
+        <v>3025.7227272727278</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="22">
+        <f>L5*L4</f>
+        <v>174.50000000000003</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="22">
+        <f>O5*O4</f>
+        <v>1672.4069999999999</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="22">
+        <f>R5*R4</f>
+        <v>3426.2936470588238</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="22">
+        <f>U5*U4</f>
+        <v>946.01099999999985</v>
+      </c>
+      <c r="W20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="22">
+        <f>X5*X4</f>
+        <v>1765.8899999999999</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" s="22">
+        <f>AA5*AA4</f>
+        <v>870.07499999999993</v>
+      </c>
+      <c r="AC20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD20" s="22">
+        <f>AD5*AD4</f>
+        <v>73.852499999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="22">
+        <f>I4/I3</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="22">
+        <f>O4/O3</f>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="22">
+        <f>U4/U3</f>
+        <v>0.47142857142857142</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="Z21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA21" s="22">
+        <f>AA4/AA3</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="AC21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD21" s="22">
+        <f>AD4/AD3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="22">
+        <f>C20/C21-C20</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="22">
+        <f>F20/F21-F20</f>
+        <v>1812.994503635995</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="22">
+        <f>I20/I21-I20</f>
+        <v>1210.2890909090911</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="22">
+        <f>L20/L21-L20</f>
+        <v>142.77272727272728</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="22">
+        <f>O20/O21-O20</f>
+        <v>861.54300000000035</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="22">
+        <f>R20/R21-R20</f>
+        <v>604.64005536332206</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="22">
+        <f>U20/U21-U20</f>
+        <v>1060.6790000000001</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="22">
+        <f>X20/X21-X20</f>
+        <v>311.62764705882364</v>
+      </c>
+      <c r="Z22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" s="22">
+        <f>AA20/AA21-AA20</f>
+        <v>174.01499999999999</v>
+      </c>
+      <c r="AC22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD22" s="22">
+        <f>AD20/AD21-AD20</f>
+        <v>73.852499999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="25">
+        <f>C22+C20</f>
+        <v>14578.550024239961</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="25">
+        <f>F22+F20</f>
+        <v>12086.630024239961</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="25">
+        <f>I22+I20</f>
+        <v>4236.0118181818189</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="25">
+        <f>L22+L20</f>
+        <v>317.27272727272731</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="25">
+        <f>O22+O20</f>
+        <v>2533.9500000000003</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="25">
+        <f>R22+R20</f>
+        <v>4030.9337024221459</v>
+      </c>
+      <c r="T23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" s="25">
+        <f>U22+U20</f>
+        <v>2006.69</v>
+      </c>
+      <c r="W23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="X23" s="25">
+        <f>X22+X20</f>
+        <v>2077.5176470588235</v>
+      </c>
+      <c r="Z23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA23" s="25">
+        <f>AA22+AA20</f>
+        <v>1044.0899999999999</v>
+      </c>
+      <c r="AC23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD23" s="25">
+        <f>AD22+AD20</f>
+        <v>147.70499999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B26" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B27" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="31">
+        <v>0.52</v>
+      </c>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B28" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="31">
+        <f>C23/1000</f>
+        <v>14.578550024239961</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="31">
+        <f>(C22+F22+I22+L22+O22+R22+U22+X22+AA22+AD22)/1000</f>
+        <v>6.2524135242399597</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B30" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="27">
+        <f>1-C29/C28</f>
+        <v>0.57112240148409943</v>
+      </c>
+      <c r="N30"/>
+    </row>
+    <row r="40" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R40"/>
+    </row>
+    <row r="42" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4DD83B-4BA0-4826-A410-8AD21EB3EE67}">
+  <dimension ref="B1:AD44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
+    <col min="29" max="31" width="16.7109375" style="9" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="36"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="34"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="34"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="34"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="34"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="12">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C4</f>
+        <v>24</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="12">
+        <f>I4</f>
+        <v>5</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="12">
+        <f>I4</f>
+        <v>5</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="V3" s="13"/>
+      <c r="W3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="12">
+        <f>R4</f>
+        <v>3.3</v>
+      </c>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="12">
+        <f>X4</f>
+        <v>1.8</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="12">
+        <f>AA4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12">
+        <v>24</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
+        <v>6</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="12">
+        <v>5</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="12">
+        <v>5</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="V4" s="16"/>
+      <c r="W4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="18">
+        <f>SUM(C6:C19)</f>
+        <v>520.37793779018705</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="18">
+        <f>SUM(F6:F19)</f>
+        <v>1416.262988486636</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="18">
+        <f>SUM(I6:I19)</f>
+        <v>605.14454545454555</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="18">
+        <f>SUM(L6:L19)</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="18">
+        <f>SUM(O6:O19)</f>
+        <v>506.79</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="18">
+        <f>SUM(R6:R17)</f>
+        <v>938.27080213903753</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="18">
+        <f>SUM(U6:U19)</f>
+        <v>386.66999999999996</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="18">
+        <f>SUM(X6:X19)</f>
+        <v>981.05</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" s="18">
+        <f>SUM(AA6:AA19)</f>
+        <v>580.04999999999995</v>
+      </c>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="18">
+        <f>SUM(AD6:AD19)</f>
+        <v>98.47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="18">
+        <v>95.83</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="18">
+        <f>I23/I3</f>
+        <v>605.14454545454555</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="18">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="18">
+        <v>13</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="18">
+        <v>163.63999999999999</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="X6" s="18">
+        <v>58</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>300</v>
+      </c>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>98.47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="18">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="18">
+        <f>R23/R3</f>
+        <v>554.89133459835546</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="18">
+        <v>23.03</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="18">
+        <v>15</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" s="18">
+        <v>23.03</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="X7" s="18">
+        <v>343</v>
+      </c>
+      <c r="Z7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>181.53</v>
+      </c>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="18"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="18">
+        <f>F23/F3</f>
+        <v>416.54793779018701</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="18">
+        <f>U23/U3</f>
+        <v>256.22710843373488</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="18">
+        <f>O23/O3</f>
+        <v>506.79000000000008</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="18"/>
+      <c r="N8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="18">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="18">
+        <v>6.6</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="18">
+        <v>100</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="18">
+        <f>AA23/AA3</f>
+        <v>580.04999999999995</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="18"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="H9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="18">
+        <f>L23/L3</f>
+        <v>63.45454545454546</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="18">
+        <v>318</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="18">
+        <v>100</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" s="18">
+        <v>100</v>
+      </c>
+      <c r="W9" s="19"/>
+      <c r="X9" s="18"/>
+      <c r="Z9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="18">
+        <f>AD23/AD3</f>
+        <v>98.469999999999985</v>
+      </c>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="18"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+      <c r="N10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="18">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="18">
+        <v>35</v>
+      </c>
+      <c r="T10" s="19"/>
+      <c r="U10" s="18"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="18"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="18"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="18"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="18"/>
+      <c r="Q11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="18">
+        <v>100</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="18"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="18"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="18"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="18"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="Q12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="18">
+        <v>8</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="18"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="18"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="18"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="18"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="Q13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="18">
+        <v>25.76</v>
+      </c>
+      <c r="T13" s="19"/>
+      <c r="U13" s="18"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="18"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="18"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="18"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="Q14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="18">
+        <v>4</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="18"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="18"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="18"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="18"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="Q15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="18"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="18"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="18"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="Q16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" s="18">
+        <v>0.66</v>
+      </c>
+      <c r="T16" s="19"/>
+      <c r="U16" s="18"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="18"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="18"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="18"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="Q17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="18">
+        <f>X23/X3</f>
+        <v>629.5508021390375</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="18"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="18"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="18"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="18"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="18"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="18"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="18"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="18"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="18"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="18"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="18"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="18"/>
+    </row>
+    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="22">
+        <f>C5*C4</f>
+        <v>12489.07050696449</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="22">
+        <f>F5*F4</f>
+        <v>8497.5779309198151</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="22">
+        <f>I5*I4</f>
+        <v>3025.7227272727278</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="22">
+        <f>L5*L4</f>
+        <v>174.50000000000003</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="22">
+        <f>O5*O4</f>
+        <v>1672.4069999999999</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="22">
+        <f>R5*R4</f>
+        <v>3096.2936470588238</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="22">
+        <f>U5*U4</f>
+        <v>1276.0109999999997</v>
+      </c>
+      <c r="W20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="22">
+        <f>X5*X4</f>
+        <v>1765.8899999999999</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" s="22">
+        <f>AA5*AA4</f>
+        <v>870.07499999999993</v>
+      </c>
+      <c r="AC20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD20" s="22">
+        <f>AD5*AD4</f>
+        <v>73.852499999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="22">
+        <f>I4/I3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="22">
+        <f>O4/O3</f>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="22">
+        <v>0.93</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="22">
+        <v>0.83</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="Z21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA21" s="22">
+        <f>AA4/AA3</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="AC21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD21" s="22">
+        <f>AD4/AD3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="22">
+        <f>C20/C21-C20</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="22">
+        <f>F20/F21-F20</f>
+        <v>1499.572576044673</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="22">
+        <f>I20/I21-I20</f>
+        <v>605.14454545454555</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="22">
+        <f>L20/L21-L20</f>
+        <v>142.77272727272728</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="22">
+        <f>O20/O21-O20</f>
+        <v>861.54300000000035</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="22">
+        <f>R20/R21-R20</f>
+        <v>233.05436053130916</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="22">
+        <f>U20/U21-U20</f>
+        <v>261.35165060240956</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="22">
+        <f>X20/X21-X20</f>
+        <v>311.62764705882364</v>
+      </c>
+      <c r="Z22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" s="22">
+        <f>AA20/AA21-AA20</f>
+        <v>174.01499999999999</v>
+      </c>
+      <c r="AC22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD22" s="22">
+        <f>AD20/AD21-AD20</f>
+        <v>73.852499999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="25">
+        <f>C22+C20</f>
+        <v>12489.07050696449</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="25">
+        <f>F22+F20</f>
+        <v>9997.1505069644882</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="25">
+        <f>I22+I20</f>
+        <v>3630.8672727272733</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="25">
+        <f>L22+L20</f>
+        <v>317.27272727272731</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="25">
+        <f>O22+O20</f>
+        <v>2533.9500000000003</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="25">
+        <f>R22+R20</f>
+        <v>3329.348007590133</v>
+      </c>
+      <c r="T23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" s="25">
+        <f>U22+U20</f>
+        <v>1537.3626506024093</v>
+      </c>
+      <c r="W23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="X23" s="25">
+        <f>X22+X20</f>
+        <v>2077.5176470588235</v>
+      </c>
+      <c r="Z23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA23" s="25">
+        <f>AA22+AA20</f>
+        <v>1044.0899999999999</v>
+      </c>
+      <c r="AC23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD23" s="25">
+        <f>AD22+AD20</f>
+        <v>147.70499999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B26" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B27" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="31">
+        <v>0.52</v>
+      </c>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B28" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="31">
+        <f>C23/1000</f>
+        <v>12.48907050696449</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="31">
+        <f>(C22+F22+I22+L22+O22+R22+U22+X22+AA22+AD22)/1000</f>
+        <v>4.1629340069644885</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B30" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="27">
+        <f>1-C29/C28</f>
+        <v>0.6666738325607946</v>
+      </c>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T31"/>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="R40"/>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="R42"/>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="P44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4411,6 +7868,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -4554,22 +8026,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4585,28 +8066,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30573F1-F70B-4238-9202-99A922EA32A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3794BFB-DEEF-49F6-83DD-6A9553B56577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,16 +502,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2318,8 +2318,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1113692</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4310</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3216,97 +3216,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="34"/>
+      <c r="E1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="34"/>
+      <c r="N1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="34"/>
+      <c r="Q1" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="34"/>
+      <c r="T1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="34"/>
+      <c r="W1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="34"/>
+      <c r="Z1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AC1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="34"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="34"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="34"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="34"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="34"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -4337,6 +4337,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="H2:I2"/>
@@ -4353,10 +4357,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -4396,88 +4396,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="34"/>
+      <c r="E1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="34"/>
+      <c r="N1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="34"/>
+      <c r="Q1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="34"/>
+      <c r="T1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="34"/>
+      <c r="W1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="34"/>
+      <c r="Z1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="36"/>
+      <c r="AA1" s="34"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="34"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="34"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="34"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="34"/>
+      <c r="AA2" s="36"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -5437,16 +5437,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -5455,6 +5445,16 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5495,97 +5495,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="34"/>
+      <c r="E1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="34"/>
+      <c r="N1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="34"/>
+      <c r="Q1" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="34"/>
+      <c r="T1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="34"/>
+      <c r="W1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="34"/>
+      <c r="Z1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AC1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="34"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="34"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="34"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="34"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="34"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -6634,6 +6634,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -6643,17 +6653,7 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6664,8 +6664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4DD83B-4BA0-4826-A410-8AD21EB3EE67}">
   <dimension ref="B1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6694,97 +6694,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="34"/>
+      <c r="E1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="34"/>
+      <c r="N1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="34"/>
+      <c r="Q1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="34"/>
+      <c r="T1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="34"/>
+      <c r="W1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="34"/>
+      <c r="Z1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AC1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="34"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="34"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="34"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="34"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="34"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -7841,6 +7841,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Z2:AA2"/>
@@ -7849,18 +7861,6 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7868,18 +7868,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8027,6 +8027,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -8038,14 +8046,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3794BFB-DEEF-49F6-83DD-6A9553B56577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51860CD-92E1-490F-BB39-0C9C31C492F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="94">
   <si>
     <t>TYPE</t>
   </si>
@@ -311,6 +312,18 @@
   <si>
     <t>SWR - PTN78000</t>
   </si>
+  <si>
+    <t>FPGA_VCCAUX</t>
+  </si>
+  <si>
+    <t>FPGA_VCCINT</t>
+  </si>
+  <si>
+    <t>1V2_FPGA</t>
+  </si>
+  <si>
+    <t>3V3_FPGA</t>
+  </si>
 </sst>
 </file>
 
@@ -502,16 +515,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2441,6 +2454,651 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64D33E3-A70E-494E-B3EA-E62AAA35E58F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="15303"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="24260175" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3727</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4559AB-A30E-4330-8A25-E188F2672171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6824" t="2199" r="4236"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9544050" y="4800600"/>
+          <a:ext cx="2232577" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0732D955-455E-4339-9990-E591AB1DDD62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12487276" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878D2465-B786-472F-BE74-4C044A279D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="27203400" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E682D42D-1D1C-4330-B26A-C24D9B267DC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6600825" y="4800602"/>
+          <a:ext cx="2228850" cy="2200274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E2B7DF-4FE0-4481-A9B6-CE35C2A9E1EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10882" t="1773" r="58767" b="15958"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3657601" y="4791076"/>
+          <a:ext cx="2228850" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4310</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302A8E96-734E-4A3A-9239-61DF12CEB356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1518" t="6667" r="66940" b="18181"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15430500" y="4800599"/>
+          <a:ext cx="2233160" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EEEFF8-97B0-4E6E-AFF9-4BF8FA5371E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="5672" t="25918" r="56924"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18373725" y="4807928"/>
+          <a:ext cx="2228850" cy="2192947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>710065</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BA2A12-EA36-48CE-A15E-AEFEB8BF8C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1518" t="6667" r="66940" b="18181"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21312640" y="4800600"/>
+          <a:ext cx="2233160" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83357A3A-0FD6-7D39-4A0B-57BA0E276856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1791" t="22701" r="66368"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="30146626" y="4819651"/>
+          <a:ext cx="2228850" cy="2181224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3216,97 +3874,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="34"/>
+      <c r="AD1" s="36"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="34"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="34"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="34"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="34"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -4337,11 +4995,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
@@ -4357,6 +5010,11 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -4368,7 +5026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BFB0A4-B77F-48CD-92E5-8B149633A6E8}">
   <dimension ref="B1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -4396,88 +5054,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="34"/>
+      <c r="AA1" s="36"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="34"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="34"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="34"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -5437,6 +6095,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -5445,16 +6113,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5465,7 +6123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89155B3-D098-4E85-9AE8-838E056D1B92}">
   <dimension ref="B1:AD42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -5495,97 +6153,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="34"/>
+      <c r="AD1" s="36"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="34"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="34"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="34"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="34"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -6634,16 +7292,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -6654,6 +7302,16 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6664,8 +7322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4DD83B-4BA0-4826-A410-8AD21EB3EE67}">
   <dimension ref="B1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6694,97 +7352,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="34"/>
+      <c r="AD1" s="36"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="34"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="34"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="34"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="34"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -7841,6 +8499,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -7853,14 +8519,1417 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBB86A7-5D6E-44BF-9E8E-B2B3990BB83D}">
+  <dimension ref="B1:AJ44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI25" sqref="AI25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
+    <col min="29" max="30" width="16.7109375" style="9" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="9" customWidth="1"/>
+    <col min="32" max="33" width="16.7109375" style="9" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" style="9" customWidth="1"/>
+    <col min="35" max="37" width="16.7109375" style="9" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="36"/>
+      <c r="AF1" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" s="36"/>
+      <c r="AI1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ1" s="36"/>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="34"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="34"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="34"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="34"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="12">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C4</f>
+        <v>24</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="12">
+        <f>I4</f>
+        <v>5</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="12">
+        <f>I4</f>
+        <v>5</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="V3" s="13"/>
+      <c r="W3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="12">
+        <f>R4</f>
+        <v>3.3</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="12">
+        <f>AA4</f>
+        <v>1.8</v>
+      </c>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="12">
+        <f>X4</f>
+        <v>3.3</v>
+      </c>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="12">
+        <f>AD4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12">
+        <v>24</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
+        <v>6</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="12">
+        <v>5</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="12">
+        <v>5</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="V4" s="16"/>
+      <c r="W4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="18">
+        <f>SUM(C6:C19)</f>
+        <v>774.70009676130235</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="18">
+        <f>SUM(F6:F19)</f>
+        <v>2280.9583289884281</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="18">
+        <f>SUM(I6:I19)</f>
+        <v>605.14454545454555</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="18">
+        <f>SUM(L6:L19)</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="18">
+        <f>SUM(O6:O19)</f>
+        <v>506.79</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="18">
+        <f>SUM(R6:R18)</f>
+        <v>1188.2708021390376</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="18">
+        <f>SUM(U6:U19)</f>
+        <v>386.66999999999996</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="18">
+        <f>SUM(X6:X18)</f>
+        <v>1212.1212121212122</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" s="18">
+        <f>SUM(AA6:AA19)</f>
+        <v>981.05</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="18">
+        <f>SUM(AD6:AD19)</f>
+        <v>580.04999999999995</v>
+      </c>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG5" s="18">
+        <f>SUM(AG6:AG19)</f>
+        <v>3000</v>
+      </c>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ5" s="18">
+        <f>SUM(AJ6:AJ19)</f>
+        <v>98.47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="18">
+        <v>95.83</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="18">
+        <f>I23/I3</f>
+        <v>605.14454545454555</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="18">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="18">
+        <v>13</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="18">
+        <v>163.63999999999999</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" s="18">
+        <f>AG23/AG3</f>
+        <v>1212.1212121212122</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>58</v>
+      </c>
+      <c r="AC6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>300</v>
+      </c>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG6" s="18">
+        <v>3000</v>
+      </c>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>98.47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="18">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="18">
+        <f>R23/R3</f>
+        <v>702.74079696394699</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="18">
+        <v>23.03</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="18">
+        <v>15</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" s="18">
+        <v>23.03</v>
+      </c>
+      <c r="W7" s="19"/>
+      <c r="X7" s="18"/>
+      <c r="Z7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>343</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>181.53</v>
+      </c>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="18"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="18"/>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="18">
+        <f>F23/F3</f>
+        <v>670.87009676130231</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="18">
+        <f>U23/U3</f>
+        <v>256.22710843373488</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="18">
+        <f>O23/O3</f>
+        <v>506.79000000000008</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="18"/>
+      <c r="N8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="18">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="18">
+        <v>6.6</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="18">
+        <v>100</v>
+      </c>
+      <c r="W8" s="19"/>
+      <c r="X8" s="18"/>
+      <c r="Z8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA8" s="18">
+        <f>AD23/AD3</f>
+        <v>580.04999999999995</v>
+      </c>
+      <c r="AC8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="18"/>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="20">
+        <f>X23/X3</f>
+        <v>716.84587813620067</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="18">
+        <f>L23/L3</f>
+        <v>63.45454545454546</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="18">
+        <v>318</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="18">
+        <v>100</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" s="18">
+        <v>100</v>
+      </c>
+      <c r="W9" s="19"/>
+      <c r="X9" s="18"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="18"/>
+      <c r="AC9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="18">
+        <f>AJ23/AJ3</f>
+        <v>98.469999999999985</v>
+      </c>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="18"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="18"/>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+      <c r="N10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="18">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="18">
+        <v>35</v>
+      </c>
+      <c r="T10" s="19"/>
+      <c r="U10" s="18"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="18"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="18"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="18"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="18"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="18"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="18"/>
+      <c r="Q11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="18">
+        <v>100</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="18"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="18"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="18"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="18"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="18"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="18"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="Q12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="18">
+        <v>8</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="18"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="18"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="18"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="18"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="18"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="18"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="Q13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="18">
+        <v>25.76</v>
+      </c>
+      <c r="T13" s="19"/>
+      <c r="U13" s="18"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="18"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="18"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="18"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="18"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="18"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="Q14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="18">
+        <v>4</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="18"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="18"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="18"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="18"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="18"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="18"/>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="Q15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="18"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="18"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="18"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="18"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="18"/>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="Q16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" s="18">
+        <v>0.66</v>
+      </c>
+      <c r="T16" s="19"/>
+      <c r="U16" s="18"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="18"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="18"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="18"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="18"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="18"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="Q17" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="20">
+        <v>250</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="18"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="20"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="18"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="18"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="18"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="18"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="Q18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="18">
+        <f>AA23/AA3</f>
+        <v>629.5508021390375</v>
+      </c>
+      <c r="T18" s="19"/>
+      <c r="U18" s="18"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="18"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="18"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="18"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="18"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="18"/>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="18"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="18"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="18"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="18"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="18"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="18"/>
+    </row>
+    <row r="20" spans="2:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="22">
+        <f>C5*C4</f>
+        <v>18592.802322271258</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="22">
+        <f>F5*F4</f>
+        <v>13685.749973930568</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="22">
+        <f>I5*I4</f>
+        <v>3025.7227272727278</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="22">
+        <f>L5*L4</f>
+        <v>174.50000000000003</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="22">
+        <f>O5*O4</f>
+        <v>1672.4069999999999</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="22">
+        <f>R5*R4</f>
+        <v>3921.2936470588238</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="22">
+        <f>U5*U4</f>
+        <v>1276.0109999999997</v>
+      </c>
+      <c r="W20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="22">
+        <f>X5*X4</f>
+        <v>4000</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" s="22">
+        <f>AA5*AA4</f>
+        <v>1765.8899999999999</v>
+      </c>
+      <c r="AC20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD20" s="22">
+        <f>AD5*AD4</f>
+        <v>870.07499999999993</v>
+      </c>
+      <c r="AF20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG20" s="22">
+        <f>AG5*AG4</f>
+        <v>3600</v>
+      </c>
+      <c r="AI20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ20" s="22">
+        <f>AJ5*AJ4</f>
+        <v>73.852499999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="22">
+        <f>I4/I3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="22">
+        <f>O4/O3</f>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="22">
+        <v>0.93</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="22">
+        <v>0.83</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" s="22">
+        <v>0.93</v>
+      </c>
+      <c r="Z21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA21" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="AC21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD21" s="22">
+        <f>AD4/AD3</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="AF21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG21" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="AI21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ21" s="22">
+        <f>AJ4/AJ3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="22">
+        <f>C20/C21-C20</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="22">
+        <f>F20/F21-F20</f>
+        <v>2415.1323483406886</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="22">
+        <f>I20/I21-I20</f>
+        <v>605.14454545454555</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="22">
+        <f>L20/L21-L20</f>
+        <v>142.77272727272728</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="22">
+        <f>O20/O21-O20</f>
+        <v>861.54300000000035</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="22">
+        <f>R20/R21-R20</f>
+        <v>295.15113472485791</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="22">
+        <f>U20/U21-U20</f>
+        <v>261.35165060240956</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="22">
+        <f>X20/X21-X20</f>
+        <v>301.07526881720423</v>
+      </c>
+      <c r="Z22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" s="22">
+        <f>AA20/AA21-AA20</f>
+        <v>311.62764705882364</v>
+      </c>
+      <c r="AC22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD22" s="22">
+        <f>AD20/AD21-AD20</f>
+        <v>174.01499999999999</v>
+      </c>
+      <c r="AF22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG22" s="22">
+        <f>AG20/AG21-AG20</f>
+        <v>400</v>
+      </c>
+      <c r="AI22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ22" s="22">
+        <f>AJ20/AJ21-AJ20</f>
+        <v>73.852499999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="25">
+        <f>C22+C20</f>
+        <v>18592.802322271258</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="25">
+        <f>F22+F20</f>
+        <v>16100.882322271256</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="25">
+        <f>I22+I20</f>
+        <v>3630.8672727272733</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="25">
+        <f>L22+L20</f>
+        <v>317.27272727272731</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="25">
+        <f>O22+O20</f>
+        <v>2533.9500000000003</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="25">
+        <f>R22+R20</f>
+        <v>4216.4447817836817</v>
+      </c>
+      <c r="T23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" s="25">
+        <f>U22+U20</f>
+        <v>1537.3626506024093</v>
+      </c>
+      <c r="W23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="X23" s="25">
+        <f>X22+X20</f>
+        <v>4301.0752688172042</v>
+      </c>
+      <c r="Z23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA23" s="25">
+        <f>AA22+AA20</f>
+        <v>2077.5176470588235</v>
+      </c>
+      <c r="AC23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD23" s="25">
+        <f>AD22+AD20</f>
+        <v>1044.0899999999999</v>
+      </c>
+      <c r="AF23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG23" s="25">
+        <f>AG22+AG20</f>
+        <v>4000</v>
+      </c>
+      <c r="AI23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ23" s="25">
+        <f>AJ22+AJ20</f>
+        <v>147.70499999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF25"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B26" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B27" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="31">
+        <v>0.52</v>
+      </c>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B28" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="31">
+        <f>C23/1000</f>
+        <v>18.592802322271258</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B29" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="31">
+        <f>(C22+F22+I22+L22+O22+R22+U22+AA22+AD22+AG22+AJ22+X22)/1000</f>
+        <v>5.8416658222712581</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B30" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="27">
+        <f>1-C29/C28</f>
+        <v>0.68581036247161842</v>
+      </c>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="T31"/>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="R40"/>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="R42"/>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="P44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
     <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7868,18 +9937,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8027,14 +10096,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -8046,6 +10107,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51860CD-92E1-490F-BB39-0C9C31C492F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7892E39-30CB-4046-98CF-B23A2C9662B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,16 +515,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3874,97 +3874,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="34"/>
+      <c r="E1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="34"/>
+      <c r="N1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="34"/>
+      <c r="Q1" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="34"/>
+      <c r="T1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="34"/>
+      <c r="W1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="34"/>
+      <c r="Z1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AC1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="34"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="34"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="34"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="34"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="34"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -4995,6 +4995,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
@@ -5011,10 +5015,6 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -5054,88 +5054,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="34"/>
+      <c r="E1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="34"/>
+      <c r="N1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="34"/>
+      <c r="Q1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="34"/>
+      <c r="T1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="34"/>
+      <c r="W1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="34"/>
+      <c r="Z1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="36"/>
+      <c r="AA1" s="34"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="34"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="34"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="34"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="34"/>
+      <c r="AA2" s="36"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -6095,16 +6095,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -6113,6 +6103,16 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6153,97 +6153,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="34"/>
+      <c r="E1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="34"/>
+      <c r="N1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="34"/>
+      <c r="Q1" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="34"/>
+      <c r="T1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="34"/>
+      <c r="W1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="34"/>
+      <c r="Z1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AC1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="34"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="34"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="34"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="34"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="34"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -7292,6 +7292,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -7302,16 +7312,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7352,97 +7352,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="34"/>
+      <c r="E1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="34"/>
+      <c r="N1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="34"/>
+      <c r="Q1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="34"/>
+      <c r="T1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="34"/>
+      <c r="W1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="34"/>
+      <c r="Z1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AC1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="34"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="34"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="34"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="34"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="34"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8499,14 +8499,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -8519,6 +8511,14 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8529,8 +8529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBB86A7-5D6E-44BF-9E8E-B2B3990BB83D}">
   <dimension ref="B1:AJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI25" sqref="AI25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8563,115 +8563,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="34"/>
+      <c r="E1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="34"/>
+      <c r="N1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="34"/>
+      <c r="Q1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="34"/>
+      <c r="T1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="34"/>
+      <c r="W1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="34"/>
+      <c r="Z1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AC1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AF1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AI1" s="35" t="s">
+      <c r="AG1" s="34"/>
+      <c r="AI1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="36"/>
+      <c r="AJ1" s="34"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="34"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="34"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="34"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="34"/>
+      <c r="AD2" s="36"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="33" t="s">
+      <c r="AF2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="34"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="34"/>
+      <c r="AJ2" s="36"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9155,7 +9155,7 @@
       <c r="E9" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <f>X23/X3</f>
         <v>716.84587813620067</v>
       </c>
@@ -9906,6 +9906,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -9918,18 +9930,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9937,21 +9937,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -10095,31 +10080,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10135,4 +10111,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7892E39-30CB-4046-98CF-B23A2C9662B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06806D58-7D37-49B3-A912-EFEDC68CE170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="95">
   <si>
     <t>TYPE</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>3V3_FPGA</t>
+  </si>
+  <si>
+    <t>LDO - TPS51200</t>
   </si>
 </sst>
 </file>
@@ -2850,8 +2853,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>4310</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8529,8 +8532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBB86A7-5D6E-44BF-9E8E-B2B3990BB83D}">
   <dimension ref="B1:AJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8608,7 +8611,7 @@
       </c>
       <c r="AG1" s="34"/>
       <c r="AI1" s="33" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AJ1" s="34"/>
     </row>
@@ -8860,7 +8863,7 @@
       </c>
       <c r="C5" s="18">
         <f>SUM(C6:C19)</f>
-        <v>774.70009676130235</v>
+        <v>766.89928168268261</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>76</v>
@@ -9089,7 +9092,7 @@
       </c>
       <c r="C8" s="18">
         <f>F23/F3</f>
-        <v>670.87009676130231</v>
+        <v>663.06928168268257</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>28</v>
@@ -9509,7 +9512,7 @@
       </c>
       <c r="C20" s="22">
         <f>C5*C4</f>
-        <v>18592.802322271258</v>
+        <v>18405.582760384383</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>35</v>
@@ -9601,7 +9604,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="22">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>38</v>
@@ -9682,7 +9685,7 @@
       </c>
       <c r="F22" s="22">
         <f>F20/F21-F20</f>
-        <v>2415.1323483406886</v>
+        <v>2227.9127864538132</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>36</v>
@@ -9761,14 +9764,14 @@
       </c>
       <c r="C23" s="25">
         <f>C22+C20</f>
-        <v>18592.802322271258</v>
+        <v>18405.582760384383</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="25">
         <f>F22+F20</f>
-        <v>16100.882322271256</v>
+        <v>15913.662760384381</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>37</v>
@@ -9867,7 +9870,7 @@
       </c>
       <c r="C28" s="31">
         <f>C23/1000</f>
-        <v>18.592802322271258</v>
+        <v>18.405582760384384</v>
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.25">
@@ -9876,7 +9879,7 @@
       </c>
       <c r="C29" s="31">
         <f>(C22+F22+I22+L22+O22+R22+U22+AA22+AD22+AG22+AJ22+X22)/1000</f>
-        <v>5.8416658222712581</v>
+        <v>5.6544462603843826</v>
       </c>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.25">
@@ -9885,7 +9888,7 @@
       </c>
       <c r="C30" s="27">
         <f>1-C29/C28</f>
-        <v>0.68581036247161842</v>
+        <v>0.69278634998969768</v>
       </c>
       <c r="N30"/>
     </row>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06806D58-7D37-49B3-A912-EFEDC68CE170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23070460-AF20-4314-965B-FF6999E32973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8532,8 +8532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBB86A7-5D6E-44BF-9E8E-B2B3990BB83D}">
   <dimension ref="B1:AJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23070460-AF20-4314-965B-FF6999E32973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5708EE3A-9AFB-47AC-AC81-40F77FBB0F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="98">
   <si>
     <t>TYPE</t>
   </si>
@@ -327,6 +328,15 @@
   <si>
     <t>LDO - TPS51200</t>
   </si>
+  <si>
+    <t>PFPGA (W)</t>
+  </si>
+  <si>
+    <t>6V_N</t>
+  </si>
+  <si>
+    <t>LDO - TPS7A33</t>
+  </si>
 </sst>
 </file>
 
@@ -362,7 +372,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +415,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEBFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -476,11 +492,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -530,12 +572,22 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFEBFF"/>
+      <color rgb="FFFFE1FF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3102,6 +3154,715 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E39A49D-51B0-4E80-98BC-C32DEBE2CEC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="15303"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="27140647" y="4840941"/>
+          <a:ext cx="2218765" cy="2218765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2110AD24-4FA6-4607-818F-F9E1B515F5CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15396883" y="4840941"/>
+          <a:ext cx="2218765" cy="2218765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535832EC-E683-4A55-9535-B16A22234E38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="30076588" y="4840941"/>
+          <a:ext cx="2218765" cy="2218765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E145E67-A407-4DDB-8E5D-3C904F80EC5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525000" y="4840943"/>
+          <a:ext cx="2218765" cy="2218763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FF7B82-9E18-4B47-ABEC-C10C36895519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10882" t="1773" r="58767" b="15958"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3653119" y="4829736"/>
+          <a:ext cx="2218764" cy="2229970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>4310</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC60E7D-81F6-474E-B52B-D478B98459DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1518" t="6667" r="66940" b="18181"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18332824" y="4839259"/>
+          <a:ext cx="2223074" cy="2220447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA681292-31AE-45E1-9F31-1C761BE29D53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="5672" t="25918" r="56924"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21268765" y="4848269"/>
+          <a:ext cx="2218764" cy="2211437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>710065</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B480AAD9-8AAA-4EB0-B364-511078A3189B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1518" t="6667" r="66940" b="18181"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="24197594" y="4840941"/>
+          <a:ext cx="2225877" cy="2218765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7FDE1A-3705-4268-90EC-5037F074A8DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1791" t="22701" r="66368"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="33012530" y="4859993"/>
+          <a:ext cx="2218765" cy="2199714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3727</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23600084-DCE6-4001-BF75-31DC04789D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6824" t="2199" r="4236"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6589059" y="4840941"/>
+          <a:ext cx="2222492" cy="2218765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2366</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77E44A5-529F-3CAD-28A5-F7719666DDF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8009" t="1348" r="3631" b="170"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12460941" y="4840941"/>
+          <a:ext cx="2218765" cy="2218765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8532,8 +9293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBB86A7-5D6E-44BF-9E8E-B2B3990BB83D}">
   <dimension ref="B1:AJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9895,6 +10656,15 @@
     <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="T31"/>
     </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B32" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="38">
+        <f>(U9*U4+R17*R4+R9*R4+AG6*AG4+AD6*AD4)/1000</f>
+        <v>5.5350000000000001</v>
+      </c>
+    </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D34"/>
     </row>
@@ -9933,6 +10703,1523 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AI1:AJ1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8762D1F0-0534-43F8-B171-75F652504CFE}">
+  <dimension ref="B1:AM44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
+    <col min="29" max="30" width="16.7109375" style="9" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="9" customWidth="1"/>
+    <col min="32" max="33" width="16.7109375" style="9" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" style="9" customWidth="1"/>
+    <col min="35" max="36" width="16.7109375" style="9" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="9" customWidth="1"/>
+    <col min="38" max="40" width="16.7109375" style="9" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="E1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="H1" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="34"/>
+      <c r="K1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="34"/>
+      <c r="N1" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="34"/>
+      <c r="Q1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="34"/>
+      <c r="T1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="34"/>
+      <c r="W1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="34"/>
+      <c r="Z1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" s="34"/>
+      <c r="AC1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" s="34"/>
+      <c r="AF1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG1" s="34"/>
+      <c r="AI1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ1" s="34"/>
+      <c r="AL1" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM1" s="34"/>
+    </row>
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="36"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM2" s="36"/>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="12">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C4</f>
+        <v>24</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="12">
+        <f>I4</f>
+        <v>6</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="12">
+        <f>L4</f>
+        <v>5</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="V3" s="13"/>
+      <c r="W3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="12">
+        <f>U4</f>
+        <v>3.3</v>
+      </c>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="12">
+        <f>AD4</f>
+        <v>1.8</v>
+      </c>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="12">
+        <f>AA4</f>
+        <v>3.3</v>
+      </c>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM3" s="12">
+        <f>AG4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12">
+        <v>24</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
+        <v>6</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="12">
+        <v>6</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="12">
+        <v>5</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="12">
+        <v>5</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="V4" s="16"/>
+      <c r="W4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM4" s="12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="18">
+        <f>SUM(C6:C19)</f>
+        <v>748.45319288775659</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="18">
+        <f>SUM(F7:F19)</f>
+        <v>2217.5037835338826</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="18">
+        <f>SUM(I6:I19)</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="18">
+        <f>SUM(L6:L19)</f>
+        <v>541.69000000000005</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="18">
+        <f>SUM(O6:O19)</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="18">
+        <f>SUM(R6:R19)</f>
+        <v>506.79</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="18">
+        <f>SUM(U6:U18)</f>
+        <v>1188.2708021390376</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="18">
+        <f>SUM(X6:X19)</f>
+        <v>386.66999999999996</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" s="18">
+        <f>SUM(AA6:AA18)</f>
+        <v>1212.1212121212122</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="18">
+        <f>SUM(AD6:AD19)</f>
+        <v>981.05</v>
+      </c>
+      <c r="AF5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG5" s="18">
+        <f>SUM(AG6:AG19)</f>
+        <v>580.04999999999995</v>
+      </c>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ5" s="18">
+        <f>SUM(AJ6:AJ19)</f>
+        <v>3000</v>
+      </c>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM5" s="18">
+        <f>SUM(AM6:AM19)</f>
+        <v>98.47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="18">
+        <v>95.83</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="18">
+        <f>I23/I3</f>
+        <v>41.058823529411775</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="18">
+        <f>O23/O3</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="18">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="18">
+        <v>13</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="18">
+        <v>163.63999999999999</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6" s="18">
+        <f>AJ23/AJ3</f>
+        <v>1212.1212121212122</v>
+      </c>
+      <c r="AC6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>58</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG6" s="18">
+        <v>300</v>
+      </c>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>3000</v>
+      </c>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>98.47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="18">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="18">
+        <f>L23/L3</f>
+        <v>541.69000000000005</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
+      <c r="K7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="18">
+        <v>23.03</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="18">
+        <v>15</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" s="18">
+        <v>23.03</v>
+      </c>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="18"/>
+      <c r="AC7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>343</v>
+      </c>
+      <c r="AF7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG7" s="18">
+        <v>181.53</v>
+      </c>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="18"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="18"/>
+    </row>
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="18">
+        <f>F23/F3</f>
+        <v>644.62319288775655</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="18">
+        <f>U23/U3</f>
+        <v>702.74079696394699</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+      <c r="K8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="18">
+        <f>R23/R3</f>
+        <v>506.79000000000008</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="18"/>
+      <c r="Q8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="18">
+        <v>56</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="18">
+        <v>6.6</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="X8" s="18">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="18"/>
+      <c r="AC8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="18">
+        <f>AG23/AG3</f>
+        <v>580.04999999999995</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG8" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="18"/>
+    </row>
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="18">
+        <f>X23/X3</f>
+        <v>256.22710843373488</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="18"/>
+      <c r="Q9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="18">
+        <v>318</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="18">
+        <v>100</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" s="18">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="18"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="18"/>
+      <c r="AF9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG9" s="18">
+        <f>AM23/AM3</f>
+        <v>98.469999999999985</v>
+      </c>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="18"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="18"/>
+    </row>
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="E10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="18">
+        <f>AA23/AA3</f>
+        <v>716.84587813620067</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="18"/>
+      <c r="Q10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="18">
+        <v>34</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" s="18">
+        <v>35</v>
+      </c>
+      <c r="W10" s="19"/>
+      <c r="X10" s="18"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="18"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="18"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="18"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="18"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="18"/>
+    </row>
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="18"/>
+      <c r="T11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" s="18">
+        <v>100</v>
+      </c>
+      <c r="W11" s="19"/>
+      <c r="X11" s="18"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="18"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="18"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="18"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="18"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="18"/>
+    </row>
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="18"/>
+      <c r="T12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="U12" s="18">
+        <v>8</v>
+      </c>
+      <c r="W12" s="19"/>
+      <c r="X12" s="18"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="18"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="18"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="18"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="18"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="18"/>
+    </row>
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="18"/>
+      <c r="T13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" s="18">
+        <v>25.76</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="18"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="18"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="18"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="18"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="18"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="18"/>
+    </row>
+    <row r="14" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="18"/>
+      <c r="T14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" s="18">
+        <v>4</v>
+      </c>
+      <c r="W14" s="19"/>
+      <c r="X14" s="18"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="18"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="18"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="18"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="18"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="18"/>
+    </row>
+    <row r="15" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="18"/>
+      <c r="T15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="W15" s="17"/>
+      <c r="X15" s="18"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="18"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="18"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="18"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="18"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="18"/>
+    </row>
+    <row r="16" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="18"/>
+      <c r="T16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="U16" s="18">
+        <v>0.66</v>
+      </c>
+      <c r="W16" s="19"/>
+      <c r="X16" s="18"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="18"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="18"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="18"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="18"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="18"/>
+    </row>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="18"/>
+      <c r="T17" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="U17" s="20">
+        <v>250</v>
+      </c>
+      <c r="W17" s="19"/>
+      <c r="X17" s="18"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="20"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="18"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="18"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="18"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="18"/>
+    </row>
+    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="18"/>
+      <c r="T18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="18">
+        <f>AD23/AD3</f>
+        <v>629.5508021390375</v>
+      </c>
+      <c r="W18" s="19"/>
+      <c r="X18" s="18"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="18"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="18"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="18"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="18"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="18"/>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="18"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="18"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="18"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="18"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="18"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="18"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="18"/>
+    </row>
+    <row r="20" spans="2:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="22">
+        <f>C5*C4</f>
+        <v>17962.876629306156</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="22">
+        <f>F5*F4</f>
+        <v>13305.022701203296</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="22">
+        <f>I5*I4</f>
+        <v>209.40000000000003</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="22">
+        <f>L5*L4</f>
+        <v>2708.4500000000003</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="22">
+        <f>O5*O4</f>
+        <v>174.50000000000003</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="22">
+        <f>R5*R4</f>
+        <v>1672.4069999999999</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="22">
+        <f>U5*U4</f>
+        <v>3921.2936470588238</v>
+      </c>
+      <c r="V20" s="9"/>
+      <c r="W20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="22">
+        <f>X5*X4</f>
+        <v>1276.0109999999997</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" s="22">
+        <f>AA5*AA4</f>
+        <v>4000</v>
+      </c>
+      <c r="AC20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD20" s="22">
+        <f>AD5*AD4</f>
+        <v>1765.8899999999999</v>
+      </c>
+      <c r="AF20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG20" s="22">
+        <f>AG5*AG4</f>
+        <v>870.07499999999993</v>
+      </c>
+      <c r="AI20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ20" s="22">
+        <f>AJ5*AJ4</f>
+        <v>3600</v>
+      </c>
+      <c r="AL20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM20" s="22">
+        <f>AM5*AM4</f>
+        <v>73.852499999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="22">
+        <f>L4/L3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="22">
+        <f>O4/O3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="22">
+        <f>R4/R3</f>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="T21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="22">
+        <v>0.93</v>
+      </c>
+      <c r="V21" s="13"/>
+      <c r="W21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" s="22">
+        <v>0.83</v>
+      </c>
+      <c r="Z21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA21" s="22">
+        <v>0.93</v>
+      </c>
+      <c r="AC21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD21" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="AF21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG21" s="22">
+        <f>AG4/AG3</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="AI21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ21" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="AL21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM21" s="22">
+        <f>AM4/AM3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="22">
+        <f>C20/C21-C20</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="22">
+        <f>F20/F21-F20</f>
+        <v>2165.9339281028624</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="22">
+        <f>I20/I21-I20</f>
+        <v>36.952941176470603</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="22">
+        <f>L20/L21-L20</f>
+        <v>541.69000000000005</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="22">
+        <f>O20/O21-O20</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="22">
+        <f>R20/R21-R20</f>
+        <v>861.54300000000035</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="22">
+        <f>U20/U21-U20</f>
+        <v>295.15113472485791</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="22">
+        <f>X20/X21-X20</f>
+        <v>261.35165060240956</v>
+      </c>
+      <c r="Z22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" s="22">
+        <f>AA20/AA21-AA20</f>
+        <v>301.07526881720423</v>
+      </c>
+      <c r="AC22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD22" s="22">
+        <f>AD20/AD21-AD20</f>
+        <v>311.62764705882364</v>
+      </c>
+      <c r="AF22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG22" s="22">
+        <f>AG20/AG21-AG20</f>
+        <v>174.01499999999999</v>
+      </c>
+      <c r="AI22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ22" s="22">
+        <f>AJ20/AJ21-AJ20</f>
+        <v>400</v>
+      </c>
+      <c r="AL22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM22" s="22">
+        <f>AM20/AM21-AM20</f>
+        <v>73.852499999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="25">
+        <f>C22+C20</f>
+        <v>17962.876629306156</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="25">
+        <f>F22+F20</f>
+        <v>15470.956629306158</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="25">
+        <f>I22+I20</f>
+        <v>246.35294117647064</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="25">
+        <f>L22+L20</f>
+        <v>3250.1400000000003</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="25">
+        <f>O22+O20</f>
+        <v>209.40000000000003</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="25">
+        <f>R22+R20</f>
+        <v>2533.9500000000003</v>
+      </c>
+      <c r="T23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" s="25">
+        <f>U22+U20</f>
+        <v>4216.4447817836817</v>
+      </c>
+      <c r="W23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="X23" s="25">
+        <f>X22+X20</f>
+        <v>1537.3626506024093</v>
+      </c>
+      <c r="Z23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA23" s="25">
+        <f>AA22+AA20</f>
+        <v>4301.0752688172042</v>
+      </c>
+      <c r="AC23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD23" s="25">
+        <f>AD22+AD20</f>
+        <v>2077.5176470588235</v>
+      </c>
+      <c r="AF23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG23" s="25">
+        <f>AG22+AG20</f>
+        <v>1044.0899999999999</v>
+      </c>
+      <c r="AI23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ23" s="25">
+        <f>AJ22+AJ20</f>
+        <v>4000</v>
+      </c>
+      <c r="AL23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM23" s="25">
+        <f>AM22+AM20</f>
+        <v>147.70499999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AI25"/>
+    </row>
+    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B26" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B27" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="31">
+        <v>0.52</v>
+      </c>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B28" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="31">
+        <f>C23/1000</f>
+        <v>17.962876629306155</v>
+      </c>
+    </row>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B29" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="31">
+        <f>(C22+F22+L22+O22+R22+U22+X22+AD22+AG22+AJ22+AM22+AA22+I22)/1000</f>
+        <v>5.4580930704826294</v>
+      </c>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B30" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="27">
+        <f>1-C29/C28</f>
+        <v>0.69614593569173466</v>
+      </c>
+      <c r="N30"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="W31"/>
+    </row>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B32" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="38">
+        <f>(X9*X4+U17*U4+U9*U4+AJ6*AJ4+AG6*AG4)/1000</f>
+        <v>5.5350000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+    </row>
+    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="U40"/>
+    </row>
+    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="U42"/>
+    </row>
+    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="S44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5708EE3A-9AFB-47AC-AC81-40F77FBB0F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B38B2BE-2223-433B-A529-3B12498C0AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10714,7 +10714,7 @@
   <dimension ref="B1:AM44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B38B2BE-2223-433B-A529-3B12498C0AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54054A2-2D34-45A5-94F8-53AE2E6860D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,15 @@
     <xf numFmtId="2" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,14 +574,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4175,26 +4175,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="32"/>
+      <c r="L1" s="34"/>
       <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
@@ -4638,46 +4638,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="34"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
@@ -5759,11 +5759,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
@@ -5777,6 +5772,11 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="Z2:AA2"/>
   </mergeCells>
@@ -5818,42 +5818,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="34"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
@@ -6859,6 +6859,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -6867,16 +6877,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6917,46 +6917,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="34"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
@@ -8056,16 +8056,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -8076,6 +8066,16 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8116,46 +8116,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="34"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
@@ -9263,6 +9263,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -9275,14 +9283,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9327,54 +9327,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="34"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
@@ -10657,10 +10657,10 @@
       <c r="T31"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="33">
         <f>(U9*U4+R17*R4+R9*R4+AG6*AG4+AD6*AD4)/1000</f>
         <v>5.5350000000000001</v>
       </c>
@@ -10679,6 +10679,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -10691,18 +10703,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10711,10 +10711,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8762D1F0-0534-43F8-B171-75F652504CFE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:AM44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10749,58 +10752,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AL1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AM1" s="34"/>
+      <c r="AM1" s="38"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
@@ -12172,10 +12175,10 @@
       <c r="W31"/>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="33">
         <f>(X9*X4+U17*U4+U9*U4+AJ6*AJ4+AG6*AG4)/1000</f>
         <v>5.5350000000000001</v>
       </c>
@@ -12194,11 +12197,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -12207,26 +12218,28 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -12370,15 +12383,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -12386,6 +12390,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12399,14 +12411,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54054A2-2D34-45A5-94F8-53AE2E6860D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E5C52-69AE-4C28-AD7C-AEB70E3C0BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5759,6 +5759,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
@@ -5775,10 +5779,6 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -6859,16 +6859,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -6877,6 +6867,16 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8056,6 +8056,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -8066,16 +8076,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9263,14 +9263,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -9283,6 +9275,14 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10679,6 +10679,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -10691,18 +10703,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10717,7 +10717,7 @@
   <dimension ref="B1:AM44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12197,6 +12197,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -12210,19 +12223,6 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -12231,15 +12231,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -12383,6 +12374,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -12390,14 +12390,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12411,6 +12403,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E5C52-69AE-4C28-AD7C-AEB70E3C0BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94235978-E8C8-46DF-AE59-2261A00D9A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,16 +562,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4638,97 +4638,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="36"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -5759,11 +5759,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -5779,6 +5774,11 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -5818,88 +5818,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="38"/>
+      <c r="AA1" s="36"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -6859,6 +6859,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -6867,16 +6877,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6917,97 +6917,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="36"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8056,16 +8056,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -8076,6 +8066,16 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8116,97 +8116,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="36"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9263,6 +9263,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -9275,14 +9283,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9327,115 +9327,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AF1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AI1" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="38"/>
+      <c r="AJ1" s="36"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AF2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="36"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AI2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="36"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -10679,6 +10679,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -10691,18 +10703,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10716,8 +10716,8 @@
   </sheetPr>
   <dimension ref="B1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10752,124 +10752,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AF1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AI1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AL1" s="37" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AL1" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="AM1" s="38"/>
+      <c r="AM1" s="36"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AF2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="36"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AI2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="36"/>
+      <c r="AJ2" s="38"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="35" t="s">
+      <c r="AL2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="36"/>
+      <c r="AM2" s="38"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -12197,6 +12197,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -12210,19 +12223,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -12231,6 +12231,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -12374,15 +12383,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -12390,6 +12390,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12403,14 +12411,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94235978-E8C8-46DF-AE59-2261A00D9A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A06C921-BDC3-4268-9F22-B549C9D960A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="99">
   <si>
     <t>TYPE</t>
   </si>
@@ -337,6 +337,9 @@
   <si>
     <t>LDO - TPS7A33</t>
   </si>
+  <si>
+    <t>DRV_FETS</t>
+  </si>
 </sst>
 </file>
 
@@ -562,16 +565,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4638,97 +4641,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -5759,6 +5762,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -5774,11 +5782,6 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -5818,88 +5821,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="36"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="36"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -6859,16 +6862,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -6877,6 +6870,16 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6917,97 +6920,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8056,6 +8059,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -8066,16 +8079,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8116,97 +8119,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9263,14 +9266,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -9283,6 +9278,14 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9327,115 +9330,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AI1" s="35" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="36"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="36"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="36"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -10679,6 +10682,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -10691,18 +10706,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10716,8 +10719,8 @@
   </sheetPr>
   <dimension ref="B1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10752,124 +10755,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AI1" s="35" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AL1" s="35" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AL1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AM1" s="36"/>
+      <c r="AM1" s="38"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="36"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="36"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="36"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="37" t="s">
+      <c r="AL2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="38"/>
+      <c r="AM2" s="36"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -11073,7 +11076,7 @@
       </c>
       <c r="C5" s="18">
         <f>SUM(C6:C19)</f>
-        <v>748.45319288775659</v>
+        <v>2978.8031928877563</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>76</v>
@@ -11164,10 +11167,10 @@
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C6" s="18">
-        <v>95.83</v>
+        <v>261.18</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>96</v>
@@ -11252,7 +11255,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="18">
-        <v>8</v>
+        <v>2073</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>83</v>
@@ -11762,7 +11765,7 @@
       </c>
       <c r="C20" s="22">
         <f>C5*C4</f>
-        <v>17962.876629306156</v>
+        <v>71491.276629306143</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>35</v>
@@ -12035,7 +12038,7 @@
       </c>
       <c r="C23" s="25">
         <f>C22+C20</f>
-        <v>17962.876629306156</v>
+        <v>71491.276629306143</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>37</v>
@@ -12138,7 +12141,8 @@
         <v>74</v>
       </c>
       <c r="C27" s="31">
-        <v>0.52</v>
+        <f>C5/1000</f>
+        <v>2.9788031928877561</v>
       </c>
       <c r="F27"/>
     </row>
@@ -12148,7 +12152,7 @@
       </c>
       <c r="C28" s="31">
         <f>C23/1000</f>
-        <v>17.962876629306155</v>
+        <v>71.491276629306142</v>
       </c>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.25">
@@ -12166,7 +12170,7 @@
       </c>
       <c r="C30" s="27">
         <f>1-C29/C28</f>
-        <v>0.69614593569173466</v>
+        <v>0.92365371933720353</v>
       </c>
       <c r="N30"/>
       <c r="Q30"/>
@@ -12197,6 +12201,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -12210,19 +12227,6 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -12231,15 +12235,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -12383,6 +12378,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -12390,14 +12394,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12411,6 +12407,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A06C921-BDC3-4268-9F22-B549C9D960A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DA1097-4B5F-43F5-B176-47442D04D553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="116">
   <si>
     <t>TYPE</t>
   </si>
@@ -340,6 +341,57 @@
   <si>
     <t>DRV_FETS</t>
   </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Prepreg</t>
+  </si>
+  <si>
+    <t>Signal (GND)</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Bot</t>
+  </si>
+  <si>
+    <t>Signal (PWR)</t>
+  </si>
+  <si>
+    <t>Thickness (mils)</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>mils</t>
+  </si>
+  <si>
+    <t>Thickness (mm)</t>
+  </si>
+  <si>
+    <t>Converters</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Total GND</t>
+  </si>
+  <si>
+    <t>Total Signal</t>
+  </si>
+  <si>
+    <t>Total PWR</t>
+  </si>
+  <si>
+    <t>Tot thickness</t>
+  </si>
 </sst>
 </file>
 
@@ -525,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -565,23 +617,765 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="105">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
@@ -4641,97 +5435,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="36"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -5762,11 +6556,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -5782,6 +6571,11 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -5821,88 +6615,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="38"/>
+      <c r="AA1" s="36"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -6862,6 +7656,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -6870,16 +7674,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6920,97 +7714,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="36"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8059,16 +8853,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -8079,6 +8863,16 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8119,97 +8913,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="36"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9266,6 +10060,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -9278,14 +10080,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9330,115 +10124,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AF1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AI1" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="38"/>
+      <c r="AJ1" s="36"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AF2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="36"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AI2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="36"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -10682,6 +11476,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -10694,18 +11500,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10719,7 +11513,7 @@
   </sheetPr>
   <dimension ref="B1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -10755,124 +11549,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="36"/>
+      <c r="Z1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AC1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="36"/>
+      <c r="AF1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AI1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AL1" s="37" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AL1" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="AM1" s="38"/>
+      <c r="AM1" s="36"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="36"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="36"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AF2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="36"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AI2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="36"/>
+      <c r="AJ2" s="38"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="35" t="s">
+      <c r="AL2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="36"/>
+      <c r="AM2" s="38"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -12201,6 +12995,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -12214,19 +13021,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -12234,7 +13028,798 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="14.7109375" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="40">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="C2" s="40">
+        <f>B2*0.0254</f>
+        <v>3.5001199999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="40">
+        <v>3</v>
+      </c>
+      <c r="C3" s="40">
+        <f t="shared" ref="C3:C28" si="0">B3*0.0254</f>
+        <v>7.619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="40">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C4" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7500599999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="40">
+        <v>5</v>
+      </c>
+      <c r="C5" s="40">
+        <f t="shared" si="0"/>
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="40">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C6" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7500599999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="40">
+        <v>3</v>
+      </c>
+      <c r="C7" s="40">
+        <f t="shared" si="0"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="40">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C8" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7500599999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="40">
+        <v>5</v>
+      </c>
+      <c r="C9" s="40">
+        <f t="shared" si="0"/>
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="40">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C10" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7500599999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="40">
+        <v>3</v>
+      </c>
+      <c r="C11" s="40">
+        <f t="shared" si="0"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="40">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C12" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7500599999999998E-2</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="40">
+        <v>5</v>
+      </c>
+      <c r="C13" s="40">
+        <f t="shared" si="0"/>
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="40">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C14" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7500599999999998E-2</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="40">
+        <v>3</v>
+      </c>
+      <c r="C15" s="40">
+        <f t="shared" si="0"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="40">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C16" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7500599999999998E-2</v>
+      </c>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="40">
+        <v>5</v>
+      </c>
+      <c r="C17" s="40">
+        <f t="shared" si="0"/>
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="40">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C18" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7500599999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="40">
+        <v>3</v>
+      </c>
+      <c r="C19" s="40">
+        <f t="shared" si="0"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="40">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C20" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7500599999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="40">
+        <v>5</v>
+      </c>
+      <c r="C21" s="40">
+        <f t="shared" si="0"/>
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="40">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C22" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7500599999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="40">
+        <v>3</v>
+      </c>
+      <c r="C23" s="40">
+        <f t="shared" si="0"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="40">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C24" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7500599999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="40">
+        <v>5</v>
+      </c>
+      <c r="C25" s="40">
+        <f t="shared" si="0"/>
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="40">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C26" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7500599999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="40">
+        <v>3</v>
+      </c>
+      <c r="C27" s="40">
+        <f t="shared" si="0"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="40">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="C28" s="40">
+        <f t="shared" si="0"/>
+        <v>3.5001199999999996E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="40">
+        <f>SUM(B2:B28)+2</f>
+        <v>64.024000000000001</v>
+      </c>
+      <c r="C29" s="39">
+        <f>SUM(C2:C28)+2</f>
+        <v>3.5754096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="39">
+        <f>COUNTIF(A2:A28, "Signal (GND)")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="39">
+        <f>COUNTIF(A2:A28, "Signal (PWR)")</f>
+        <v>2</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="39">
+        <f>COUNTIF(A2:A28, "Top")+COUNTIF(A2:A28, "Bot")+COUNTIF(A2:A28, "Signal")</f>
+        <v>5</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="39">
+        <v>0.08</v>
+      </c>
+      <c r="F33" s="39">
+        <f>E33*39.37</f>
+        <v>3.1496</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="39">
+        <v>1</v>
+      </c>
+      <c r="F35" s="39">
+        <f>E35*0.0254</f>
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A11 A17 E31:F31 A13 A15 A19:A32">
+    <cfRule type="cellIs" dxfId="104" priority="176" operator="equal">
+      <formula>"Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="177" operator="equal">
+      <formula>"Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="178" operator="equal">
+      <formula>"Core"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="179" operator="equal">
+      <formula>"Prepreg"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="180" operator="equal">
+      <formula>"Signal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="181" operator="equal">
+      <formula>"Bot"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="182" operator="equal">
+      <formula>"Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B11 B13:C13 B15:C15 B17:C17 B19:C28">
+    <cfRule type="expression" dxfId="97" priority="162">
+      <formula>$A2="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="163">
+      <formula>$A2="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="164">
+      <formula>$A2="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="165">
+      <formula>$A2="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="166">
+      <formula>$A2="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="167">
+      <formula>$A2="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="168">
+      <formula>$A2="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="expression" dxfId="90" priority="127">
+      <formula>$A2="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="128">
+      <formula>$A2="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="129">
+      <formula>$A2="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="130">
+      <formula>$A2="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="131">
+      <formula>$A2="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="132">
+      <formula>$A2="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="133">
+      <formula>$A2="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="cellIs" dxfId="83" priority="78" operator="equal">
+      <formula>"Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
+      <formula>"Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="80" operator="equal">
+      <formula>"Core"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
+      <formula>"Prepreg"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="82" operator="equal">
+      <formula>"Signal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="83" operator="equal">
+      <formula>"Bot"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="84" operator="equal">
+      <formula>"Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="76" priority="71">
+      <formula>$A12="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="72">
+      <formula>$A12="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="73">
+      <formula>$A12="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="74">
+      <formula>$A12="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="75">
+      <formula>$A12="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="76">
+      <formula>$A12="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="77">
+      <formula>$A12="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="69" priority="64">
+      <formula>$A12="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="65">
+      <formula>$A12="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="66">
+      <formula>$A12="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="67">
+      <formula>$A12="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="68">
+      <formula>$A12="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="69">
+      <formula>$A12="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="70">
+      <formula>$A12="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
+      <formula>"Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="58" operator="equal">
+      <formula>"Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
+      <formula>"Core"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
+      <formula>"Prepreg"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
+      <formula>"Signal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
+      <formula>"Bot"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="63" operator="equal">
+      <formula>"Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="55" priority="50">
+      <formula>$A14="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="51">
+      <formula>$A14="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="52">
+      <formula>$A14="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="53">
+      <formula>$A14="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="54">
+      <formula>$A14="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="55">
+      <formula>$A14="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="56">
+      <formula>$A14="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="48" priority="43">
+      <formula>$A14="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="44">
+      <formula>$A14="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="45">
+      <formula>$A14="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>$A14="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="47">
+      <formula>$A14="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="48">
+      <formula>$A14="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="49">
+      <formula>$A14="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+      <formula>"Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+      <formula>"Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+      <formula>"Core"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>"Prepreg"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+      <formula>"Signal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+      <formula>"Bot"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+      <formula>"Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="34" priority="29">
+      <formula>$A16="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="30">
+      <formula>$A16="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="31">
+      <formula>$A16="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>$A16="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="33">
+      <formula>$A16="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="34">
+      <formula>$A16="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="35">
+      <formula>$A16="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>$A16="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="23">
+      <formula>$A16="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="24">
+      <formula>$A16="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$A16="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>$A16="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="27">
+      <formula>$A16="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="28">
+      <formula>$A16="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>"Core"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"Prepreg"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>"Signal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+      <formula>"Bot"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+      <formula>"Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>$A18="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="9">
+      <formula>$A18="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>$A18="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$A18="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>$A18="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>$A18="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>$A18="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$A18="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$A18="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$A18="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$A18="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$A18="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>$A18="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>$A18="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -12378,15 +13963,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -12394,6 +13970,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12407,14 +13991,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DA1097-4B5F-43F5-B176-47442D04D553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDE1186-B5EB-4726-98BC-3F99B1EFF806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="144">
   <si>
     <t>TYPE</t>
   </si>
@@ -391,13 +391,97 @@
   </si>
   <si>
     <t>Tot thickness</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Top layer</t>
+  </si>
+  <si>
+    <t>Dielectric 1</t>
+  </si>
+  <si>
+    <t>Int1 (GND)</t>
+  </si>
+  <si>
+    <t>Dielectric 2</t>
+  </si>
+  <si>
+    <t>Int2 (Signal)</t>
+  </si>
+  <si>
+    <t>Delectric 3</t>
+  </si>
+  <si>
+    <t>Dielectric 4</t>
+  </si>
+  <si>
+    <t>Dielectric 5</t>
+  </si>
+  <si>
+    <t>Dielectric 6</t>
+  </si>
+  <si>
+    <t>Int3 (GND)</t>
+  </si>
+  <si>
+    <t>Int4 (Signal)</t>
+  </si>
+  <si>
+    <t>Int5 (GND)</t>
+  </si>
+  <si>
+    <t>Int6 (PWR)</t>
+  </si>
+  <si>
+    <t>Dieletric 7</t>
+  </si>
+  <si>
+    <t>Int7 (GND)</t>
+  </si>
+  <si>
+    <t>Dieletric 8</t>
+  </si>
+  <si>
+    <t>Int8 (PWR)</t>
+  </si>
+  <si>
+    <t>Dieletric 9</t>
+  </si>
+  <si>
+    <t>Int9 (GND)</t>
+  </si>
+  <si>
+    <t>Dieletric 10</t>
+  </si>
+  <si>
+    <t>Int10 (GND)</t>
+  </si>
+  <si>
+    <t>Dieltric 11</t>
+  </si>
+  <si>
+    <t>Int11 (Signal)</t>
+  </si>
+  <si>
+    <t>Dieletric 12</t>
+  </si>
+  <si>
+    <t>Int12 (GND)</t>
+  </si>
+  <si>
+    <t>Dieltric 13</t>
+  </si>
+  <si>
+    <t>Bottom Layer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +509,12 @@
       <color theme="1"/>
       <name val="IBM Plex Sans Condensed"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -614,7 +704,19 @@
     <xf numFmtId="2" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,72 +725,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -784,496 +825,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4972,26 +4523,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="34"/>
+      <c r="L1" s="36"/>
       <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5435,46 +4986,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
@@ -6556,6 +6107,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -6571,11 +6127,6 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -6615,42 +6166,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="36"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
@@ -7656,16 +7207,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -7674,6 +7215,16 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7714,46 +7265,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
@@ -8853,6 +8404,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -8863,16 +8424,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8913,46 +8464,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="36"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
@@ -10060,14 +9611,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -10080,6 +9623,14 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10124,54 +9675,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AI1" s="35" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="36"/>
+      <c r="AJ1" s="40"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
@@ -11476,6 +11027,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -11488,18 +11051,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11549,58 +11100,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AI1" s="35" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AL1" s="35" t="s">
+      <c r="AJ1" s="40"/>
+      <c r="AL1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AM1" s="36"/>
+      <c r="AM1" s="40"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
@@ -12995,6 +12546,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -13008,19 +12572,6 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -13030,780 +12581,612 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="14.7109375" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="7" width="14.7109375" style="34" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="40">
+      <c r="C2" s="35">
         <v>1.3779999999999999</v>
       </c>
-      <c r="C2" s="40">
-        <f>B2*0.0254</f>
+      <c r="D2" s="35">
+        <f>C2*0.0254</f>
         <v>3.5001199999999996E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="40">
+      <c r="C3" s="35">
         <v>3</v>
       </c>
-      <c r="C3" s="40">
-        <f t="shared" ref="C3:C28" si="0">B3*0.0254</f>
+      <c r="D3" s="35">
+        <f t="shared" ref="D3:D28" si="0">C3*0.0254</f>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="40">
+      <c r="C4" s="35">
         <v>0.68899999999999995</v>
       </c>
-      <c r="C4" s="40">
+      <c r="D4" s="35">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="40">
+      <c r="C5" s="35">
         <v>5</v>
       </c>
-      <c r="C5" s="40">
+      <c r="D5" s="35">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="40">
+      <c r="C6" s="35">
         <v>0.68899999999999995</v>
       </c>
-      <c r="C6" s="40">
+      <c r="D6" s="35">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="40">
+      <c r="C7" s="35">
         <v>3</v>
       </c>
-      <c r="C7" s="40">
+      <c r="D7" s="35">
         <f t="shared" si="0"/>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="40">
+      <c r="C8" s="35">
         <v>0.68899999999999995</v>
       </c>
-      <c r="C8" s="40">
+      <c r="D8" s="35">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="40">
+      <c r="C9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="40">
+      <c r="D9" s="35">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="40">
+      <c r="C10" s="35">
         <v>0.68899999999999995</v>
       </c>
-      <c r="C10" s="40">
+      <c r="D10" s="35">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="40">
+      <c r="C11" s="35">
         <v>3</v>
       </c>
-      <c r="C11" s="40">
+      <c r="D11" s="35">
         <f t="shared" si="0"/>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="40">
+      <c r="C12" s="35">
         <v>0.68899999999999995</v>
       </c>
-      <c r="C12" s="40">
+      <c r="D12" s="35">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="40">
+      <c r="C13" s="35">
         <v>5</v>
       </c>
-      <c r="C13" s="40">
+      <c r="D13" s="35">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="40">
+      <c r="C14" s="35">
         <v>0.68899999999999995</v>
       </c>
-      <c r="C14" s="40">
+      <c r="D14" s="35">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="40">
+      <c r="C15" s="35">
         <v>3</v>
       </c>
-      <c r="C15" s="40">
+      <c r="D15" s="35">
         <f t="shared" si="0"/>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="40">
+      <c r="C16" s="35">
         <v>0.68899999999999995</v>
       </c>
-      <c r="C16" s="40">
+      <c r="D16" s="35">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="40">
+      <c r="C17" s="35">
         <v>5</v>
       </c>
-      <c r="C17" s="40">
+      <c r="D17" s="35">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="40">
+      <c r="C18" s="35">
         <v>0.68899999999999995</v>
       </c>
-      <c r="C18" s="40">
+      <c r="D18" s="35">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="40">
+      <c r="C19" s="35">
         <v>3</v>
       </c>
-      <c r="C19" s="40">
+      <c r="D19" s="35">
         <f t="shared" si="0"/>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="40">
+      <c r="C20" s="35">
         <v>0.68899999999999995</v>
       </c>
-      <c r="C20" s="40">
+      <c r="D20" s="35">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="40">
+      <c r="C21" s="35">
         <v>5</v>
       </c>
-      <c r="C21" s="40">
+      <c r="D21" s="35">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="40">
+      <c r="C22" s="35">
         <v>0.68899999999999995</v>
       </c>
-      <c r="C22" s="40">
+      <c r="D22" s="35">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="40">
+      <c r="C23" s="35">
         <v>3</v>
       </c>
-      <c r="C23" s="40">
+      <c r="D23" s="35">
         <f t="shared" si="0"/>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="40">
+      <c r="C24" s="35">
         <v>0.68899999999999995</v>
       </c>
-      <c r="C24" s="40">
+      <c r="D24" s="35">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="40">
+      <c r="C25" s="35">
         <v>5</v>
       </c>
-      <c r="C25" s="40">
+      <c r="D25" s="35">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="40">
+      <c r="C26" s="35">
         <v>0.68899999999999995</v>
       </c>
-      <c r="C26" s="40">
+      <c r="D26" s="35">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="40">
+      <c r="C27" s="35">
         <v>3</v>
       </c>
-      <c r="C27" s="40">
+      <c r="D27" s="35">
         <f t="shared" si="0"/>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="40">
+      <c r="C28" s="35">
         <v>1.3779999999999999</v>
       </c>
-      <c r="C28" s="40">
+      <c r="D28" s="35">
         <f t="shared" si="0"/>
         <v>3.5001199999999996E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="40">
-        <f>SUM(B2:B28)+2</f>
+      <c r="C29" s="35">
+        <f>SUM(C2:C28)+2</f>
         <v>64.024000000000001</v>
       </c>
-      <c r="C29" s="39">
-        <f>SUM(C2:C28)+2</f>
+      <c r="D29" s="34">
+        <f>SUM(D2:D28)+2</f>
         <v>3.5754096</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="39">
-        <f>COUNTIF(A2:A28, "Signal (GND)")</f>
+      <c r="C30" s="34">
+        <f>COUNTIF(B2:B28, "Signal (GND)")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="39">
-        <f>COUNTIF(A2:A28, "Signal (PWR)")</f>
+      <c r="C31" s="34">
+        <f>COUNTIF(B2:B28, "Signal (PWR)")</f>
         <v>2</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="F31" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="G31" s="34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="39">
-        <f>COUNTIF(A2:A28, "Top")+COUNTIF(A2:A28, "Bot")+COUNTIF(A2:A28, "Signal")</f>
+      <c r="C32" s="34">
+        <f>COUNTIF(B2:B28, "Top")+COUNTIF(B2:B28, "Bot")+COUNTIF(B2:B28, "Signal")</f>
         <v>5</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="F32" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="G32" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="39">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="34">
         <v>0.08</v>
       </c>
-      <c r="F33" s="39">
-        <f>E33*39.37</f>
+      <c r="G33" s="34">
+        <f>F33*39.37</f>
         <v>3.1496</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="39" t="s">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="G34" s="34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="39">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="34">
         <v>1</v>
       </c>
-      <c r="F35" s="39">
-        <f>E35*0.0254</f>
+      <c r="G35" s="34">
+        <f>F35*0.0254</f>
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A11 A17 E31:F31 A13 A15 A19:A32">
-    <cfRule type="cellIs" dxfId="104" priority="176" operator="equal">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B32">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>"Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>"Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>"Core"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"Prepreg"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"Signal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>"Bot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
       <formula>"Top"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B11 B13:C13 B15:C15 B17:C17 B19:C28">
-    <cfRule type="expression" dxfId="97" priority="162">
-      <formula>$A2="Bot"</formula>
+  <conditionalFormatting sqref="C2:D28">
+    <cfRule type="expression" dxfId="20" priority="8">
+      <formula>$B2="Bot"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="163">
-      <formula>$A2="Signal"</formula>
+    <cfRule type="expression" dxfId="19" priority="9">
+      <formula>$B2="Signal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="164">
-      <formula>$A2="Signal (PWR)"</formula>
+    <cfRule type="expression" dxfId="18" priority="10">
+      <formula>$B2="Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="165">
-      <formula>$A2="Core"</formula>
+    <cfRule type="expression" dxfId="17" priority="11">
+      <formula>$B2="Core"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="166">
-      <formula>$A2="Signal (GND)"</formula>
+    <cfRule type="expression" dxfId="16" priority="12">
+      <formula>$B2="Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="167">
-      <formula>$A2="Prepreg"</formula>
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>$B2="Prepreg"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="168">
-      <formula>$A2="Top"</formula>
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$B2="Top"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="expression" dxfId="90" priority="127">
-      <formula>$A2="Bot"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="128">
-      <formula>$A2="Signal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="129">
-      <formula>$A2="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="130">
-      <formula>$A2="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="131">
-      <formula>$A2="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="132">
-      <formula>$A2="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="133">
-      <formula>$A2="Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="83" priority="78" operator="equal">
+  <conditionalFormatting sqref="F31:G31">
+    <cfRule type="cellIs" dxfId="13" priority="183" operator="equal">
       <formula>"Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="184" operator="equal">
       <formula>"Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="185" operator="equal">
       <formula>"Core"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="186" operator="equal">
       <formula>"Prepreg"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="187" operator="equal">
       <formula>"Signal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="188" operator="equal">
       <formula>"Bot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="189" operator="equal">
       <formula>"Top"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="76" priority="71">
-      <formula>$A12="Bot"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="72">
-      <formula>$A12="Signal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="73">
-      <formula>$A12="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="74">
-      <formula>$A12="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="75">
-      <formula>$A12="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="76">
-      <formula>$A12="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="77">
-      <formula>$A12="Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="69" priority="64">
-      <formula>$A12="Bot"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="65">
-      <formula>$A12="Signal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="66">
-      <formula>$A12="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="67">
-      <formula>$A12="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="68">
-      <formula>$A12="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="69">
-      <formula>$A12="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="70">
-      <formula>$A12="Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
-      <formula>"Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="58" operator="equal">
-      <formula>"Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
-      <formula>"Core"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
-      <formula>"Prepreg"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
-      <formula>"Signal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
-      <formula>"Bot"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="63" operator="equal">
-      <formula>"Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="55" priority="50">
-      <formula>$A14="Bot"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="51">
-      <formula>$A14="Signal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="52">
-      <formula>$A14="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="53">
-      <formula>$A14="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54">
-      <formula>$A14="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="55">
-      <formula>$A14="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="56">
-      <formula>$A14="Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="48" priority="43">
-      <formula>$A14="Bot"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="44">
-      <formula>$A14="Signal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="45">
-      <formula>$A14="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula>$A14="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="47">
-      <formula>$A14="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="48">
-      <formula>$A14="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="49">
-      <formula>$A14="Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
-      <formula>"Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
-      <formula>"Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
-      <formula>"Core"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
-      <formula>"Prepreg"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
-      <formula>"Signal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
-      <formula>"Bot"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
-      <formula>"Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="34" priority="29">
-      <formula>$A16="Bot"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="30">
-      <formula>$A16="Signal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="31">
-      <formula>$A16="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32">
-      <formula>$A16="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33">
-      <formula>$A16="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="34">
-      <formula>$A16="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="35">
-      <formula>$A16="Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="27" priority="22">
-      <formula>$A16="Bot"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="23">
-      <formula>$A16="Signal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="24">
-      <formula>$A16="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$A16="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="26">
-      <formula>$A16="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="27">
-      <formula>$A16="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="28">
-      <formula>$A16="Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
-      <formula>"Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
-      <formula>"Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
-      <formula>"Core"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"Prepreg"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>"Signal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
-      <formula>"Bot"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
-      <formula>"Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="13" priority="8">
-      <formula>$A18="Bot"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>$A18="Signal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>$A18="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$A18="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>$A18="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="13">
-      <formula>$A18="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14">
-      <formula>$A18="Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="A2:A28">
     <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$A18="Bot"</formula>
+      <formula>$B2="Bot"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="2">
-      <formula>$A18="Signal"</formula>
+      <formula>$B2="Signal"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="3">
-      <formula>$A18="Signal (PWR)"</formula>
+      <formula>$B2="Signal (PWR)"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$A18="Core"</formula>
+      <formula>$B2="Core"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$A18="Signal (GND)"</formula>
+      <formula>$B2="Signal (GND)"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="6">
-      <formula>$A18="Prepreg"</formula>
+      <formula>$B2="Prepreg"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>$A18="Top"</formula>
+      <formula>$B2="Top"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13811,15 +13194,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -13963,6 +13337,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13970,14 +13353,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13991,6 +13366,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAZER\OneDrive\Bureau\GI2020-2024\S7\APP1\LAB1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDE1186-B5EB-4726-98BC-3F99B1EFF806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C51B1E-959A-4EC1-8E0E-33E9CE8DC186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -713,16 +713,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -838,6 +838,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -874,55 +923,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4514,14 +4514,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="36" t="s">
         <v>19</v>
@@ -4547,7 +4547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -4925,7 +4925,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4960,125 +4960,125 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
-    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
-    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
-    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
-    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
-    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
-    <col min="29" max="31" width="16.7109375" style="9" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="10.6640625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.6640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.6640625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.6640625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.6640625" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="9" customWidth="1"/>
+    <col min="29" max="31" width="16.6640625" style="9" customWidth="1"/>
+    <col min="32" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
-    </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="AD1" s="38"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AD2" s="40"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -5420,7 +5420,7 @@
       <c r="AC7" s="19"/>
       <c r="AD7" s="18"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
         <v>77</v>
       </c>
@@ -5474,7 +5474,7 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="18"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
         <v>72</v>
@@ -5518,7 +5518,7 @@
       <c r="AC9" s="19"/>
       <c r="AD9" s="18"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="E10" s="19"/>
@@ -5553,7 +5553,7 @@
       <c r="AC10" s="19"/>
       <c r="AD10" s="18"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
       <c r="E11" s="19"/>
@@ -5584,7 +5584,7 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="18"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="E12" s="19"/>
@@ -5610,7 +5610,7 @@
       <c r="AC12" s="19"/>
       <c r="AD12" s="18"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="E13" s="19"/>
@@ -5636,7 +5636,7 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="18"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="E14" s="19"/>
@@ -5662,7 +5662,7 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="18"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
       <c r="E15" s="19"/>
@@ -5688,7 +5688,7 @@
       <c r="AC15" s="19"/>
       <c r="AD15" s="18"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="E16" s="19"/>
@@ -5714,7 +5714,7 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="18"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
@@ -5740,7 +5740,7 @@
       <c r="AC17" s="19"/>
       <c r="AD17" s="18"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
@@ -5767,7 +5767,7 @@
       <c r="AC18" s="19"/>
       <c r="AD18" s="18"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="E19" s="19"/>
@@ -5789,7 +5789,7 @@
       <c r="AC19" s="19"/>
       <c r="AD19" s="18"/>
     </row>
-    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B28" s="26" t="s">
         <v>73</v>
       </c>
@@ -6096,22 +6096,17 @@
         <v>12.793323471904216</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.4">
       <c r="N30"/>
     </row>
-    <row r="33" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:18" x14ac:dyDescent="0.4">
       <c r="F33"/>
     </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:18" x14ac:dyDescent="0.4">
       <c r="R40"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -6127,6 +6122,11 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -6142,114 +6142,114 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
-    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
-    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
-    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
-    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
-    <col min="26" max="28" width="16.7109375" style="9" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="10.6640625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.6640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.6640625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.6640625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" style="9" customWidth="1"/>
+    <col min="26" max="28" width="16.6640625" style="9" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="40"/>
-    </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="AA1" s="38"/>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="38"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA2" s="40"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="18"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
@@ -6612,7 +6612,7 @@
       <c r="Z8" s="19"/>
       <c r="AA8" s="18"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
         <v>72</v>
@@ -6652,7 +6652,7 @@
       <c r="Z9" s="19"/>
       <c r="AA9" s="18"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="E10" s="19" t="s">
@@ -6685,7 +6685,7 @@
       <c r="Z10" s="19"/>
       <c r="AA10" s="18"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
       <c r="E11" s="19" t="s">
@@ -6714,7 +6714,7 @@
       <c r="Z11" s="19"/>
       <c r="AA11" s="18"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="E12" s="19"/>
@@ -6738,7 +6738,7 @@
       <c r="Z12" s="19"/>
       <c r="AA12" s="18"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="E13" s="19"/>
@@ -6762,7 +6762,7 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="18"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="E14" s="19"/>
@@ -6786,7 +6786,7 @@
       <c r="Z14" s="19"/>
       <c r="AA14" s="18"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
       <c r="E15" s="19"/>
@@ -6810,7 +6810,7 @@
       <c r="Z15" s="19"/>
       <c r="AA15" s="18"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="E16" s="19"/>
@@ -6834,7 +6834,7 @@
       <c r="Z16" s="19"/>
       <c r="AA16" s="18"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
@@ -6858,7 +6858,7 @@
       <c r="Z17" s="19"/>
       <c r="AA17" s="18"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
@@ -6883,7 +6883,7 @@
       <c r="Z18" s="19"/>
       <c r="AA18" s="18"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="E19" s="19"/>
@@ -6903,7 +6903,7 @@
       <c r="Z19" s="19"/>
       <c r="AA19" s="18"/>
     </row>
-    <row r="20" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>12.400631543594608</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B29" s="30" t="s">
         <v>81</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>4.0744950435946068</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
@@ -7202,11 +7202,21 @@
       </c>
       <c r="K30"/>
     </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -7215,16 +7225,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7239,125 +7239,125 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
-    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
-    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
-    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
-    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
-    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
-    <col min="29" max="31" width="16.7109375" style="9" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="10.6640625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.6640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.6640625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.6640625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.6640625" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="9" customWidth="1"/>
+    <col min="29" max="31" width="16.6640625" style="9" customWidth="1"/>
+    <col min="32" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
-    </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="AD1" s="38"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AD2" s="40"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -7704,7 +7704,7 @@
       <c r="AC7" s="19"/>
       <c r="AD7" s="18"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
         <v>82</v>
       </c>
@@ -7763,7 +7763,7 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="18"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
         <v>72</v>
@@ -7805,7 +7805,7 @@
       <c r="AC9" s="19"/>
       <c r="AD9" s="18"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="E10" s="19"/>
@@ -7835,7 +7835,7 @@
       <c r="AC10" s="19"/>
       <c r="AD10" s="18"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
       <c r="E11" s="19"/>
@@ -7861,7 +7861,7 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="18"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="E12" s="19"/>
@@ -7887,7 +7887,7 @@
       <c r="AC12" s="19"/>
       <c r="AD12" s="18"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="E13" s="19"/>
@@ -7913,7 +7913,7 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="18"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="E14" s="19"/>
@@ -7939,7 +7939,7 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="18"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
       <c r="E15" s="19"/>
@@ -7965,7 +7965,7 @@
       <c r="AC15" s="19"/>
       <c r="AD15" s="18"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="E16" s="19"/>
@@ -7991,7 +7991,7 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="18"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
@@ -8017,7 +8017,7 @@
       <c r="AC17" s="19"/>
       <c r="AD17" s="18"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
@@ -8044,7 +8044,7 @@
       <c r="AC18" s="19"/>
       <c r="AD18" s="18"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="E19" s="19"/>
@@ -8066,7 +8066,7 @@
       <c r="AC19" s="19"/>
       <c r="AD19" s="18"/>
     </row>
-    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>14.578550024239961</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B29" s="30" t="s">
         <v>81</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>6.2524135242399597</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
@@ -8396,24 +8396,14 @@
       </c>
       <c r="N30"/>
     </row>
-    <row r="40" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R40"/>
     </row>
-    <row r="42" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -8424,6 +8414,16 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8438,125 +8438,125 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
-    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
-    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
-    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
-    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
-    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
-    <col min="29" max="31" width="16.7109375" style="9" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="10.6640625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.6640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.6640625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.6640625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.6640625" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="9" customWidth="1"/>
+    <col min="29" max="31" width="16.6640625" style="9" customWidth="1"/>
+    <col min="32" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
-    </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="AD1" s="38"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AD2" s="40"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -8903,7 +8903,7 @@
       <c r="AC7" s="19"/>
       <c r="AD7" s="18"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
         <v>82</v>
       </c>
@@ -8962,7 +8962,7 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="18"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
         <v>72</v>
@@ -9008,7 +9008,7 @@
       <c r="AC9" s="19"/>
       <c r="AD9" s="18"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="E10" s="19"/>
@@ -9038,7 +9038,7 @@
       <c r="AC10" s="19"/>
       <c r="AD10" s="18"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
       <c r="E11" s="19"/>
@@ -9064,7 +9064,7 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="18"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="E12" s="19"/>
@@ -9090,7 +9090,7 @@
       <c r="AC12" s="19"/>
       <c r="AD12" s="18"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="E13" s="19"/>
@@ -9116,7 +9116,7 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="18"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="E14" s="19"/>
@@ -9142,7 +9142,7 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="18"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
       <c r="E15" s="19"/>
@@ -9168,7 +9168,7 @@
       <c r="AC15" s="19"/>
       <c r="AD15" s="18"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="E16" s="19"/>
@@ -9194,7 +9194,7 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="18"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
@@ -9221,7 +9221,7 @@
       <c r="AC17" s="19"/>
       <c r="AD17" s="18"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
@@ -9243,7 +9243,7 @@
       <c r="AC18" s="19"/>
       <c r="AD18" s="18"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="E19" s="19"/>
@@ -9265,7 +9265,7 @@
       <c r="AC19" s="19"/>
       <c r="AD19" s="18"/>
     </row>
-    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>12.48907050696449</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B29" s="30" t="s">
         <v>81</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>4.1629340069644885</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
@@ -9594,23 +9594,31 @@
       </c>
       <c r="N30"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.4">
       <c r="T31"/>
     </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D34"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.4">
       <c r="R40"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.4">
       <c r="R42"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.4">
       <c r="P44"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -9623,14 +9631,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9645,147 +9645,147 @@
       <selection activeCell="U38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
-    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
-    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
-    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
-    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
-    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
-    <col min="29" max="30" width="16.7109375" style="9" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="9" customWidth="1"/>
-    <col min="32" max="33" width="16.7109375" style="9" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" style="9" customWidth="1"/>
-    <col min="35" max="37" width="16.7109375" style="9" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="10.6640625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.6640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.6640625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.6640625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.6640625" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="9" customWidth="1"/>
+    <col min="29" max="30" width="16.6640625" style="9" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" style="9" customWidth="1"/>
+    <col min="32" max="33" width="16.6640625" style="9" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" style="9" customWidth="1"/>
+    <col min="35" max="37" width="16.6640625" style="9" customWidth="1"/>
+    <col min="38" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.4">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="40"/>
-    </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="AJ1" s="38"/>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="40"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -10195,7 +10195,7 @@
       <c r="AI7" s="19"/>
       <c r="AJ7" s="18"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
         <v>82</v>
       </c>
@@ -10259,7 +10259,7 @@
       <c r="AI8" s="19"/>
       <c r="AJ8" s="18"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
         <v>72</v>
@@ -10314,7 +10314,7 @@
       <c r="AI9" s="19"/>
       <c r="AJ9" s="18"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="E10" s="19"/>
@@ -10348,7 +10348,7 @@
       <c r="AI10" s="19"/>
       <c r="AJ10" s="18"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
       <c r="E11" s="19"/>
@@ -10378,7 +10378,7 @@
       <c r="AI11" s="19"/>
       <c r="AJ11" s="18"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="E12" s="19"/>
@@ -10408,7 +10408,7 @@
       <c r="AI12" s="19"/>
       <c r="AJ12" s="18"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="E13" s="19"/>
@@ -10438,7 +10438,7 @@
       <c r="AI13" s="19"/>
       <c r="AJ13" s="18"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="E14" s="19"/>
@@ -10468,7 +10468,7 @@
       <c r="AI14" s="19"/>
       <c r="AJ14" s="18"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
       <c r="E15" s="19"/>
@@ -10498,7 +10498,7 @@
       <c r="AI15" s="19"/>
       <c r="AJ15" s="18"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="E16" s="19"/>
@@ -10528,7 +10528,7 @@
       <c r="AI16" s="19"/>
       <c r="AJ16" s="18"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
@@ -10558,7 +10558,7 @@
       <c r="AI17" s="19"/>
       <c r="AJ17" s="18"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
@@ -10589,7 +10589,7 @@
       <c r="AI18" s="19"/>
       <c r="AJ18" s="18"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="E19" s="19"/>
@@ -10615,7 +10615,7 @@
       <c r="AI19" s="19"/>
       <c r="AJ19" s="18"/>
     </row>
-    <row r="20" spans="2:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -10953,10 +10953,10 @@
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.4">
       <c r="AF25"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
@@ -10973,7 +10973,7 @@
       </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>18.405582760384384</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B29" s="30" t="s">
         <v>81</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>5.6544462603843826</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
@@ -11001,10 +11001,10 @@
       </c>
       <c r="N30"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.4">
       <c r="T31"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.4">
       <c r="B32" s="32" t="s">
         <v>95</v>
       </c>
@@ -11013,20 +11013,32 @@
         <v>5.5350000000000001</v>
       </c>
     </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D34"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.4">
       <c r="R40"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.4">
       <c r="R42"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.4">
       <c r="P44"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -11039,18 +11051,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11068,158 +11068,158 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
-    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
-    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
-    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
-    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
-    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
-    <col min="29" max="30" width="16.7109375" style="9" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="9" customWidth="1"/>
-    <col min="32" max="33" width="16.7109375" style="9" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" style="9" customWidth="1"/>
-    <col min="35" max="36" width="16.7109375" style="9" customWidth="1"/>
-    <col min="37" max="37" width="10.7109375" style="9" customWidth="1"/>
-    <col min="38" max="40" width="16.7109375" style="9" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="10.6640625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.6640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.6640625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.6640625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.6640625" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" style="9" customWidth="1"/>
+    <col min="29" max="30" width="16.6640625" style="9" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" style="9" customWidth="1"/>
+    <col min="32" max="33" width="16.6640625" style="9" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" style="9" customWidth="1"/>
+    <col min="35" max="36" width="16.6640625" style="9" customWidth="1"/>
+    <col min="37" max="37" width="10.6640625" style="9" customWidth="1"/>
+    <col min="38" max="40" width="16.6640625" style="9" customWidth="1"/>
+    <col min="41" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="40"/>
-      <c r="AL1" s="39" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AL1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AM1" s="40"/>
-    </row>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="AM1" s="38"/>
+    </row>
+    <row r="2" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="37" t="s">
+      <c r="AL2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="38"/>
-    </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AM2" s="40"/>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>98</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -11660,7 +11660,7 @@
       <c r="AL7" s="19"/>
       <c r="AM7" s="18"/>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
         <v>82</v>
       </c>
@@ -11726,7 +11726,7 @@
       <c r="AL8" s="19"/>
       <c r="AM8" s="18"/>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
         <v>72</v>
@@ -11778,7 +11778,7 @@
       <c r="AL9" s="19"/>
       <c r="AM9" s="18"/>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="E10" s="19" t="s">
@@ -11819,7 +11819,7 @@
       <c r="AL10" s="19"/>
       <c r="AM10" s="18"/>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
       <c r="E11" s="19"/>
@@ -11851,7 +11851,7 @@
       <c r="AL11" s="19"/>
       <c r="AM11" s="18"/>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="E12" s="19"/>
@@ -11883,7 +11883,7 @@
       <c r="AL12" s="19"/>
       <c r="AM12" s="18"/>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="E13" s="19"/>
@@ -11915,7 +11915,7 @@
       <c r="AL13" s="19"/>
       <c r="AM13" s="18"/>
     </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="E14" s="19"/>
@@ -11947,7 +11947,7 @@
       <c r="AL14" s="19"/>
       <c r="AM14" s="18"/>
     </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
       <c r="E15" s="19"/>
@@ -11979,7 +11979,7 @@
       <c r="AL15" s="19"/>
       <c r="AM15" s="18"/>
     </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="E16" s="19"/>
@@ -12011,7 +12011,7 @@
       <c r="AL16" s="19"/>
       <c r="AM16" s="18"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
@@ -12043,7 +12043,7 @@
       <c r="AL17" s="19"/>
       <c r="AM17" s="18"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
@@ -12076,7 +12076,7 @@
       <c r="AL18" s="19"/>
       <c r="AM18" s="18"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="E19" s="19"/>
@@ -12104,7 +12104,7 @@
       <c r="AL19" s="19"/>
       <c r="AM19" s="18"/>
     </row>
-    <row r="20" spans="2:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:39" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -12470,10 +12470,10 @@
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.4">
       <c r="AI25"/>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>71.491276629306142</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B29" s="30" t="s">
         <v>81</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>5.4580930704826294</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
@@ -12520,10 +12520,10 @@
       <c r="N30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.4">
       <c r="W31"/>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B32" s="32" t="s">
         <v>95</v>
       </c>
@@ -12532,20 +12532,33 @@
         <v>5.5350000000000001</v>
       </c>
     </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D34"/>
     </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:21" x14ac:dyDescent="0.4">
       <c r="U40"/>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:21" x14ac:dyDescent="0.4">
       <c r="U42"/>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:21" x14ac:dyDescent="0.4">
       <c r="S44"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -12559,19 +12572,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -12583,17 +12583,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="14.7109375" style="34" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="7" width="14.6640625" style="34" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>116</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>117</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>3.5001199999999996E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>118</v>
       </c>
@@ -12630,14 +12630,14 @@
         <v>100</v>
       </c>
       <c r="C3" s="35">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D3" s="35">
         <f t="shared" ref="D3:D28" si="0">C3*0.0254</f>
-        <v>7.619999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.6519999999999995E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>119</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>120</v>
       </c>
@@ -12660,14 +12660,14 @@
         <v>102</v>
       </c>
       <c r="C5" s="35">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D5" s="35">
         <f t="shared" si="0"/>
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.10668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>121</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>122</v>
       </c>
@@ -12690,14 +12690,14 @@
         <v>100</v>
       </c>
       <c r="C7" s="35">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D7" s="35">
         <f t="shared" si="0"/>
-        <v>7.619999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.6519999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>126</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>123</v>
       </c>
@@ -12720,14 +12720,14 @@
         <v>102</v>
       </c>
       <c r="C9" s="35">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D9" s="35">
         <f t="shared" si="0"/>
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.10668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>127</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>124</v>
       </c>
@@ -12750,14 +12750,14 @@
         <v>100</v>
       </c>
       <c r="C11" s="35">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D11" s="35">
         <f t="shared" si="0"/>
-        <v>7.619999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.6519999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>128</v>
       </c>
@@ -12774,7 +12774,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>125</v>
       </c>
@@ -12782,14 +12782,14 @@
         <v>102</v>
       </c>
       <c r="C13" s="35">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D13" s="35">
         <f t="shared" si="0"/>
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.10668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>129</v>
       </c>
@@ -12806,7 +12806,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>130</v>
       </c>
@@ -12814,14 +12814,14 @@
         <v>100</v>
       </c>
       <c r="C15" s="35">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D15" s="35">
         <f t="shared" si="0"/>
-        <v>7.619999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.6519999999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>131</v>
       </c>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="F16" s="35"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>132</v>
       </c>
@@ -12845,14 +12845,14 @@
         <v>102</v>
       </c>
       <c r="C17" s="35">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D17" s="35">
         <f t="shared" si="0"/>
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.10668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>133</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>134</v>
       </c>
@@ -12875,14 +12875,14 @@
         <v>100</v>
       </c>
       <c r="C19" s="35">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D19" s="35">
         <f t="shared" si="0"/>
-        <v>7.619999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.6519999999999995E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>135</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>136</v>
       </c>
@@ -12905,14 +12905,14 @@
         <v>102</v>
       </c>
       <c r="C21" s="35">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D21" s="35">
         <f t="shared" si="0"/>
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.10668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>137</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>138</v>
       </c>
@@ -12935,14 +12935,14 @@
         <v>100</v>
       </c>
       <c r="C23" s="35">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D23" s="35">
         <f t="shared" si="0"/>
-        <v>7.619999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.6519999999999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>139</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>140</v>
       </c>
@@ -12965,14 +12965,14 @@
         <v>102</v>
       </c>
       <c r="C25" s="35">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D25" s="35">
         <f t="shared" si="0"/>
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.10668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
         <v>141</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>1.7500599999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>142</v>
       </c>
@@ -12995,14 +12995,14 @@
         <v>100</v>
       </c>
       <c r="C27" s="35">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D27" s="35">
         <f t="shared" si="0"/>
-        <v>7.619999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.6519999999999995E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>143</v>
       </c>
@@ -13017,20 +13017,20 @@
         <v>3.5001199999999996E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="34" t="s">
         <v>115</v>
       </c>
       <c r="C29" s="35">
         <f>SUM(C2:C28)+2</f>
-        <v>64.024000000000001</v>
+        <v>64.823999999999998</v>
       </c>
       <c r="D29" s="34">
         <f>SUM(D2:D28)+2</f>
-        <v>3.5754096</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.5957295999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="34" t="s">
         <v>112</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="34" t="s">
         <v>114</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="34" t="s">
         <v>113</v>
       </c>
@@ -13069,16 +13069,16 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F33" s="34">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="G33" s="34">
         <f>F33*39.37</f>
-        <v>3.1496</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+        <v>8.2676999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34" s="34" t="s">
         <v>108</v>
       </c>
@@ -13086,60 +13086,83 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F35" s="34">
-        <v>1</v>
+        <v>17.716000000000001</v>
       </c>
       <c r="G35" s="34">
         <f>F35*0.0254</f>
-        <v>2.5399999999999999E-2</v>
+        <v>0.44998640000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A28">
+    <cfRule type="expression" dxfId="27" priority="1">
+      <formula>$B2="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="2">
+      <formula>$B2="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>$B2="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="4">
+      <formula>$B2="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>$B2="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="6">
+      <formula>$B2="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="7">
+      <formula>$B2="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"Core"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>"Prepreg"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
       <formula>"Signal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
       <formula>"Bot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
       <formula>"Top"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D28">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$B2="Bot"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$B2="Signal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$B2="Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>$B2="Core"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$B2="Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>$B2="Prepreg"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>$B2="Top"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13166,34 +13189,20 @@
       <formula>"Top"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A28">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$B2="Bot"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>$B2="Signal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>$B2="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$B2="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$B2="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>$B2="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>$B2="Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -13337,15 +13346,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13353,6 +13353,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13366,14 +13374,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAZER\OneDrive\Bureau\GI2020-2024\S7\APP1\LAB1\S7_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C51B1E-959A-4EC1-8E0E-33E9CE8DC186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD9C195-E39A-480B-B6B3-8F40CF7DAF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="146">
   <si>
     <t>TYPE</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>Bottom Layer</t>
+  </si>
+  <si>
+    <t>50Ohm traces (mils)</t>
+  </si>
+  <si>
+    <t>40Ohm traces (mils)</t>
   </si>
 </sst>
 </file>
@@ -713,23 +719,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
@@ -825,6 +831,55 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4514,14 +4569,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="36" t="s">
         <v>19</v>
@@ -4547,7 +4602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4582,7 +4637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4623,7 +4678,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4664,7 +4719,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -4705,7 +4760,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -4738,7 +4793,7 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -4773,7 +4828,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -4808,7 +4863,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -4843,7 +4898,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -4878,7 +4933,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -4911,7 +4966,7 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -4925,7 +4980,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4960,125 +5015,125 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="9" customWidth="1"/>
-    <col min="11" max="12" width="16.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
-    <col min="14" max="15" width="16.6640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
-    <col min="17" max="18" width="16.6640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="9" customWidth="1"/>
-    <col min="20" max="21" width="16.6640625" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="9" customWidth="1"/>
-    <col min="23" max="24" width="16.6640625" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="9" customWidth="1"/>
-    <col min="26" max="27" width="16.6640625" style="9" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" style="9" customWidth="1"/>
-    <col min="29" max="31" width="16.6640625" style="9" customWidth="1"/>
-    <col min="32" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
+    <col min="29" max="31" width="16.7109375" style="9" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
-    </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="AD1" s="40"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AD2" s="38"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
@@ -5158,7 +5213,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -5229,7 +5284,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
@@ -5302,7 +5357,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -5366,7 +5421,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -5420,7 +5475,7 @@
       <c r="AC7" s="19"/>
       <c r="AD7" s="18"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>77</v>
       </c>
@@ -5474,7 +5529,7 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="18"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
         <v>72</v>
@@ -5518,7 +5573,7 @@
       <c r="AC9" s="19"/>
       <c r="AD9" s="18"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="E10" s="19"/>
@@ -5553,7 +5608,7 @@
       <c r="AC10" s="19"/>
       <c r="AD10" s="18"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
       <c r="E11" s="19"/>
@@ -5584,7 +5639,7 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="18"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="E12" s="19"/>
@@ -5610,7 +5665,7 @@
       <c r="AC12" s="19"/>
       <c r="AD12" s="18"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="E13" s="19"/>
@@ -5636,7 +5691,7 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="18"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="E14" s="19"/>
@@ -5662,7 +5717,7 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="18"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
       <c r="E15" s="19"/>
@@ -5688,7 +5743,7 @@
       <c r="AC15" s="19"/>
       <c r="AD15" s="18"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="E16" s="19"/>
@@ -5714,7 +5769,7 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="18"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
@@ -5740,7 +5795,7 @@
       <c r="AC17" s="19"/>
       <c r="AD17" s="18"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
@@ -5767,7 +5822,7 @@
       <c r="AC18" s="19"/>
       <c r="AD18" s="18"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="E19" s="19"/>
@@ -5789,7 +5844,7 @@
       <c r="AC19" s="19"/>
       <c r="AD19" s="18"/>
     </row>
-    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
@@ -5861,7 +5916,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
@@ -5927,7 +5982,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
@@ -5999,7 +6054,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -6071,7 +6126,7 @@
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
@@ -6079,7 +6134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
@@ -6087,7 +6142,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="26" t="s">
         <v>73</v>
       </c>
@@ -6096,17 +6151,22 @@
         <v>12.793323471904216</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="N30"/>
     </row>
-    <row r="33" spans="6:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F33"/>
     </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
       <c r="R40"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -6122,11 +6182,6 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -6142,114 +6197,114 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="9" customWidth="1"/>
-    <col min="11" max="12" width="16.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
-    <col min="14" max="15" width="16.6640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
-    <col min="17" max="18" width="16.6640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="9" customWidth="1"/>
-    <col min="20" max="21" width="16.6640625" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="9" customWidth="1"/>
-    <col min="23" max="24" width="16.6640625" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="9" customWidth="1"/>
-    <col min="26" max="28" width="16.6640625" style="9" customWidth="1"/>
-    <col min="29" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="28" width="16.7109375" style="9" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="38"/>
-    </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="AA1" s="40"/>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="40"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA2" s="38"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
@@ -6321,7 +6376,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -6385,7 +6440,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
@@ -6451,7 +6506,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -6508,7 +6563,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -6560,7 +6615,7 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="18"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
@@ -6612,7 +6667,7 @@
       <c r="Z8" s="19"/>
       <c r="AA8" s="18"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
         <v>72</v>
@@ -6652,7 +6707,7 @@
       <c r="Z9" s="19"/>
       <c r="AA9" s="18"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="E10" s="19" t="s">
@@ -6685,7 +6740,7 @@
       <c r="Z10" s="19"/>
       <c r="AA10" s="18"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
       <c r="E11" s="19" t="s">
@@ -6714,7 +6769,7 @@
       <c r="Z11" s="19"/>
       <c r="AA11" s="18"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="E12" s="19"/>
@@ -6738,7 +6793,7 @@
       <c r="Z12" s="19"/>
       <c r="AA12" s="18"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="E13" s="19"/>
@@ -6762,7 +6817,7 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="18"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="E14" s="19"/>
@@ -6786,7 +6841,7 @@
       <c r="Z14" s="19"/>
       <c r="AA14" s="18"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
       <c r="E15" s="19"/>
@@ -6810,7 +6865,7 @@
       <c r="Z15" s="19"/>
       <c r="AA15" s="18"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="E16" s="19"/>
@@ -6834,7 +6889,7 @@
       <c r="Z16" s="19"/>
       <c r="AA16" s="18"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
@@ -6858,7 +6913,7 @@
       <c r="Z17" s="19"/>
       <c r="AA17" s="18"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
@@ -6883,7 +6938,7 @@
       <c r="Z18" s="19"/>
       <c r="AA18" s="18"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="E19" s="19"/>
@@ -6903,7 +6958,7 @@
       <c r="Z19" s="19"/>
       <c r="AA19" s="18"/>
     </row>
-    <row r="20" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
@@ -6968,7 +7023,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
@@ -7028,7 +7083,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
@@ -7093,7 +7148,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -7158,7 +7213,7 @@
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
@@ -7166,7 +7221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
@@ -7174,7 +7229,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
@@ -7183,7 +7238,7 @@
         <v>12.400631543594608</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>81</v>
       </c>
@@ -7192,7 +7247,7 @@
         <v>4.0744950435946068</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
@@ -7202,21 +7257,11 @@
       </c>
       <c r="K30"/>
     </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -7225,6 +7270,16 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7239,125 +7294,125 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="9" customWidth="1"/>
-    <col min="11" max="12" width="16.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
-    <col min="14" max="15" width="16.6640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
-    <col min="17" max="18" width="16.6640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="9" customWidth="1"/>
-    <col min="20" max="21" width="16.6640625" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="9" customWidth="1"/>
-    <col min="23" max="24" width="16.6640625" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="9" customWidth="1"/>
-    <col min="26" max="27" width="16.6640625" style="9" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" style="9" customWidth="1"/>
-    <col min="29" max="31" width="16.6640625" style="9" customWidth="1"/>
-    <col min="32" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
+    <col min="29" max="31" width="16.7109375" style="9" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
-    </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="AD1" s="40"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AD2" s="38"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
@@ -7437,7 +7492,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -7508,7 +7563,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
@@ -7581,7 +7636,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -7645,7 +7700,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -7704,7 +7759,7 @@
       <c r="AC7" s="19"/>
       <c r="AD7" s="18"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>82</v>
       </c>
@@ -7763,7 +7818,7 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="18"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
         <v>72</v>
@@ -7805,7 +7860,7 @@
       <c r="AC9" s="19"/>
       <c r="AD9" s="18"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="E10" s="19"/>
@@ -7835,7 +7890,7 @@
       <c r="AC10" s="19"/>
       <c r="AD10" s="18"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
       <c r="E11" s="19"/>
@@ -7861,7 +7916,7 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="18"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="E12" s="19"/>
@@ -7887,7 +7942,7 @@
       <c r="AC12" s="19"/>
       <c r="AD12" s="18"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="E13" s="19"/>
@@ -7913,7 +7968,7 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="18"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="E14" s="19"/>
@@ -7939,7 +7994,7 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="18"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
       <c r="E15" s="19"/>
@@ -7965,7 +8020,7 @@
       <c r="AC15" s="19"/>
       <c r="AD15" s="18"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="E16" s="19"/>
@@ -7991,7 +8046,7 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="18"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
@@ -8017,7 +8072,7 @@
       <c r="AC17" s="19"/>
       <c r="AD17" s="18"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
@@ -8044,7 +8099,7 @@
       <c r="AC18" s="19"/>
       <c r="AD18" s="18"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="E19" s="19"/>
@@ -8066,7 +8121,7 @@
       <c r="AC19" s="19"/>
       <c r="AD19" s="18"/>
     </row>
-    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
@@ -8139,7 +8194,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
@@ -8207,7 +8262,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
@@ -8279,7 +8334,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -8351,7 +8406,7 @@
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
@@ -8359,7 +8414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
@@ -8368,7 +8423,7 @@
       </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
@@ -8377,7 +8432,7 @@
         <v>14.578550024239961</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>81</v>
       </c>
@@ -8386,7 +8441,7 @@
         <v>6.2524135242399597</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
@@ -8396,14 +8451,24 @@
       </c>
       <c r="N30"/>
     </row>
-    <row r="40" spans="18:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R40"/>
     </row>
-    <row r="42" spans="18:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -8414,16 +8479,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8438,125 +8493,125 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="9" customWidth="1"/>
-    <col min="11" max="12" width="16.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
-    <col min="14" max="15" width="16.6640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
-    <col min="17" max="18" width="16.6640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="9" customWidth="1"/>
-    <col min="20" max="21" width="16.6640625" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="9" customWidth="1"/>
-    <col min="23" max="24" width="16.6640625" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="9" customWidth="1"/>
-    <col min="26" max="27" width="16.6640625" style="9" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" style="9" customWidth="1"/>
-    <col min="29" max="31" width="16.6640625" style="9" customWidth="1"/>
-    <col min="32" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
+    <col min="29" max="31" width="16.7109375" style="9" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
-    </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="AD1" s="40"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AD2" s="38"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
@@ -8636,7 +8691,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -8707,7 +8762,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
@@ -8780,7 +8835,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -8844,7 +8899,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -8903,7 +8958,7 @@
       <c r="AC7" s="19"/>
       <c r="AD7" s="18"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>82</v>
       </c>
@@ -8962,7 +9017,7 @@
       <c r="AC8" s="19"/>
       <c r="AD8" s="18"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
         <v>72</v>
@@ -9008,7 +9063,7 @@
       <c r="AC9" s="19"/>
       <c r="AD9" s="18"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="E10" s="19"/>
@@ -9038,7 +9093,7 @@
       <c r="AC10" s="19"/>
       <c r="AD10" s="18"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
       <c r="E11" s="19"/>
@@ -9064,7 +9119,7 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="18"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="E12" s="19"/>
@@ -9090,7 +9145,7 @@
       <c r="AC12" s="19"/>
       <c r="AD12" s="18"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="E13" s="19"/>
@@ -9116,7 +9171,7 @@
       <c r="AC13" s="19"/>
       <c r="AD13" s="18"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="E14" s="19"/>
@@ -9142,7 +9197,7 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="18"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
       <c r="E15" s="19"/>
@@ -9168,7 +9223,7 @@
       <c r="AC15" s="19"/>
       <c r="AD15" s="18"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="E16" s="19"/>
@@ -9194,7 +9249,7 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="18"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
@@ -9221,7 +9276,7 @@
       <c r="AC17" s="19"/>
       <c r="AD17" s="18"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
@@ -9243,7 +9298,7 @@
       <c r="AC18" s="19"/>
       <c r="AD18" s="18"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="E19" s="19"/>
@@ -9265,7 +9320,7 @@
       <c r="AC19" s="19"/>
       <c r="AD19" s="18"/>
     </row>
-    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
@@ -9338,7 +9393,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
@@ -9405,7 +9460,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
@@ -9477,7 +9532,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -9549,7 +9604,7 @@
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
@@ -9557,7 +9612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
@@ -9566,7 +9621,7 @@
       </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
@@ -9575,7 +9630,7 @@
         <v>12.48907050696449</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>81</v>
       </c>
@@ -9584,7 +9639,7 @@
         <v>4.1629340069644885</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
@@ -9594,31 +9649,23 @@
       </c>
       <c r="N30"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="T31"/>
     </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D34"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="R40"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
       <c r="R42"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
       <c r="P44"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -9631,6 +9678,14 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9645,147 +9700,147 @@
       <selection activeCell="U38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="9" customWidth="1"/>
-    <col min="11" max="12" width="16.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
-    <col min="14" max="15" width="16.6640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
-    <col min="17" max="18" width="16.6640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="9" customWidth="1"/>
-    <col min="20" max="21" width="16.6640625" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="9" customWidth="1"/>
-    <col min="23" max="24" width="16.6640625" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="9" customWidth="1"/>
-    <col min="26" max="27" width="16.6640625" style="9" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" style="9" customWidth="1"/>
-    <col min="29" max="30" width="16.6640625" style="9" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="9" customWidth="1"/>
-    <col min="32" max="33" width="16.6640625" style="9" customWidth="1"/>
-    <col min="34" max="34" width="10.6640625" style="9" customWidth="1"/>
-    <col min="35" max="37" width="16.6640625" style="9" customWidth="1"/>
-    <col min="38" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
+    <col min="29" max="30" width="16.7109375" style="9" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="9" customWidth="1"/>
+    <col min="32" max="33" width="16.7109375" style="9" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" style="9" customWidth="1"/>
+    <col min="35" max="37" width="16.7109375" style="9" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.4">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="38"/>
-    </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="AJ1" s="40"/>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="40"/>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.4">
+      <c r="AJ2" s="38"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
@@ -9881,7 +9936,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -9966,7 +10021,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
@@ -10054,7 +10109,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>62</v>
       </c>
@@ -10132,7 +10187,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -10195,7 +10250,7 @@
       <c r="AI7" s="19"/>
       <c r="AJ7" s="18"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>82</v>
       </c>
@@ -10259,7 +10314,7 @@
       <c r="AI8" s="19"/>
       <c r="AJ8" s="18"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
         <v>72</v>
@@ -10314,7 +10369,7 @@
       <c r="AI9" s="19"/>
       <c r="AJ9" s="18"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="E10" s="19"/>
@@ -10348,7 +10403,7 @@
       <c r="AI10" s="19"/>
       <c r="AJ10" s="18"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
       <c r="E11" s="19"/>
@@ -10378,7 +10433,7 @@
       <c r="AI11" s="19"/>
       <c r="AJ11" s="18"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="E12" s="19"/>
@@ -10408,7 +10463,7 @@
       <c r="AI12" s="19"/>
       <c r="AJ12" s="18"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="E13" s="19"/>
@@ -10438,7 +10493,7 @@
       <c r="AI13" s="19"/>
       <c r="AJ13" s="18"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="E14" s="19"/>
@@ -10468,7 +10523,7 @@
       <c r="AI14" s="19"/>
       <c r="AJ14" s="18"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
       <c r="E15" s="19"/>
@@ -10498,7 +10553,7 @@
       <c r="AI15" s="19"/>
       <c r="AJ15" s="18"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="E16" s="19"/>
@@ -10528,7 +10583,7 @@
       <c r="AI16" s="19"/>
       <c r="AJ16" s="18"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
@@ -10558,7 +10613,7 @@
       <c r="AI17" s="19"/>
       <c r="AJ17" s="18"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
@@ -10589,7 +10644,7 @@
       <c r="AI18" s="19"/>
       <c r="AJ18" s="18"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="E19" s="19"/>
@@ -10615,7 +10670,7 @@
       <c r="AI19" s="19"/>
       <c r="AJ19" s="18"/>
     </row>
-    <row r="20" spans="2:36" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
@@ -10702,7 +10757,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
@@ -10781,7 +10836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
@@ -10867,7 +10922,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -10953,10 +11008,10 @@
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="AF25"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
@@ -10964,7 +11019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
@@ -10973,7 +11028,7 @@
       </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
@@ -10982,7 +11037,7 @@
         <v>18.405582760384384</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>81</v>
       </c>
@@ -10991,7 +11046,7 @@
         <v>5.6544462603843826</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
@@ -11001,10 +11056,10 @@
       </c>
       <c r="N30"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="T31"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
         <v>95</v>
       </c>
@@ -11013,20 +11068,32 @@
         <v>5.5350000000000001</v>
       </c>
     </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D34"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="R40"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
       <c r="R42"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
       <c r="P44"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -11039,18 +11106,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11068,158 +11123,158 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="9" customWidth="1"/>
-    <col min="11" max="12" width="16.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="9" customWidth="1"/>
-    <col min="14" max="15" width="16.6640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
-    <col min="17" max="18" width="16.6640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="9" customWidth="1"/>
-    <col min="20" max="21" width="16.6640625" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="9" customWidth="1"/>
-    <col min="23" max="24" width="16.6640625" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="9" customWidth="1"/>
-    <col min="26" max="27" width="16.6640625" style="9" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" style="9" customWidth="1"/>
-    <col min="29" max="30" width="16.6640625" style="9" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="9" customWidth="1"/>
-    <col min="32" max="33" width="16.6640625" style="9" customWidth="1"/>
-    <col min="34" max="34" width="10.6640625" style="9" customWidth="1"/>
-    <col min="35" max="36" width="16.6640625" style="9" customWidth="1"/>
-    <col min="37" max="37" width="10.6640625" style="9" customWidth="1"/>
-    <col min="38" max="40" width="16.6640625" style="9" customWidth="1"/>
-    <col min="41" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
+    <col min="29" max="30" width="16.7109375" style="9" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="9" customWidth="1"/>
+    <col min="32" max="33" width="16.7109375" style="9" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" style="9" customWidth="1"/>
+    <col min="35" max="36" width="16.7109375" style="9" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="9" customWidth="1"/>
+    <col min="38" max="40" width="16.7109375" style="9" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AL1" s="37" t="s">
+      <c r="AJ1" s="40"/>
+      <c r="AL1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AM1" s="38"/>
-    </row>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="AM1" s="40"/>
+    </row>
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="38"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="39" t="s">
+      <c r="AL2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="40"/>
-    </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="AM2" s="38"/>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
@@ -11323,7 +11378,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -11415,7 +11470,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>76</v>
       </c>
@@ -11510,7 +11565,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>98</v>
       </c>
@@ -11595,7 +11650,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -11660,7 +11715,7 @@
       <c r="AL7" s="19"/>
       <c r="AM7" s="18"/>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>82</v>
       </c>
@@ -11726,7 +11781,7 @@
       <c r="AL8" s="19"/>
       <c r="AM8" s="18"/>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
         <v>72</v>
@@ -11778,7 +11833,7 @@
       <c r="AL9" s="19"/>
       <c r="AM9" s="18"/>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="E10" s="19" t="s">
@@ -11819,7 +11874,7 @@
       <c r="AL10" s="19"/>
       <c r="AM10" s="18"/>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
       <c r="E11" s="19"/>
@@ -11851,7 +11906,7 @@
       <c r="AL11" s="19"/>
       <c r="AM11" s="18"/>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="E12" s="19"/>
@@ -11883,7 +11938,7 @@
       <c r="AL12" s="19"/>
       <c r="AM12" s="18"/>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
       <c r="E13" s="19"/>
@@ -11915,7 +11970,7 @@
       <c r="AL13" s="19"/>
       <c r="AM13" s="18"/>
     </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="E14" s="19"/>
@@ -11947,7 +12002,7 @@
       <c r="AL14" s="19"/>
       <c r="AM14" s="18"/>
     </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
       <c r="E15" s="19"/>
@@ -11979,7 +12034,7 @@
       <c r="AL15" s="19"/>
       <c r="AM15" s="18"/>
     </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="E16" s="19"/>
@@ -12011,7 +12066,7 @@
       <c r="AL16" s="19"/>
       <c r="AM16" s="18"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
@@ -12043,7 +12098,7 @@
       <c r="AL17" s="19"/>
       <c r="AM17" s="18"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
@@ -12076,7 +12131,7 @@
       <c r="AL18" s="19"/>
       <c r="AM18" s="18"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
       <c r="E19" s="19"/>
@@ -12104,7 +12159,7 @@
       <c r="AL19" s="19"/>
       <c r="AM19" s="18"/>
     </row>
-    <row r="20" spans="2:39" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>35</v>
       </c>
@@ -12198,7 +12253,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
@@ -12284,7 +12339,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
@@ -12377,7 +12432,7 @@
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
@@ -12470,10 +12525,10 @@
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
       <c r="AI25"/>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
@@ -12481,7 +12536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
@@ -12491,7 +12546,7 @@
       </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
@@ -12500,7 +12555,7 @@
         <v>71.491276629306142</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>81</v>
       </c>
@@ -12509,7 +12564,7 @@
         <v>5.4580930704826294</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
@@ -12520,10 +12575,10 @@
       <c r="N30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
       <c r="W31"/>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
         <v>95</v>
       </c>
@@ -12532,20 +12587,33 @@
         <v>5.5350000000000001</v>
       </c>
     </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D34"/>
     </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
       <c r="U40"/>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
       <c r="U42"/>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
       <c r="S44"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -12559,19 +12627,6 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -12583,17 +12638,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="14.6640625" style="34" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="34"/>
+    <col min="1" max="7" width="14.7109375" style="34" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>116</v>
       </c>
@@ -12606,8 +12661,14 @@
       <c r="D1" s="34" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E1" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>117</v>
       </c>
@@ -12621,8 +12682,14 @@
         <f>C2*0.0254</f>
         <v>3.5001199999999996E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E2" s="35">
+        <v>5</v>
+      </c>
+      <c r="F2" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>118</v>
       </c>
@@ -12636,8 +12703,10 @@
         <f t="shared" ref="D3:D28" si="0">C3*0.0254</f>
         <v>9.6519999999999995E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>119</v>
       </c>
@@ -12651,8 +12720,14 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="35">
+        <v>4</v>
+      </c>
+      <c r="F4" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>120</v>
       </c>
@@ -12666,8 +12741,10 @@
         <f t="shared" si="0"/>
         <v>0.10668</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>121</v>
       </c>
@@ -12681,8 +12758,14 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="35">
+        <v>4</v>
+      </c>
+      <c r="F6" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>122</v>
       </c>
@@ -12696,8 +12779,10 @@
         <f t="shared" si="0"/>
         <v>9.6519999999999995E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>126</v>
       </c>
@@ -12711,8 +12796,14 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="35">
+        <v>4</v>
+      </c>
+      <c r="F8" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>123</v>
       </c>
@@ -12726,8 +12817,10 @@
         <f t="shared" si="0"/>
         <v>0.10668</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>127</v>
       </c>
@@ -12741,8 +12834,14 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="35">
+        <v>4</v>
+      </c>
+      <c r="F10" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>124</v>
       </c>
@@ -12756,8 +12855,10 @@
         <f t="shared" si="0"/>
         <v>9.6519999999999995E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>128</v>
       </c>
@@ -12771,10 +12872,16 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
+      <c r="E12" s="35">
+        <v>4</v>
+      </c>
+      <c r="F12" s="35">
+        <v>6</v>
+      </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>125</v>
       </c>
@@ -12788,8 +12895,10 @@
         <f t="shared" si="0"/>
         <v>0.10668</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>129</v>
       </c>
@@ -12803,10 +12912,16 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
+      <c r="E14" s="35">
+        <v>4</v>
+      </c>
+      <c r="F14" s="35">
+        <v>6</v>
+      </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>130</v>
       </c>
@@ -12820,8 +12935,10 @@
         <f t="shared" si="0"/>
         <v>9.6519999999999995E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>131</v>
       </c>
@@ -12835,9 +12952,14 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="35">
+        <v>4</v>
+      </c>
+      <c r="F16" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>132</v>
       </c>
@@ -12851,8 +12973,10 @@
         <f t="shared" si="0"/>
         <v>0.10668</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>133</v>
       </c>
@@ -12866,8 +12990,14 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="35">
+        <v>4</v>
+      </c>
+      <c r="F18" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>134</v>
       </c>
@@ -12881,8 +13011,10 @@
         <f t="shared" si="0"/>
         <v>9.6519999999999995E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>135</v>
       </c>
@@ -12896,8 +13028,14 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="35">
+        <v>4</v>
+      </c>
+      <c r="F20" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>136</v>
       </c>
@@ -12911,8 +13049,10 @@
         <f t="shared" si="0"/>
         <v>0.10668</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>137</v>
       </c>
@@ -12926,8 +13066,14 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="35">
+        <v>4</v>
+      </c>
+      <c r="F22" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>138</v>
       </c>
@@ -12941,8 +13087,10 @@
         <f t="shared" si="0"/>
         <v>9.6519999999999995E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>139</v>
       </c>
@@ -12956,8 +13104,14 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="35">
+        <v>4</v>
+      </c>
+      <c r="F24" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>140</v>
       </c>
@@ -12971,8 +13125,10 @@
         <f t="shared" si="0"/>
         <v>0.10668</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>141</v>
       </c>
@@ -12986,8 +13142,14 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="35">
+        <v>4</v>
+      </c>
+      <c r="F26" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>142</v>
       </c>
@@ -13001,8 +13163,10 @@
         <f t="shared" si="0"/>
         <v>9.6519999999999995E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>143</v>
       </c>
@@ -13016,8 +13180,14 @@
         <f t="shared" si="0"/>
         <v>3.5001199999999996E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="35">
+        <v>5</v>
+      </c>
+      <c r="F28" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="34" t="s">
         <v>115</v>
       </c>
@@ -13030,7 +13200,7 @@
         <v>3.5957295999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="34" t="s">
         <v>112</v>
       </c>
@@ -13039,7 +13209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="34" t="s">
         <v>114</v>
       </c>
@@ -13054,7 +13224,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="34" t="s">
         <v>113</v>
       </c>
@@ -13069,7 +13239,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="34">
         <v>0.21</v>
       </c>
@@ -13078,7 +13248,7 @@
         <v>8.2676999999999996</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="34" t="s">
         <v>108</v>
       </c>
@@ -13086,7 +13256,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="34">
         <v>17.716000000000001</v>
       </c>
@@ -13098,95 +13268,118 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:A28">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>$B2="Bot"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>$B2="Signal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="32" priority="10">
       <formula>$B2="Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="31" priority="11">
       <formula>$B2="Core"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="30" priority="12">
       <formula>$B2="Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>$B2="Prepreg"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>$B2="Top"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>"Core"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>"Prepreg"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
       <formula>"Signal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
       <formula>"Bot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
       <formula>"Top"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D28">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>$B2="Bot"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>$B2="Signal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$B2="Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$B2="Core"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$B2="Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>$B2="Prepreg"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>$B2="Top"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:G31">
-    <cfRule type="cellIs" dxfId="13" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="190" operator="equal">
       <formula>"Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="191" operator="equal">
       <formula>"Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="192" operator="equal">
       <formula>"Core"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="193" operator="equal">
       <formula>"Prepreg"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="194" operator="equal">
       <formula>"Signal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="195" operator="equal">
       <formula>"Bot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="196" operator="equal">
       <formula>"Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F28">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$B2="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$B2="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$B2="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$B2="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$B2="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>$B2="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>$B2="Top"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13194,15 +13387,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -13346,6 +13530,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13353,14 +13546,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13374,6 +13559,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD9C195-E39A-480B-B6B3-8F40CF7DAF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DB9423-26D8-4658-8FF2-420F05E4EC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="149">
   <si>
     <t>TYPE</t>
   </si>
@@ -339,9 +339,6 @@
     <t>LDO - TPS7A33</t>
   </si>
   <si>
-    <t>DRV_FETS</t>
-  </si>
-  <si>
     <t>Top</t>
   </si>
   <si>
@@ -481,6 +478,18 @@
   </si>
   <si>
     <t>40Ohm traces (mils)</t>
+  </si>
+  <si>
+    <t>DRV_THERMAL</t>
+  </si>
+  <si>
+    <t>Ptot (w) w/ DRV_MOTOR</t>
+  </si>
+  <si>
+    <t>Eff (%) w/ DRV_MOTOR</t>
+  </si>
+  <si>
+    <t>Itot (A) w/ DRV_MOTOR</t>
   </si>
 </sst>
 </file>
@@ -719,72 +728,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -5012,7 +4972,7 @@
   <dimension ref="B1:AD40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5041,97 +5001,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -6162,11 +6122,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -6182,6 +6137,11 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -6221,88 +6181,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="40"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -7262,6 +7222,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -7270,16 +7240,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7320,97 +7280,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8459,16 +8419,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -8479,6 +8429,16 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8519,97 +8479,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9666,6 +9626,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -9678,14 +9646,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9696,8 +9656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBB86A7-5D6E-44BF-9E8E-B2B3990BB83D}">
   <dimension ref="B1:AJ44"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U38" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9730,115 +9690,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="40"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -11082,6 +11042,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -11094,18 +11066,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11119,8 +11079,8 @@
   </sheetPr>
   <dimension ref="B1:AM44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11155,124 +11115,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="40"/>
-      <c r="AL1" s="39" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AL1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AM1" s="40"/>
+      <c r="AM1" s="38"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="37" t="s">
+      <c r="AL2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="38"/>
+      <c r="AM2" s="40"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -11567,7 +11527,7 @@
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="C6" s="18">
         <v>261.18</v>
@@ -11783,9 +11743,7 @@
     </row>
     <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
-      <c r="C9" s="18" t="s">
-        <v>72</v>
-      </c>
+      <c r="C9" s="18"/>
       <c r="E9" s="19" t="s">
         <v>28</v>
       </c>
@@ -12565,10 +12523,10 @@
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="31">
         <f>1-C29/C28</f>
         <v>0.92365371933720353</v>
       </c>
@@ -12576,31 +12534,69 @@
       <c r="Q30"/>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B31" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="31">
+        <f>C8/1000</f>
+        <v>0.64462319288775649</v>
+      </c>
       <c r="W31"/>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="31">
+        <f>C31*C26</f>
+        <v>15.470956629306155</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="27">
+        <f>1-C29/C32</f>
+        <v>0.64720390592114185</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C36" s="33">
         <f>(X9*X4+U17*U4+U9*U4+AJ6*AJ4+AG6*AG4)/1000</f>
         <v>5.5350000000000001</v>
       </c>
     </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D34"/>
-    </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="U40"/>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="U42"/>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S44"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -12614,19 +12610,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -12638,7 +12621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -12650,30 +12633,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>144</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="35">
         <v>1.3779999999999999</v>
@@ -12691,10 +12674,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="35">
         <v>3.8</v>
@@ -12708,10 +12691,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="35">
         <v>0.68899999999999995</v>
@@ -12729,10 +12712,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="35">
         <v>4.2</v>
@@ -12746,10 +12729,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="35">
         <v>0.68899999999999995</v>
@@ -12767,10 +12750,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="35">
         <v>3.8</v>
@@ -12784,10 +12767,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="35">
         <v>0.68899999999999995</v>
@@ -12805,10 +12788,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="35">
         <v>4.2</v>
@@ -12822,10 +12805,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="35">
         <v>0.68899999999999995</v>
@@ -12843,10 +12826,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="35">
         <v>3.8</v>
@@ -12860,10 +12843,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="35">
         <v>0.68899999999999995</v>
@@ -12883,10 +12866,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="35">
         <v>4.2</v>
@@ -12900,10 +12883,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="35">
         <v>0.68899999999999995</v>
@@ -12923,10 +12906,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="35">
         <v>3.8</v>
@@ -12940,10 +12923,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="35">
         <v>0.68899999999999995</v>
@@ -12961,10 +12944,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="35">
         <v>4.2</v>
@@ -12978,10 +12961,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="35">
         <v>0.68899999999999995</v>
@@ -12999,10 +12982,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="35">
         <v>3.8</v>
@@ -13016,10 +12999,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="35">
         <v>0.68899999999999995</v>
@@ -13037,10 +13020,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="35">
         <v>4.2</v>
@@ -13054,10 +13037,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="35">
         <v>0.68899999999999995</v>
@@ -13075,10 +13058,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="35">
         <v>3.8</v>
@@ -13092,10 +13075,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="35">
         <v>0.68899999999999995</v>
@@ -13113,10 +13096,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="35">
         <v>4.2</v>
@@ -13130,10 +13113,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="35">
         <v>0.68899999999999995</v>
@@ -13151,10 +13134,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="35">
         <v>3.8</v>
@@ -13168,10 +13151,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="35">
         <v>1.3779999999999999</v>
@@ -13189,7 +13172,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="35">
         <f>SUM(C2:C28)+2</f>
@@ -13202,7 +13185,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="34">
         <f>COUNTIF(B2:B28, "Signal (GND)")</f>
@@ -13211,32 +13194,32 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="34">
         <f>COUNTIF(B2:B28, "Signal (PWR)")</f>
         <v>2</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="34">
         <f>COUNTIF(B2:B28, "Top")+COUNTIF(B2:B28, "Bot")+COUNTIF(B2:B28, "Signal")</f>
         <v>5</v>
       </c>
       <c r="F32" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -13250,10 +13233,10 @@
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
@@ -13268,118 +13251,95 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:A28">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>$B2="Bot"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="9">
+    <cfRule type="expression" dxfId="26" priority="9">
       <formula>$B2="Signal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="10">
+    <cfRule type="expression" dxfId="25" priority="10">
       <formula>$B2="Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="11">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>$B2="Core"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="12">
+    <cfRule type="expression" dxfId="23" priority="12">
       <formula>$B2="Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="13">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>$B2="Prepreg"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="14">
+    <cfRule type="expression" dxfId="21" priority="14">
       <formula>$B2="Top"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
       <formula>"Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
       <formula>"Core"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
       <formula>"Prepreg"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="33" operator="equal">
       <formula>"Signal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
       <formula>"Bot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="35" operator="equal">
       <formula>"Top"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D28">
-    <cfRule type="expression" dxfId="20" priority="15">
+  <conditionalFormatting sqref="C2:F28">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$B2="Bot"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$B2="Signal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$B2="Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$B2="Core"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$B2="Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$B2="Prepreg"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$B2="Top"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:G31">
-    <cfRule type="cellIs" dxfId="13" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="190" operator="equal">
       <formula>"Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="191" operator="equal">
       <formula>"Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="192" operator="equal">
       <formula>"Core"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="193" operator="equal">
       <formula>"Prepreg"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="194" operator="equal">
       <formula>"Signal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="195" operator="equal">
       <formula>"Bot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="196" operator="equal">
       <formula>"Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F28">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$B2="Bot"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>$B2="Signal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>$B2="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$B2="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$B2="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>$B2="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>$B2="Top"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13387,6 +13347,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -13530,15 +13499,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13546,6 +13506,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13559,14 +13527,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DB9423-26D8-4658-8FF2-420F05E4EC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4DE3E0-D2ED-48C5-BDB5-D7E06D5AAE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="160">
   <si>
     <t>TYPE</t>
   </si>
@@ -336,9 +336,6 @@
     <t>6V_N</t>
   </si>
   <si>
-    <t>LDO - TPS7A33</t>
-  </si>
-  <si>
     <t>Top</t>
   </si>
   <si>
@@ -490,6 +487,42 @@
   </si>
   <si>
     <t>Itot (A) w/ DRV_MOTOR</t>
+  </si>
+  <si>
+    <t>U1 - LDO - TPS7A47</t>
+  </si>
+  <si>
+    <t>U3 - SWR - LMZ23605</t>
+  </si>
+  <si>
+    <t>U2 - SWR - PTH08T260</t>
+  </si>
+  <si>
+    <t>U4 - SWR INV - LMZ34002</t>
+  </si>
+  <si>
+    <t>U9 - LDO - TPS7A47</t>
+  </si>
+  <si>
+    <t>U8 - SWR - PTH04T231</t>
+  </si>
+  <si>
+    <t>U10 - LDO - TPS7A47</t>
+  </si>
+  <si>
+    <t>U11 - LDO - TPS51200</t>
+  </si>
+  <si>
+    <t>U5 - LDO - TPS7A33</t>
+  </si>
+  <si>
+    <t>U6 - SWR - PTH08T260</t>
+  </si>
+  <si>
+    <t>U12 - SWR - PTN78000</t>
+  </si>
+  <si>
+    <t>U7 - SWR - PTH04T231</t>
   </si>
 </sst>
 </file>
@@ -11080,7 +11113,7 @@
   <dimension ref="B1:AM44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11120,51 +11153,51 @@
       </c>
       <c r="C1" s="38"/>
       <c r="E1" s="37" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="F1" s="38"/>
       <c r="H1" s="37" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="I1" s="38"/>
       <c r="K1" s="37" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="L1" s="38"/>
       <c r="N1" s="37" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="O1" s="38"/>
       <c r="Q1" s="37" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="R1" s="38"/>
       <c r="T1" s="37" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="U1" s="38"/>
       <c r="W1" s="37" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="X1" s="38"/>
       <c r="Z1" s="37" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="AA1" s="38"/>
       <c r="AC1" s="37" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="AD1" s="38"/>
       <c r="AF1" s="37" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="AG1" s="38"/>
       <c r="AI1" s="37" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="AJ1" s="38"/>
       <c r="AL1" s="37" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="AM1" s="38"/>
     </row>
@@ -11527,7 +11560,7 @@
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="18">
         <v>261.18</v>
@@ -12535,7 +12568,7 @@
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="31">
         <f>C8/1000</f>
@@ -12545,7 +12578,7 @@
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="31">
         <f>C31*C26</f>
@@ -12554,7 +12587,7 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33" s="27">
         <f>1-C29/C32</f>
@@ -12633,30 +12666,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>143</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="35">
         <v>1.3779999999999999</v>
@@ -12674,10 +12707,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="35">
         <v>3.8</v>
@@ -12691,10 +12724,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="35">
         <v>0.68899999999999995</v>
@@ -12712,10 +12745,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="35">
         <v>4.2</v>
@@ -12729,10 +12762,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="35">
         <v>0.68899999999999995</v>
@@ -12750,10 +12783,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="35">
         <v>3.8</v>
@@ -12767,10 +12800,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="35">
         <v>0.68899999999999995</v>
@@ -12788,10 +12821,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="35">
         <v>4.2</v>
@@ -12805,10 +12838,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="35">
         <v>0.68899999999999995</v>
@@ -12826,10 +12859,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="35">
         <v>3.8</v>
@@ -12843,10 +12876,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="35">
         <v>0.68899999999999995</v>
@@ -12866,10 +12899,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="35">
         <v>4.2</v>
@@ -12883,10 +12916,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="35">
         <v>0.68899999999999995</v>
@@ -12906,10 +12939,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="35">
         <v>3.8</v>
@@ -12923,10 +12956,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="35">
         <v>0.68899999999999995</v>
@@ -12944,10 +12977,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="35">
         <v>4.2</v>
@@ -12961,10 +12994,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="35">
         <v>0.68899999999999995</v>
@@ -12982,10 +13015,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="35">
         <v>3.8</v>
@@ -12999,10 +13032,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="35">
         <v>0.68899999999999995</v>
@@ -13020,10 +13053,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="35">
         <v>4.2</v>
@@ -13037,10 +13070,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="35">
         <v>0.68899999999999995</v>
@@ -13058,10 +13091,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="35">
         <v>3.8</v>
@@ -13075,10 +13108,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="35">
         <v>0.68899999999999995</v>
@@ -13096,10 +13129,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="35">
         <v>4.2</v>
@@ -13113,10 +13146,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="35">
         <v>0.68899999999999995</v>
@@ -13134,10 +13167,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="35">
         <v>3.8</v>
@@ -13151,10 +13184,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="35">
         <v>1.3779999999999999</v>
@@ -13172,7 +13205,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="35">
         <f>SUM(C2:C28)+2</f>
@@ -13185,7 +13218,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="34">
         <f>COUNTIF(B2:B28, "Signal (GND)")</f>
@@ -13194,32 +13227,32 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="34">
         <f>COUNTIF(B2:B28, "Signal (PWR)")</f>
         <v>2</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="34">
         <f>COUNTIF(B2:B28, "Top")+COUNTIF(B2:B28, "Bot")+COUNTIF(B2:B28, "Signal")</f>
         <v>5</v>
       </c>
       <c r="F32" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="34" t="s">
         <v>106</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -13233,10 +13266,10 @@
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4DE3E0-D2ED-48C5-BDB5-D7E06D5AAE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90278F6-84E7-490B-AFC4-3FE589297083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="160">
   <si>
     <t>TYPE</t>
   </si>
@@ -761,16 +762,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4259,6 +4260,651 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952C4B0F-1583-4D91-9FB0-12C4E8AFF005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="15303"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="27203400" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59724129-65FA-4B96-8CDD-37121031EA1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15430501" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107E2E31-C238-4DBA-9294-F012921685C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="30146625" y="4800600"/>
+          <a:ext cx="2228850" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D088E55-D6B5-49E3-88DB-737F020D4CB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7568" t="3852" r="3666" b="647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9544050" y="4800602"/>
+          <a:ext cx="2228850" cy="2200273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C7E743-5A53-466A-B798-637575EA2B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10882" t="1773" r="58767" b="15958"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3657601" y="4791076"/>
+          <a:ext cx="2228850" cy="2209799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>4310</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61EA3A63-9811-48C4-832E-CDCA10C6EB9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1518" t="6667" r="66940" b="18181"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18373725" y="4800599"/>
+          <a:ext cx="2233160" cy="2200276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>4310</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13E5479-A068-4535-89D6-7CAAEB8F1915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1518" t="6667" r="66940" b="18181"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="24255865" y="4800600"/>
+          <a:ext cx="2233160" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4FBFF5-1EC0-400A-B887-6323006B0410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1791" t="22701" r="66368"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="33089851" y="4819652"/>
+          <a:ext cx="2228850" cy="2181224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3727</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E336D1-A2DE-4F0A-BC87-33860183C04D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6824" t="2199" r="4236"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6600825" y="4800600"/>
+          <a:ext cx="2232577" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2366</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73192B86-2FDB-4906-8AAA-1231BBB1AA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8009" t="1348" r="3631" b="170"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12487275" y="4800600"/>
+          <a:ext cx="2231216" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5034,97 +5680,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -6155,6 +6801,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -6170,11 +6821,6 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -6214,88 +6860,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="38"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -7255,16 +7901,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -7273,6 +7909,16 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7313,97 +7959,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8452,6 +9098,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -8462,16 +9118,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8512,97 +9158,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9659,14 +10305,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -9679,6 +10317,14 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9723,115 +10369,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="38"/>
+      <c r="AJ1" s="40"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -11075,6 +11721,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -11087,18 +11745,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11112,8 +11758,8 @@
   </sheetPr>
   <dimension ref="B1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q42" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11148,124 +11794,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AL1" s="37" t="s">
+      <c r="AJ1" s="40"/>
+      <c r="AL1" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="AM1" s="38"/>
+      <c r="AM1" s="40"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="38"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="39" t="s">
+      <c r="AL2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="40"/>
+      <c r="AM2" s="38"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -12617,6 +13263,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -12630,19 +13289,6 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -12651,6 +13297,1533 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CE86DF-20C2-423E-88E8-B059337150C7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AJ47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="9" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" style="9" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="9" customWidth="1"/>
+    <col min="29" max="30" width="16.7109375" style="9" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="9" customWidth="1"/>
+    <col min="32" max="33" width="16.7109375" style="9" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" style="9" customWidth="1"/>
+    <col min="35" max="37" width="16.7109375" style="9" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ1" s="40"/>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="38"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="38"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="38"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="38"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="12">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C4</f>
+        <v>24</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="12">
+        <f>I4</f>
+        <v>6</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="12">
+        <f>L4</f>
+        <v>5</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="V3" s="13"/>
+      <c r="W3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="12">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="12">
+        <f>U4</f>
+        <v>3.3</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="12">
+        <f>AA4</f>
+        <v>1.8</v>
+      </c>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="12">
+        <f>X4</f>
+        <v>3.3</v>
+      </c>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="12">
+        <f>AD4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12">
+        <v>24</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
+        <v>6</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="12">
+        <v>6</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="12">
+        <v>5</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="12">
+        <v>5</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="V4" s="16"/>
+      <c r="W4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="18">
+        <f>SUM(C6:C22)</f>
+        <v>2964.7783351488024</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="18">
+        <f>SUM(F7:F22)</f>
+        <v>2169.2582729118812</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="18">
+        <f>SUM(I6:I22)</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="18">
+        <f>SUM(L6:L22)</f>
+        <v>541.69000000000005</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="18">
+        <f>SUM(O6:O22)</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="18">
+        <f>SUM(R6:R22)</f>
+        <v>506.79</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="18">
+        <f>SUM(U6:U22)</f>
+        <v>1124.9408021390375</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="18">
+        <f>SUM(X6:X22)</f>
+        <v>1662.1212121212122</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" s="18">
+        <f>SUM(AA6:AA22)</f>
+        <v>981.05</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="18">
+        <f>SUM(AD6:AD22)</f>
+        <v>580.04999999999995</v>
+      </c>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG5" s="18">
+        <f>SUM(AG6:AG22)</f>
+        <v>3000</v>
+      </c>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ5" s="18">
+        <f>SUM(AJ6:AJ22)</f>
+        <v>98.47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="18">
+        <v>261.18</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="18">
+        <f>I26/I3</f>
+        <v>41.058823529411775</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="18">
+        <f>O26/O3</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="18">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="18">
+        <v>13</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" s="18">
+        <f>AG26/AG3</f>
+        <v>1212.1212121212122</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>58</v>
+      </c>
+      <c r="AC6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>300</v>
+      </c>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG6" s="18">
+        <v>3000</v>
+      </c>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>98.47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2073</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="18">
+        <f>L26/L3</f>
+        <v>541.69000000000005</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
+      <c r="K7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="18">
+        <v>23.03</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="18">
+        <v>15</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="X7" s="18">
+        <v>100</v>
+      </c>
+      <c r="Z7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>343</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>181.53</v>
+      </c>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="18"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="18"/>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="18">
+        <f>F26/F3</f>
+        <v>630.59833514880268</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="18">
+        <f>U26/U3</f>
+        <v>665.28757115749511</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+      <c r="K8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="18">
+        <f>R26/R3</f>
+        <v>506.79000000000008</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="18"/>
+      <c r="Q8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="18">
+        <v>56</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="18">
+        <v>6.6</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" s="18">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA8" s="18">
+        <f>AD26/AD3</f>
+        <v>580.04999999999995</v>
+      </c>
+      <c r="AC8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="18"/>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="18">
+        <f>X26/X3</f>
+        <v>962.28070175438597</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="18"/>
+      <c r="Q9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="18">
+        <v>318</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" s="18">
+        <v>35</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" s="20">
+        <v>250</v>
+      </c>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="18"/>
+      <c r="AC9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="18">
+        <f>AJ26/AJ3</f>
+        <v>98.469999999999985</v>
+      </c>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="18"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="18"/>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="18"/>
+      <c r="Q10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="18">
+        <v>34</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="18">
+        <v>100</v>
+      </c>
+      <c r="W10" s="19"/>
+      <c r="X10" s="18"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="18"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="18"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="18"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="18"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="18"/>
+      <c r="T11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="18">
+        <v>8</v>
+      </c>
+      <c r="W11" s="19"/>
+      <c r="X11" s="18"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="18"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="18"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="18"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="18"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="18"/>
+      <c r="T12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" s="18">
+        <v>25.76</v>
+      </c>
+      <c r="W12" s="19"/>
+      <c r="X12" s="18"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="18"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="18"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="18"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="18"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="18"/>
+      <c r="T13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="U13" s="18">
+        <v>4</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="18"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="18"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="18"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="18"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="18"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="18"/>
+      <c r="T14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="U14" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="W14" s="19"/>
+      <c r="X14" s="18"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="18"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="18"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="18"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="18"/>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="18"/>
+      <c r="T15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="U15" s="18">
+        <v>0.66</v>
+      </c>
+      <c r="W15" s="19"/>
+      <c r="X15" s="18"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="18"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="18"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="18"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="18"/>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="18"/>
+      <c r="T16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="18">
+        <f>AA26/AA3</f>
+        <v>629.5508021390375</v>
+      </c>
+      <c r="W16" s="19"/>
+      <c r="X16" s="18"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="18"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="18"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="18"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="18"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="18"/>
+      <c r="T17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" s="18">
+        <v>163.63999999999999</v>
+      </c>
+      <c r="W17" s="19"/>
+      <c r="X17" s="20"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="18"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="18"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="18"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="18"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="18"/>
+      <c r="T18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="U18" s="18">
+        <v>23.03</v>
+      </c>
+      <c r="W18" s="19"/>
+      <c r="X18" s="18"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="18"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="18"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="18"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="18"/>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="T19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" s="18">
+        <v>100</v>
+      </c>
+      <c r="W19" s="19"/>
+      <c r="X19" s="18"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="18"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="18"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="18"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="18"/>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="18"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="18"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="18"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="18"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="18"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="18"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="18"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="18"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="18"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="18"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="18"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="18"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="18"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="18"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="18"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="18"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="18"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="18"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="18"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="18"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="18"/>
+    </row>
+    <row r="23" spans="2:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="22">
+        <f>C5*C4</f>
+        <v>71154.68004357125</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="22">
+        <f>F5*F4</f>
+        <v>13015.549637471287</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="22">
+        <f>I5*I4</f>
+        <v>209.40000000000003</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="22">
+        <f>L5*L4</f>
+        <v>2708.4500000000003</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="22">
+        <f>O5*O4</f>
+        <v>174.50000000000003</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" s="22">
+        <f>R5*R4</f>
+        <v>1672.4069999999999</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U23" s="22">
+        <f>U5*U4</f>
+        <v>3712.3046470588233</v>
+      </c>
+      <c r="V23" s="9"/>
+      <c r="W23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="X23" s="22">
+        <f>X5*X4</f>
+        <v>5485</v>
+      </c>
+      <c r="Z23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA23" s="22">
+        <f>AA5*AA4</f>
+        <v>1765.8899999999999</v>
+      </c>
+      <c r="AC23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD23" s="22">
+        <f>AD5*AD4</f>
+        <v>870.07499999999993</v>
+      </c>
+      <c r="AF23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG23" s="22">
+        <f>AG5*AG4</f>
+        <v>3600</v>
+      </c>
+      <c r="AI23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ23" s="22">
+        <f>AJ5*AJ4</f>
+        <v>73.852499999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="22">
+        <v>1</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="22">
+        <f>L4/L3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" s="22">
+        <f>O4/O3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24" s="22">
+        <f>R4/R3</f>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="T24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" s="22">
+        <v>0.93</v>
+      </c>
+      <c r="V24" s="13"/>
+      <c r="W24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X24" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="Z24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="AC24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD24" s="22">
+        <f>AD4/AD3</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="AF24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG24" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="AI24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ24" s="22">
+        <f>AJ4/AJ3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="22">
+        <f>C23/C24-C23</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="22">
+        <f>F23/F24-F23</f>
+        <v>2118.8104060999776</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="22">
+        <f>I23/I24-I23</f>
+        <v>36.952941176470603</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="22">
+        <f>L23/L24-L23</f>
+        <v>541.69000000000005</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="22">
+        <f>O23/O24-O23</f>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="22">
+        <f>R23/R24-R23</f>
+        <v>861.54300000000035</v>
+      </c>
+      <c r="T25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="22">
+        <f>U23/U24-U23</f>
+        <v>279.42077988614756</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="22">
+        <f>X23/X24-X23</f>
+        <v>288.68421052631584</v>
+      </c>
+      <c r="Z25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" s="22">
+        <f>AA23/AA24-AA23</f>
+        <v>311.62764705882364</v>
+      </c>
+      <c r="AC25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD25" s="22">
+        <f>AD23/AD24-AD23</f>
+        <v>174.01499999999999</v>
+      </c>
+      <c r="AF25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG25" s="22">
+        <f>AG23/AG24-AG23</f>
+        <v>400</v>
+      </c>
+      <c r="AI25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ25" s="22">
+        <f>AJ23/AJ24-AJ23</f>
+        <v>73.852499999999992</v>
+      </c>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="25">
+        <f>C25+C23</f>
+        <v>71154.68004357125</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="25">
+        <f>F25+F23</f>
+        <v>15134.360043571265</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="25">
+        <f>I25+I23</f>
+        <v>246.35294117647064</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="25">
+        <f>L25+L23</f>
+        <v>3250.1400000000003</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" s="25">
+        <f>O25+O23</f>
+        <v>209.40000000000003</v>
+      </c>
+      <c r="Q26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" s="25">
+        <f>R25+R23</f>
+        <v>2533.9500000000003</v>
+      </c>
+      <c r="T26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26" s="25">
+        <f>U25+U23</f>
+        <v>3991.7254269449709</v>
+      </c>
+      <c r="W26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="X26" s="25">
+        <f>X25+X23</f>
+        <v>5773.6842105263158</v>
+      </c>
+      <c r="Z26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA26" s="25">
+        <f>AA25+AA23</f>
+        <v>2077.5176470588235</v>
+      </c>
+      <c r="AC26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD26" s="25">
+        <f>AD25+AD23</f>
+        <v>1044.0899999999999</v>
+      </c>
+      <c r="AF26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG26" s="25">
+        <f>AG25+AG23</f>
+        <v>4000</v>
+      </c>
+      <c r="AI26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ26" s="25">
+        <f>AJ25+AJ23</f>
+        <v>147.70499999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AF28"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B29" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B30" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="31">
+        <f>C5/1000</f>
+        <v>2.9647783351488024</v>
+      </c>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B31" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="31">
+        <f>C26/1000</f>
+        <v>71.154680043571247</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B32" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="31">
+        <f>(C25+F25+L25+O25+R25+U25+AA25+AD25+AG25+AJ25+X25+I25)/1000</f>
+        <v>5.1214964847477358</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="31">
+        <f>1-C32/C31</f>
+        <v>0.92802305510176408</v>
+      </c>
+      <c r="N33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="31">
+        <f>C8/1000</f>
+        <v>0.6305983351488027</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="31">
+        <f>C34*C29</f>
+        <v>15.134360043571265</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="27">
+        <f>1-C32/C35</f>
+        <v>0.66159808079078752</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="33">
+        <f>(X4*X5+AD4*AD6)/1000</f>
+        <v>5.9349999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U43"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U45"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="38" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
   <dimension ref="A1:H35"/>
   <sheetViews>
@@ -13380,15 +15553,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -13532,6 +15696,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13539,14 +15712,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13560,6 +15725,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90278F6-84E7-490B-AFC4-3FE589297083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693C9E2F-0E0F-4C23-A6F2-FC50A8115996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,16 +762,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5680,97 +5680,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -6801,11 +6801,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -6821,6 +6816,11 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -6860,88 +6860,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="40"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -7901,6 +7901,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -7909,16 +7919,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7959,97 +7959,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9098,16 +9098,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -9118,6 +9108,16 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9158,97 +9158,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -10305,6 +10305,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -10317,14 +10325,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10369,115 +10369,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="40"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -11721,6 +11721,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -11733,18 +11745,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11794,124 +11794,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AJ1" s="40"/>
-      <c r="AL1" s="39" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AL1" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="AM1" s="40"/>
+      <c r="AM1" s="38"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="37" t="s">
+      <c r="AL2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="38"/>
+      <c r="AM2" s="40"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -13263,6 +13263,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -13276,19 +13289,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -13304,7 +13304,7 @@
   <dimension ref="B1:AJ47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13337,115 +13337,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="AJ1" s="40"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -14792,30 +14792,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="38" orientation="landscape" r:id="rId1"/>
@@ -15697,18 +15697,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15730,14 +15730,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -15751,4 +15743,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5617FED4-2866-4CBA-9C17-FBA0B5B09855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97DFE25-C59C-4DC7-99F2-1F906335DD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,16 +763,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6229,8 +6229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6291,7 +6291,7 @@
         <v>3.8</v>
       </c>
       <c r="D3" s="35">
-        <f t="shared" ref="D3:D28" si="0">C3*0.0254</f>
+        <f t="shared" ref="D3:D29" si="0">C3*0.0254</f>
         <v>9.6519999999999995E-2</v>
       </c>
       <c r="E3" s="35"/>
@@ -6783,12 +6783,12 @@
         <v>113</v>
       </c>
       <c r="C29" s="35">
-        <f>SUM(C2:C28)+2</f>
-        <v>64.823999999999998</v>
-      </c>
-      <c r="D29" s="34">
-        <f>SUM(D2:D28)+2</f>
-        <v>3.5957295999999994</v>
+        <f>SUM(C2:C28)+1</f>
+        <v>63.823999999999998</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" si="0"/>
+        <v>1.6211295999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6904,7 +6904,7 @@
       <formula>"Top"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:F28">
+  <conditionalFormatting sqref="C2:F28 D29">
     <cfRule type="expression" dxfId="13" priority="1">
       <formula>$B2="Bot"</formula>
     </cfRule>
@@ -6991,97 +6991,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8112,11 +8112,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -8132,6 +8127,11 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -8171,88 +8171,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="40"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9212,6 +9212,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -9220,16 +9230,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9270,97 +9270,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -10409,16 +10409,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -10429,6 +10419,16 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10469,97 +10469,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -11616,6 +11616,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -11628,14 +11636,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11680,115 +11680,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="40"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -13032,6 +13032,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -13044,18 +13056,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13105,124 +13105,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AJ1" s="40"/>
-      <c r="AL1" s="39" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AL1" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="AM1" s="40"/>
+      <c r="AM1" s="38"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="37" t="s">
+      <c r="AL2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="38"/>
+      <c r="AM2" s="40"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -14574,6 +14574,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -14587,19 +14600,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -14648,115 +14648,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="AJ1" s="40"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -16103,6 +16103,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -16111,22 +16127,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="38" orientation="landscape" r:id="rId1"/>
@@ -16138,7 +16138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE97D9D4-3157-4D7D-817C-63B2B3707009}">
   <dimension ref="B1:AG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
@@ -16170,106 +16170,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="40"/>
+      <c r="AG1" s="38"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -17552,21 +17552,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -17574,6 +17559,21 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17725,18 +17725,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17758,14 +17758,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -17779,4 +17771,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97DFE25-C59C-4DC7-99F2-1F906335DD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FEAC4B-6DF1-4E34-B828-BD839E6FDEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,16 +763,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6230,7 +6230,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6991,97 +6991,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8112,6 +8112,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -8127,11 +8132,6 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -8171,88 +8171,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="38"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9212,16 +9212,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -9230,6 +9220,16 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9270,97 +9270,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -10409,6 +10409,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -10419,16 +10429,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10469,97 +10469,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -11616,14 +11616,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -11636,6 +11628,14 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11680,115 +11680,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="38"/>
+      <c r="AJ1" s="40"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -13032,6 +13032,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -13044,18 +13056,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13105,124 +13105,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AL1" s="37" t="s">
+      <c r="AJ1" s="40"/>
+      <c r="AL1" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="AM1" s="38"/>
+      <c r="AM1" s="40"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="38"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="39" t="s">
+      <c r="AL2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="40"/>
+      <c r="AM2" s="38"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -14574,6 +14574,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -14587,19 +14600,6 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -14648,115 +14648,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="AJ1" s="38"/>
+      <c r="AJ1" s="40"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -16103,22 +16103,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -16127,6 +16111,22 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="38" orientation="landscape" r:id="rId1"/>
@@ -16170,106 +16170,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="38"/>
+      <c r="AG1" s="40"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -17552,6 +17552,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -17559,21 +17574,6 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17581,6 +17581,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -17724,12 +17730,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17740,6 +17740,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17757,22 +17773,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
   <ds:schemaRefs>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FEAC4B-6DF1-4E34-B828-BD839E6FDEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC2CFBE-650F-4EDD-BF2E-2037C0C37A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="162">
   <si>
     <t>TYPE</t>
   </si>
@@ -338,13 +338,7 @@
     <t>6V_N</t>
   </si>
   <si>
-    <t>Top</t>
-  </si>
-  <si>
     <t>Prepreg</t>
-  </si>
-  <si>
-    <t>Signal (GND)</t>
   </si>
   <si>
     <t>Core</t>
@@ -353,28 +347,13 @@
     <t>Signal</t>
   </si>
   <si>
-    <t>Bot</t>
-  </si>
-  <si>
-    <t>Signal (PWR)</t>
-  </si>
-  <si>
-    <t>Thickness (mils)</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
     <t>mils</t>
   </si>
   <si>
-    <t>Thickness (mm)</t>
-  </si>
-  <si>
     <t>Converters</t>
-  </si>
-  <si>
-    <t>Layer</t>
   </si>
   <si>
     <t>Total GND</t>
@@ -389,12 +368,6 @@
     <t>Tot thickness</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Top layer</t>
-  </si>
-  <si>
     <t>Dielectric 1</t>
   </si>
   <si>
@@ -402,9 +375,6 @@
   </si>
   <si>
     <t>Dielectric 2</t>
-  </si>
-  <si>
-    <t>Int2 (Signal)</t>
   </si>
   <si>
     <t>Delectric 3</t>
@@ -420,9 +390,6 @@
   </si>
   <si>
     <t>Int3 (GND)</t>
-  </si>
-  <si>
-    <t>Int4 (Signal)</t>
   </si>
   <si>
     <t>Int5 (GND)</t>
@@ -458,9 +425,6 @@
     <t>Dieltric 11</t>
   </si>
   <si>
-    <t>Int11 (Signal)</t>
-  </si>
-  <si>
     <t>Dieletric 12</t>
   </si>
   <si>
@@ -471,12 +435,6 @@
   </si>
   <si>
     <t>Bottom Layer</t>
-  </si>
-  <si>
-    <t>50Ohm traces (mils)</t>
-  </si>
-  <si>
-    <t>40Ohm traces (mils)</t>
   </si>
   <si>
     <t>DRV_THERMAL</t>
@@ -525,6 +483,54 @@
   </si>
   <si>
     <t>U7 - SWR - PTH04T231</t>
+  </si>
+  <si>
+    <t>Diff pairs spacing</t>
+  </si>
+  <si>
+    <t>(mils)</t>
+  </si>
+  <si>
+    <t>(mm)</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>50Ohm traces</t>
+  </si>
+  <si>
+    <t>40Ohm traces</t>
+  </si>
+  <si>
+    <t>Diff pairs width</t>
+  </si>
+  <si>
+    <t>Top Solder</t>
+  </si>
+  <si>
+    <t>Top Layer</t>
+  </si>
+  <si>
+    <t>Bottom Solder</t>
+  </si>
+  <si>
+    <t>Layer type</t>
+  </si>
+  <si>
+    <t>Layer name</t>
+  </si>
+  <si>
+    <t>Solder mask</t>
+  </si>
+  <si>
+    <t>Int2 (Sign)</t>
+  </si>
+  <si>
+    <t>Int4 (Sign)</t>
+  </si>
+  <si>
+    <t>Int11 (Sign)</t>
   </si>
 </sst>
 </file>
@@ -763,23 +769,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -881,21 +887,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -903,62 +895,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6227,120 +6163,131 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="14.7109375" style="34" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="8" width="18.7109375" style="34" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>143</v>
+        <v>151</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="35">
-        <v>1.3779999999999999</v>
-      </c>
-      <c r="D2" s="35">
-        <f>C2*0.0254</f>
-        <v>3.5001199999999996E-2</v>
-      </c>
-      <c r="E2" s="35">
-        <v>5</v>
-      </c>
-      <c r="F2" s="35">
-        <v>7</v>
+      <c r="C2" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>98</v>
+        <v>153</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="C3" s="35">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="35">
-        <f t="shared" ref="D3:D29" si="0">C3*0.0254</f>
-        <v>9.6519999999999995E-2</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+        <f>C3*0.0254</f>
+        <v>5.0799999999999998E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="35">
-        <v>0.68899999999999995</v>
+        <v>1.3779999999999999</v>
       </c>
       <c r="D4" s="35">
-        <f t="shared" si="0"/>
-        <v>1.7500599999999998E-2</v>
+        <f>C4*0.0254</f>
+        <v>3.5001199999999996E-2</v>
       </c>
       <c r="E4" s="35">
+        <v>5</v>
+      </c>
+      <c r="F4" s="35">
+        <v>7</v>
+      </c>
+      <c r="G4" s="35">
         <v>4</v>
       </c>
-      <c r="F4" s="35">
-        <v>6</v>
+      <c r="H4" s="35">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D5" s="35">
-        <f t="shared" si="0"/>
-        <v>0.10668</v>
+        <f t="shared" ref="D5:D31" si="0">C5*0.0254</f>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="35">
         <v>0.68899999999999995</v>
@@ -6349,33 +6296,33 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E6" s="35">
-        <v>4</v>
-      </c>
-      <c r="F6" s="35">
-        <v>6</v>
-      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="35">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D7" s="35">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
+        <v>0.10668</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>99</v>
@@ -6388,35 +6335,43 @@
         <v>1.7500599999999998E-2</v>
       </c>
       <c r="E8" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="35">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G8" s="35">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" s="35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D9" s="35">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="35">
         <v>0.68899999999999995</v>
@@ -6425,33 +6380,33 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E10" s="35">
-        <v>4</v>
-      </c>
-      <c r="F10" s="35">
-        <v>6</v>
-      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="35">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D11" s="35">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
+        <v>0.10668</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>99</v>
@@ -6464,37 +6419,43 @@
         <v>1.7500599999999998E-2</v>
       </c>
       <c r="E12" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="35">
-        <v>6</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="35">
+        <v>3</v>
+      </c>
+      <c r="H12" s="35">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" s="35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D13" s="35">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" s="35">
         <v>0.68899999999999995</v>
@@ -6503,35 +6464,33 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E14" s="35">
-        <v>4</v>
-      </c>
-      <c r="F14" s="35">
-        <v>6</v>
-      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="35">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D15" s="35">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
+        <v>0.10668</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>99</v>
@@ -6543,36 +6502,36 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E16" s="35">
-        <v>4</v>
-      </c>
-      <c r="F16" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C17" s="35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D17" s="35">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C18" s="35">
         <v>0.68899999999999995</v>
@@ -6581,33 +6540,33 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E18" s="35">
-        <v>4</v>
-      </c>
-      <c r="F18" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="35">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D19" s="35">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
+        <v>0.10668</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>99</v>
@@ -6619,33 +6578,33 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E20" s="35">
-        <v>4</v>
-      </c>
-      <c r="F20" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C21" s="35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D21" s="35">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>99</v>
@@ -6657,36 +6616,36 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E22" s="35">
-        <v>4</v>
-      </c>
-      <c r="F22" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="35">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D23" s="35">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
+        <v>0.10668</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="35">
         <v>0.68899999999999995</v>
@@ -6695,33 +6654,33 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E24" s="35">
-        <v>4</v>
-      </c>
-      <c r="F24" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C25" s="35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D25" s="35">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>99</v>
@@ -6734,219 +6693,256 @@
         <v>1.7500599999999998E-2</v>
       </c>
       <c r="E26" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G26" s="35">
+        <v>3</v>
+      </c>
+      <c r="H26" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="35">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D27" s="35">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
+        <v>0.10668</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C28" s="35">
-        <v>1.3779999999999999</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="D28" s="35">
         <f t="shared" si="0"/>
-        <v>3.5001199999999996E-2</v>
-      </c>
-      <c r="E28" s="35">
-        <v>5</v>
-      </c>
-      <c r="F28" s="35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.7500599999999998E-2</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>128</v>
+      </c>
       <c r="B29" s="34" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C29" s="35">
-        <f>SUM(C2:C28)+1</f>
-        <v>63.823999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="D29" s="35">
         <f t="shared" si="0"/>
-        <v>1.6211295999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.6519999999999995E-2</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>129</v>
+      </c>
       <c r="B30" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="34">
-        <f>COUNTIF(B2:B28, "Signal (GND)")</f>
+        <v>99</v>
+      </c>
+      <c r="C30" s="35">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="D30" s="35">
+        <f t="shared" si="0"/>
+        <v>3.5001199999999996E-2</v>
+      </c>
+      <c r="E30" s="35">
+        <v>5</v>
+      </c>
+      <c r="F30" s="35">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="34">
-        <f>COUNTIF(B2:B28, "Signal (PWR)")</f>
+      <c r="G30" s="35">
+        <v>4</v>
+      </c>
+      <c r="H30" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="35">
         <v>2</v>
       </c>
-      <c r="F31" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="35">
+        <f t="shared" si="0"/>
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="34">
-        <f>COUNTIF(B2:B28, "Top")+COUNTIF(B2:B28, "Bot")+COUNTIF(B2:B28, "Signal")</f>
-        <v>5</v>
-      </c>
-      <c r="F32" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="35">
+        <f>SUM(C3:C31)</f>
+        <v>66.823999999999998</v>
+      </c>
+      <c r="D32" s="35">
+        <f t="shared" ref="D32" si="1">C32*0.0254</f>
+        <v>1.6973295999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="34">
+        <f>COUNTIF(B3:B31, "Signal (GND)")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="34">
+      <c r="C34" s="34">
+        <f>COUNTIF(B3:B31, "Signal (PWR)")</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="34">
+        <f>COUNTIF(B3:B31, "Top")+COUNTIF(B3:B31, "Bot")+COUNTIF(B3:B31, "Signal")</f>
+        <v>14</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="34">
         <v>0.21</v>
       </c>
-      <c r="G33" s="34">
-        <f>F33*39.37</f>
+      <c r="G36" s="34">
+        <f>F36*39.37</f>
         <v>8.2676999999999996</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="34">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="34">
         <v>17.716000000000001</v>
       </c>
-      <c r="G35" s="34">
-        <f>F35*0.0254</f>
+      <c r="G38" s="34">
+        <f>F38*0.0254</f>
         <v>0.44998640000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A28">
-    <cfRule type="expression" dxfId="27" priority="8">
-      <formula>$B2="Bot"</formula>
+  <conditionalFormatting sqref="A3:H31">
+    <cfRule type="expression" dxfId="17" priority="253">
+      <formula>$B3="Solder Mask"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="9">
-      <formula>$B2="Signal"</formula>
+    <cfRule type="expression" dxfId="16" priority="255">
+      <formula>$B3="Signal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="10">
-      <formula>$B2="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="11">
-      <formula>$B2="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="12">
-      <formula>$B2="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="13">
-      <formula>$B2="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="14">
-      <formula>$B2="Top"</formula>
+    <cfRule type="expression" dxfId="15" priority="258">
+      <formula>$B3="Prepreg"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B32">
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+  <conditionalFormatting sqref="A3:H32">
+    <cfRule type="expression" dxfId="14" priority="245">
+      <formula>$B3="Core"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="13" priority="36">
+      <formula>$B32="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="37">
+      <formula>$B32="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="38">
+      <formula>$B32="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="39">
+      <formula>$B32="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="40">
+      <formula>$B32="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="41">
+      <formula>$B32="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="42">
+      <formula>$B32="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:G34">
+    <cfRule type="cellIs" dxfId="6" priority="225" operator="equal">
       <formula>"Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="226" operator="equal">
       <formula>"Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="227" operator="equal">
       <formula>"Core"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="228" operator="equal">
       <formula>"Prepreg"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="229" operator="equal">
       <formula>"Signal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="230" operator="equal">
       <formula>"Bot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="35" operator="equal">
-      <formula>"Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:F28 D29">
-    <cfRule type="expression" dxfId="13" priority="1">
-      <formula>$B2="Bot"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
-      <formula>$B2="Signal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
-      <formula>$B2="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
-      <formula>$B2="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>$B2="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>$B2="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$B2="Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31:G31">
-    <cfRule type="cellIs" dxfId="6" priority="190" operator="equal">
-      <formula>"Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="191" operator="equal">
-      <formula>"Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="192" operator="equal">
-      <formula>"Core"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="193" operator="equal">
-      <formula>"Prepreg"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="194" operator="equal">
-      <formula>"Signal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="195" operator="equal">
-      <formula>"Bot"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="231" operator="equal">
       <formula>"Top"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6991,97 +6987,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8112,11 +8108,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -8132,6 +8123,11 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -8171,88 +8167,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="40"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9212,6 +9208,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -9220,16 +9226,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9270,97 +9266,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -10409,16 +10405,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -10429,6 +10415,16 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10469,97 +10465,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -11616,6 +11612,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -11628,14 +11632,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11680,115 +11676,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="40"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -13032,6 +13028,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -13044,18 +13052,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13105,124 +13101,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ1" s="40"/>
-      <c r="AL1" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM1" s="40"/>
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ1" s="38"/>
+      <c r="AL1" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM1" s="38"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="37" t="s">
+      <c r="AL2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="38"/>
+      <c r="AM2" s="40"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -13517,7 +13513,7 @@
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C6" s="18">
         <v>261.18</v>
@@ -14525,7 +14521,7 @@
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C31" s="31">
         <f>C8/1000</f>
@@ -14535,7 +14531,7 @@
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C32" s="31">
         <f>C31*C26</f>
@@ -14544,7 +14540,7 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C33" s="27">
         <f>1-C29/C32</f>
@@ -14574,6 +14570,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -14587,19 +14596,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -14648,115 +14644,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ1" s="40"/>
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -15029,7 +15025,7 @@
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C6" s="18">
         <v>261.18</v>
@@ -16055,7 +16051,7 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C34" s="31">
         <f>C8/1000</f>
@@ -16064,7 +16060,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C35" s="31">
         <f>C34*C29</f>
@@ -16073,7 +16069,7 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="26" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C36" s="27">
         <f>1-C32/C35</f>
@@ -16103,6 +16099,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -16111,22 +16123,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="38" orientation="landscape" r:id="rId1"/>
@@ -16170,106 +16166,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG1" s="40"/>
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG1" s="38"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -16520,7 +16516,7 @@
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C6" s="18">
         <v>261.18</v>
@@ -17504,7 +17500,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C35" s="31">
         <f>C8/1000</f>
@@ -17513,7 +17509,7 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="30" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C36" s="31">
         <f>C35*C30</f>
@@ -17522,7 +17518,7 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="26" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C37" s="27">
         <f>1-C33/C36</f>
@@ -17552,13 +17548,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -17567,13 +17563,13 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17581,12 +17577,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -17730,6 +17720,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17740,22 +17736,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17773,6 +17753,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
   <ds:schemaRefs>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97DFE25-C59C-4DC7-99F2-1F906335DD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02C66F9-4FED-416E-A52D-03C1031E4178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="162">
   <si>
     <t>TYPE</t>
   </si>
@@ -338,13 +338,7 @@
     <t>6V_N</t>
   </si>
   <si>
-    <t>Top</t>
-  </si>
-  <si>
     <t>Prepreg</t>
-  </si>
-  <si>
-    <t>Signal (GND)</t>
   </si>
   <si>
     <t>Core</t>
@@ -353,28 +347,13 @@
     <t>Signal</t>
   </si>
   <si>
-    <t>Bot</t>
-  </si>
-  <si>
-    <t>Signal (PWR)</t>
-  </si>
-  <si>
-    <t>Thickness (mils)</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
     <t>mils</t>
   </si>
   <si>
-    <t>Thickness (mm)</t>
-  </si>
-  <si>
     <t>Converters</t>
-  </si>
-  <si>
-    <t>Layer</t>
   </si>
   <si>
     <t>Total GND</t>
@@ -389,12 +368,6 @@
     <t>Tot thickness</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Top layer</t>
-  </si>
-  <si>
     <t>Dielectric 1</t>
   </si>
   <si>
@@ -402,9 +375,6 @@
   </si>
   <si>
     <t>Dielectric 2</t>
-  </si>
-  <si>
-    <t>Int2 (Signal)</t>
   </si>
   <si>
     <t>Delectric 3</t>
@@ -420,9 +390,6 @@
   </si>
   <si>
     <t>Int3 (GND)</t>
-  </si>
-  <si>
-    <t>Int4 (Signal)</t>
   </si>
   <si>
     <t>Int5 (GND)</t>
@@ -458,9 +425,6 @@
     <t>Dieltric 11</t>
   </si>
   <si>
-    <t>Int11 (Signal)</t>
-  </si>
-  <si>
     <t>Dieletric 12</t>
   </si>
   <si>
@@ -471,12 +435,6 @@
   </si>
   <si>
     <t>Bottom Layer</t>
-  </si>
-  <si>
-    <t>50Ohm traces (mils)</t>
-  </si>
-  <si>
-    <t>40Ohm traces (mils)</t>
   </si>
   <si>
     <t>DRV_THERMAL</t>
@@ -525,6 +483,54 @@
   </si>
   <si>
     <t>U7 - SWR - PTH04T231</t>
+  </si>
+  <si>
+    <t>Diff pairs spacing</t>
+  </si>
+  <si>
+    <t>(mils)</t>
+  </si>
+  <si>
+    <t>(mm)</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>50Ohm traces</t>
+  </si>
+  <si>
+    <t>40Ohm traces</t>
+  </si>
+  <si>
+    <t>Diff pairs width</t>
+  </si>
+  <si>
+    <t>Top Solder</t>
+  </si>
+  <si>
+    <t>Top Layer</t>
+  </si>
+  <si>
+    <t>Bottom Solder</t>
+  </si>
+  <si>
+    <t>Layer type</t>
+  </si>
+  <si>
+    <t>Layer name</t>
+  </si>
+  <si>
+    <t>Solder mask</t>
+  </si>
+  <si>
+    <t>Int2 (Sign)</t>
+  </si>
+  <si>
+    <t>Int4 (Sign)</t>
+  </si>
+  <si>
+    <t>Int11 (Sign)</t>
   </si>
 </sst>
 </file>
@@ -779,7 +785,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -881,21 +887,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -903,62 +895,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6227,120 +6163,131 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="14.7109375" style="34" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="8" width="18.7109375" style="34" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>143</v>
+        <v>151</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="35">
-        <v>1.3779999999999999</v>
-      </c>
-      <c r="D2" s="35">
-        <f>C2*0.0254</f>
-        <v>3.5001199999999996E-2</v>
-      </c>
-      <c r="E2" s="35">
-        <v>5</v>
-      </c>
-      <c r="F2" s="35">
-        <v>7</v>
+      <c r="C2" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>98</v>
+        <v>153</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="C3" s="35">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="35">
-        <f t="shared" ref="D3:D29" si="0">C3*0.0254</f>
-        <v>9.6519999999999995E-2</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+        <f>C3*0.0254</f>
+        <v>5.0799999999999998E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="35">
-        <v>0.68899999999999995</v>
+        <v>1.3779999999999999</v>
       </c>
       <c r="D4" s="35">
-        <f t="shared" si="0"/>
-        <v>1.7500599999999998E-2</v>
+        <f>C4*0.0254</f>
+        <v>3.5001199999999996E-2</v>
       </c>
       <c r="E4" s="35">
+        <v>5</v>
+      </c>
+      <c r="F4" s="35">
+        <v>7</v>
+      </c>
+      <c r="G4" s="35">
         <v>4</v>
       </c>
-      <c r="F4" s="35">
-        <v>6</v>
+      <c r="H4" s="35">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D5" s="35">
-        <f t="shared" si="0"/>
-        <v>0.10668</v>
+        <f t="shared" ref="D5:D31" si="0">C5*0.0254</f>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="35">
         <v>0.68899999999999995</v>
@@ -6349,33 +6296,33 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E6" s="35">
-        <v>4</v>
-      </c>
-      <c r="F6" s="35">
-        <v>6</v>
-      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="35">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D7" s="35">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
+        <v>0.10668</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>99</v>
@@ -6388,35 +6335,43 @@
         <v>1.7500599999999998E-2</v>
       </c>
       <c r="E8" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="35">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G8" s="35">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" s="35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D9" s="35">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="35">
         <v>0.68899999999999995</v>
@@ -6425,33 +6380,33 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E10" s="35">
-        <v>4</v>
-      </c>
-      <c r="F10" s="35">
-        <v>6</v>
-      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="35">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D11" s="35">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
+        <v>0.10668</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>99</v>
@@ -6464,37 +6419,43 @@
         <v>1.7500599999999998E-2</v>
       </c>
       <c r="E12" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="35">
-        <v>6</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="35">
+        <v>3</v>
+      </c>
+      <c r="H12" s="35">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" s="35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D13" s="35">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" s="35">
         <v>0.68899999999999995</v>
@@ -6503,35 +6464,33 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E14" s="35">
-        <v>4</v>
-      </c>
-      <c r="F14" s="35">
-        <v>6</v>
-      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="35">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D15" s="35">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
+        <v>0.10668</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>99</v>
@@ -6543,36 +6502,36 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E16" s="35">
-        <v>4</v>
-      </c>
-      <c r="F16" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C17" s="35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D17" s="35">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C18" s="35">
         <v>0.68899999999999995</v>
@@ -6581,33 +6540,33 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E18" s="35">
-        <v>4</v>
-      </c>
-      <c r="F18" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="35">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D19" s="35">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
+        <v>0.10668</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>99</v>
@@ -6619,33 +6578,33 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E20" s="35">
-        <v>4</v>
-      </c>
-      <c r="F20" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C21" s="35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D21" s="35">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>99</v>
@@ -6657,36 +6616,36 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E22" s="35">
-        <v>4</v>
-      </c>
-      <c r="F22" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="35">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D23" s="35">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
+        <v>0.10668</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="35">
         <v>0.68899999999999995</v>
@@ -6695,33 +6654,33 @@
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E24" s="35">
-        <v>4</v>
-      </c>
-      <c r="F24" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C25" s="35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D25" s="35">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>99</v>
@@ -6734,219 +6693,256 @@
         <v>1.7500599999999998E-2</v>
       </c>
       <c r="E26" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G26" s="35">
+        <v>3</v>
+      </c>
+      <c r="H26" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="35">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D27" s="35">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
+        <v>0.10668</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C28" s="35">
-        <v>1.3779999999999999</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="D28" s="35">
         <f t="shared" si="0"/>
-        <v>3.5001199999999996E-2</v>
-      </c>
-      <c r="E28" s="35">
-        <v>5</v>
-      </c>
-      <c r="F28" s="35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.7500599999999998E-2</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>128</v>
+      </c>
       <c r="B29" s="34" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C29" s="35">
-        <f>SUM(C2:C28)+1</f>
-        <v>63.823999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="D29" s="35">
         <f t="shared" si="0"/>
-        <v>1.6211295999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.6519999999999995E-2</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>129</v>
+      </c>
       <c r="B30" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="34">
-        <f>COUNTIF(B2:B28, "Signal (GND)")</f>
+        <v>99</v>
+      </c>
+      <c r="C30" s="35">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="D30" s="35">
+        <f t="shared" si="0"/>
+        <v>3.5001199999999996E-2</v>
+      </c>
+      <c r="E30" s="35">
+        <v>5</v>
+      </c>
+      <c r="F30" s="35">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="34">
-        <f>COUNTIF(B2:B28, "Signal (PWR)")</f>
+      <c r="G30" s="35">
+        <v>4</v>
+      </c>
+      <c r="H30" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="35">
         <v>2</v>
       </c>
-      <c r="F31" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="35">
+        <f t="shared" si="0"/>
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="34">
-        <f>COUNTIF(B2:B28, "Top")+COUNTIF(B2:B28, "Bot")+COUNTIF(B2:B28, "Signal")</f>
-        <v>5</v>
-      </c>
-      <c r="F32" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="35">
+        <f>SUM(C3:C31)</f>
+        <v>66.823999999999998</v>
+      </c>
+      <c r="D32" s="35">
+        <f t="shared" ref="D32" si="1">C32*0.0254</f>
+        <v>1.6973295999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="34">
+        <f>COUNTIF(B3:B31, "Signal (GND)")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="34">
+      <c r="C34" s="34">
+        <f>COUNTIF(B3:B31, "Signal (PWR)")</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="34">
+        <f>COUNTIF(B3:B31, "Top")+COUNTIF(B3:B31, "Bot")+COUNTIF(B3:B31, "Signal")</f>
+        <v>14</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="34">
         <v>0.21</v>
       </c>
-      <c r="G33" s="34">
-        <f>F33*39.37</f>
+      <c r="G36" s="34">
+        <f>F36*39.37</f>
         <v>8.2676999999999996</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="34">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="34">
         <v>17.716000000000001</v>
       </c>
-      <c r="G35" s="34">
-        <f>F35*0.0254</f>
+      <c r="G38" s="34">
+        <f>F38*0.0254</f>
         <v>0.44998640000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A28">
-    <cfRule type="expression" dxfId="27" priority="8">
-      <formula>$B2="Bot"</formula>
+  <conditionalFormatting sqref="A3:H31">
+    <cfRule type="expression" dxfId="17" priority="253">
+      <formula>$B3="Solder Mask"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="9">
-      <formula>$B2="Signal"</formula>
+    <cfRule type="expression" dxfId="16" priority="255">
+      <formula>$B3="Signal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="10">
-      <formula>$B2="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="11">
-      <formula>$B2="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="12">
-      <formula>$B2="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="13">
-      <formula>$B2="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="14">
-      <formula>$B2="Top"</formula>
+    <cfRule type="expression" dxfId="15" priority="258">
+      <formula>$B3="Prepreg"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B32">
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+  <conditionalFormatting sqref="A3:H32">
+    <cfRule type="expression" dxfId="14" priority="245">
+      <formula>$B3="Core"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="13" priority="36">
+      <formula>$B32="Bot"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="37">
+      <formula>$B32="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="38">
+      <formula>$B32="Signal (PWR)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="39">
+      <formula>$B32="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="40">
+      <formula>$B32="Signal (GND)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="41">
+      <formula>$B32="Prepreg"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="42">
+      <formula>$B32="Top"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:G34">
+    <cfRule type="cellIs" dxfId="6" priority="225" operator="equal">
       <formula>"Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="226" operator="equal">
       <formula>"Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="227" operator="equal">
       <formula>"Core"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="228" operator="equal">
       <formula>"Prepreg"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="229" operator="equal">
       <formula>"Signal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="230" operator="equal">
       <formula>"Bot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="35" operator="equal">
-      <formula>"Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:F28 D29">
-    <cfRule type="expression" dxfId="13" priority="1">
-      <formula>$B2="Bot"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
-      <formula>$B2="Signal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
-      <formula>$B2="Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
-      <formula>$B2="Core"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>$B2="Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>$B2="Prepreg"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$B2="Top"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31:G31">
-    <cfRule type="cellIs" dxfId="6" priority="190" operator="equal">
-      <formula>"Signal (PWR)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="191" operator="equal">
-      <formula>"Signal (GND)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="192" operator="equal">
-      <formula>"Core"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="193" operator="equal">
-      <formula>"Prepreg"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="194" operator="equal">
-      <formula>"Signal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="195" operator="equal">
-      <formula>"Bot"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="231" operator="equal">
       <formula>"Top"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13110,51 +13106,51 @@
       </c>
       <c r="C1" s="38"/>
       <c r="E1" s="37" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F1" s="38"/>
       <c r="H1" s="37" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="I1" s="38"/>
       <c r="K1" s="37" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="L1" s="38"/>
       <c r="N1" s="37" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O1" s="38"/>
       <c r="Q1" s="37" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="R1" s="38"/>
       <c r="T1" s="37" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="U1" s="38"/>
       <c r="W1" s="37" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="X1" s="38"/>
       <c r="Z1" s="37" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="AA1" s="38"/>
       <c r="AC1" s="37" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AD1" s="38"/>
       <c r="AF1" s="37" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AG1" s="38"/>
       <c r="AI1" s="37" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ1" s="38"/>
       <c r="AL1" s="37" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AM1" s="38"/>
     </row>
@@ -13517,7 +13513,7 @@
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C6" s="18">
         <v>261.18</v>
@@ -14525,7 +14521,7 @@
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C31" s="31">
         <f>C8/1000</f>
@@ -14535,7 +14531,7 @@
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C32" s="31">
         <f>C31*C26</f>
@@ -14544,7 +14540,7 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C33" s="27">
         <f>1-C29/C32</f>
@@ -14653,47 +14649,47 @@
       </c>
       <c r="C1" s="38"/>
       <c r="E1" s="37" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F1" s="38"/>
       <c r="H1" s="37" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="I1" s="38"/>
       <c r="K1" s="37" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="L1" s="38"/>
       <c r="N1" s="37" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O1" s="38"/>
       <c r="Q1" s="37" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="R1" s="38"/>
       <c r="T1" s="37" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="U1" s="38"/>
       <c r="W1" s="37" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="X1" s="38"/>
       <c r="Z1" s="37" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AA1" s="38"/>
       <c r="AC1" s="37" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AD1" s="38"/>
       <c r="AF1" s="37" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AG1" s="38"/>
       <c r="AI1" s="37" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AJ1" s="38"/>
     </row>
@@ -15029,7 +15025,7 @@
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C6" s="18">
         <v>261.18</v>
@@ -16055,7 +16051,7 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C34" s="31">
         <f>C8/1000</f>
@@ -16064,7 +16060,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C35" s="31">
         <f>C34*C29</f>
@@ -16073,7 +16069,7 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="26" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C36" s="27">
         <f>1-C32/C35</f>
@@ -16175,43 +16171,43 @@
       </c>
       <c r="C1" s="38"/>
       <c r="E1" s="37" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F1" s="38"/>
       <c r="H1" s="37" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="I1" s="38"/>
       <c r="K1" s="37" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="L1" s="38"/>
       <c r="N1" s="37" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O1" s="38"/>
       <c r="Q1" s="37" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="R1" s="38"/>
       <c r="T1" s="37" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="U1" s="38"/>
       <c r="W1" s="37" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="X1" s="38"/>
       <c r="Z1" s="37" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AA1" s="38"/>
       <c r="AC1" s="37" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AD1" s="38"/>
       <c r="AF1" s="37" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AG1" s="38"/>
     </row>
@@ -16520,7 +16516,7 @@
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C6" s="18">
         <v>261.18</v>
@@ -17504,7 +17500,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C35" s="31">
         <f>C8/1000</f>
@@ -17513,7 +17509,7 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="30" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C36" s="31">
         <f>C35*C30</f>
@@ -17522,7 +17518,7 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="26" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C37" s="27">
         <f>1-C33/C36</f>
@@ -17559,21 +17555,21 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02C66F9-4FED-416E-A52D-03C1031E4178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EF0266-A3B6-47CB-A9D1-7DA70C5ADBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,16 +769,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6166,7 +6166,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6987,97 +6987,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8108,6 +8108,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -8123,11 +8128,6 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -8167,88 +8167,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="38"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9208,16 +9208,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -9226,6 +9216,16 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9266,97 +9266,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -10405,6 +10405,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -10415,16 +10425,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10465,97 +10465,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -11612,14 +11612,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -11632,6 +11624,14 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11676,115 +11676,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="38"/>
+      <c r="AJ1" s="40"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -13028,6 +13028,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -13040,18 +13052,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13101,124 +13101,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AL1" s="37" t="s">
+      <c r="AJ1" s="40"/>
+      <c r="AL1" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="AM1" s="38"/>
+      <c r="AM1" s="40"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="38"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="39" t="s">
+      <c r="AL2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="40"/>
+      <c r="AM2" s="38"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -14570,6 +14570,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -14583,19 +14596,6 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -14644,115 +14644,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="AJ1" s="38"/>
+      <c r="AJ1" s="40"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -16099,22 +16099,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -16123,6 +16107,22 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="38" orientation="landscape" r:id="rId1"/>
@@ -16166,106 +16166,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="AG1" s="38"/>
+      <c r="AG1" s="40"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -17548,6 +17548,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -17559,17 +17570,6 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17577,6 +17577,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -17720,12 +17726,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17736,6 +17736,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17753,22 +17769,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
   <ds:schemaRefs>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EF0266-A3B6-47CB-A9D1-7DA70C5ADBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9B9C03-B647-48A1-AC2B-013830312BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6165,8 +6165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6858,11 +6858,11 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F36" s="34">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G36" s="34">
         <f>F36*39.37</f>
-        <v>8.2676999999999996</v>
+        <v>39.369999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -6875,11 +6875,11 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F38" s="34">
-        <v>17.716000000000001</v>
+        <v>1</v>
       </c>
       <c r="G38" s="34">
         <f>F38*0.0254</f>
-        <v>0.44998640000000001</v>
+        <v>2.5399999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9B9C03-B647-48A1-AC2B-013830312BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E2D11E-8FD1-4E06-AAC5-FE28AB6F45BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="163">
   <si>
     <t>TYPE</t>
   </si>
@@ -532,6 +532,9 @@
   <si>
     <t>Int11 (Sign)</t>
   </si>
+  <si>
+    <t>U2 - SWR - PTH08T241</t>
+  </si>
 </sst>
 </file>
 
@@ -769,16 +772,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5166,70 +5169,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>4310</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75CB8FD-4EEC-4828-BD1B-7AA9BE9F85EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1518" t="6667" r="66940" b="18181"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18437679" y="5506810"/>
-          <a:ext cx="2235881" cy="2453369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -5255,7 +5194,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5319,7 +5258,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5383,7 +5322,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5416,6 +5355,55 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835BA304-AEF5-886B-9032-F87861EA43C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18412810" y="5517931"/>
+          <a:ext cx="2233449" cy="2364828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6165,7 +6153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -6987,97 +6975,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8108,11 +8096,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -8128,6 +8111,11 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -8167,88 +8155,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="40"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9208,6 +9196,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -9216,16 +9214,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9266,97 +9254,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -10405,16 +10393,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -10425,6 +10403,16 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10465,97 +10453,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -11612,6 +11600,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -11624,14 +11620,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11676,115 +11664,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="40"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -13028,6 +13016,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -13040,18 +13040,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13101,124 +13089,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="AJ1" s="40"/>
-      <c r="AL1" s="39" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AL1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="AM1" s="40"/>
+      <c r="AM1" s="38"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="37" t="s">
+      <c r="AL2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="38"/>
+      <c r="AM2" s="40"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -14570,6 +14558,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -14583,19 +14584,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -14644,115 +14632,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AI1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="AJ1" s="40"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="40"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -16099,6 +16087,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -16107,22 +16111,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="38" orientation="landscape" r:id="rId1"/>
@@ -16134,8 +16122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE97D9D4-3157-4D7D-817C-63B2B3707009}">
   <dimension ref="B1:AG48"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="I10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16166,106 +16154,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="R1" s="38"/>
+      <c r="T1" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="U1" s="38"/>
+      <c r="W1" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AC1" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AF1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="AG1" s="40"/>
+      <c r="AG1" s="38"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -16439,14 +16427,14 @@
       </c>
       <c r="C5" s="18">
         <f>SUM(C6:C23)</f>
-        <v>2960.7068077855374</v>
+        <v>2970.7940934743488</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>76</v>
       </c>
       <c r="F5" s="18">
         <f>SUM(F7:F23)</f>
-        <v>2155.2522187822497</v>
+        <v>2189.9524815517607</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>76</v>
@@ -16649,14 +16637,14 @@
       </c>
       <c r="C8" s="18">
         <f>F27/F3</f>
-        <v>626.5268077855377</v>
+        <v>636.61409347434903</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="18">
         <f>U27/U3</f>
-        <v>1613.5622187822498</v>
+        <v>1648.2624815517604</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="18"/>
@@ -17142,14 +17130,14 @@
       </c>
       <c r="C24" s="22">
         <f>C5*C4</f>
-        <v>71056.963386852905</v>
+        <v>71299.058243384367</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="22">
         <f>F5*F4</f>
-        <v>12931.513312693498</v>
+        <v>13139.714889310564</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>35</v>
@@ -17260,7 +17248,7 @@
         <v>38</v>
       </c>
       <c r="U25" s="22">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="V25" s="13"/>
       <c r="W25" s="23" t="s">
@@ -17303,7 +17291,7 @@
       </c>
       <c r="F26" s="22">
         <f>F24/F25-F24</f>
-        <v>2105.1300741594077</v>
+        <v>2139.0233540738136</v>
       </c>
       <c r="H26" s="23" t="s">
         <v>36</v>
@@ -17338,7 +17326,7 @@
       </c>
       <c r="U26" s="22">
         <f>U24/U25-U24</f>
-        <v>484.0686656346752</v>
+        <v>692.27024225173955</v>
       </c>
       <c r="W26" s="23" t="s">
         <v>36</v>
@@ -17375,14 +17363,14 @@
       </c>
       <c r="C27" s="25">
         <f>C26+C24</f>
-        <v>71056.963386852905</v>
+        <v>71299.058243384367</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="25">
         <f>F26+F24</f>
-        <v>15036.643386852906</v>
+        <v>15278.738243384378</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>37</v>
@@ -17417,7 +17405,7 @@
       </c>
       <c r="U27" s="25">
         <f>U26+U24</f>
-        <v>9681.3733126934985</v>
+        <v>9889.5748893105629</v>
       </c>
       <c r="W27" s="24" t="s">
         <v>37</v>
@@ -17465,7 +17453,7 @@
       </c>
       <c r="C31" s="31">
         <f>C5/1000</f>
-        <v>2.9607068077855376</v>
+        <v>2.9707940934743489</v>
       </c>
       <c r="F31"/>
     </row>
@@ -17475,7 +17463,7 @@
       </c>
       <c r="C32" s="31">
         <f>C27/1000</f>
-        <v>71.0569633868529</v>
+        <v>71.299058243384366</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
@@ -17484,7 +17472,7 @@
       </c>
       <c r="C33" s="31">
         <f>(C26+F26+L26+O26+R26+U26+X26+AA26+AD26+AG26+I26)/1000</f>
-        <v>5.0237798280293786</v>
+        <v>5.2658746845608482</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
@@ -17493,7 +17481,7 @@
       </c>
       <c r="C34" s="31">
         <f>1-C33/C32</f>
-        <v>0.92929926092283743</v>
+        <v>0.9261438395639755</v>
       </c>
       <c r="N34"/>
       <c r="Q34"/>
@@ -17504,7 +17492,7 @@
       </c>
       <c r="C35" s="31">
         <f>C8/1000</f>
-        <v>0.62652680778553771</v>
+        <v>0.63661409347434905</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
@@ -17513,7 +17501,7 @@
       </c>
       <c r="C36" s="31">
         <f>C35*C30</f>
-        <v>15.036643386852905</v>
+        <v>15.278738243384378</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
@@ -17522,7 +17510,7 @@
       </c>
       <c r="C37" s="27">
         <f>1-C33/C36</f>
-        <v>0.6658975212232634</v>
+        <v>0.65534623339457054</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
@@ -17548,17 +17536,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -17570,6 +17547,17 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17577,12 +17565,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -17726,6 +17708,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17736,22 +17724,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17769,6 +17741,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
   <ds:schemaRefs>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E2D11E-8FD1-4E06-AAC5-FE28AB6F45BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9103D803-381E-4719-814F-162DB5BDCD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,16 +772,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6153,8 +6153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6975,97 +6975,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8096,6 +8096,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -8111,11 +8116,6 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -8155,88 +8155,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="38"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9196,16 +9196,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -9214,6 +9204,16 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9254,97 +9254,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -10393,6 +10393,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -10403,16 +10413,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10453,97 +10453,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="40"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -11600,14 +11600,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -11620,6 +11612,14 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11664,115 +11664,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="38"/>
+      <c r="AJ1" s="40"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -13016,6 +13016,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -13028,18 +13040,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13089,124 +13089,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AL1" s="37" t="s">
+      <c r="AJ1" s="40"/>
+      <c r="AL1" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="AM1" s="38"/>
+      <c r="AM1" s="40"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="38"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="39" t="s">
+      <c r="AL2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="40"/>
+      <c r="AM2" s="38"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -14558,6 +14558,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -14571,19 +14584,6 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -14632,115 +14632,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AI1" s="37" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AI1" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="AJ1" s="38"/>
+      <c r="AJ1" s="40"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -16087,22 +16087,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -16111,6 +16095,22 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="38" orientation="landscape" r:id="rId1"/>
@@ -16122,7 +16122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE97D9D4-3157-4D7D-817C-63B2B3707009}">
   <dimension ref="B1:AG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
@@ -16154,106 +16154,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="40"/>
+      <c r="T1" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="W1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AC1" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AF1" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="AG1" s="38"/>
+      <c r="AG1" s="40"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="40"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="40"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="40"/>
+      <c r="AD2" s="38"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="38"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -17536,6 +17536,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -17547,17 +17558,6 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17565,6 +17565,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -17708,12 +17714,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17724,6 +17724,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17741,22 +17757,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
   <ds:schemaRefs>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9103D803-381E-4719-814F-162DB5BDCD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30314661-4403-4ADC-9F5B-45888EC462A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Sheet9" sheetId="10" r:id="rId8"/>
     <sheet name="Sheet10" sheetId="11" r:id="rId9"/>
     <sheet name="Sheet8" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="169">
   <si>
     <t>TYPE</t>
   </si>
@@ -356,18 +357,6 @@
     <t>Converters</t>
   </si>
   <si>
-    <t>Total GND</t>
-  </si>
-  <si>
-    <t>Total Signal</t>
-  </si>
-  <si>
-    <t>Total PWR</t>
-  </si>
-  <si>
-    <t>Tot thickness</t>
-  </si>
-  <si>
     <t>Dielectric 1</t>
   </si>
   <si>
@@ -411,18 +400,6 @@
   </si>
   <si>
     <t>Dieletric 9</t>
-  </si>
-  <si>
-    <t>Int9 (GND)</t>
-  </si>
-  <si>
-    <t>Dieletric 10</t>
-  </si>
-  <si>
-    <t>Int10 (GND)</t>
-  </si>
-  <si>
-    <t>Dieltric 11</t>
   </si>
   <si>
     <t>Dieletric 12</t>
@@ -485,9 +462,6 @@
     <t>U7 - SWR - PTH04T231</t>
   </si>
   <si>
-    <t>Diff pairs spacing</t>
-  </si>
-  <si>
     <t>(mils)</t>
   </si>
   <si>
@@ -497,15 +471,6 @@
     <t>Thickness</t>
   </si>
   <si>
-    <t>50Ohm traces</t>
-  </si>
-  <si>
-    <t>40Ohm traces</t>
-  </si>
-  <si>
-    <t>Diff pairs width</t>
-  </si>
-  <si>
     <t>Top Solder</t>
   </si>
   <si>
@@ -513,12 +478,6 @@
   </si>
   <si>
     <t>Bottom Solder</t>
-  </si>
-  <si>
-    <t>Layer type</t>
-  </si>
-  <si>
-    <t>Layer name</t>
   </si>
   <si>
     <t>Solder mask</t>
@@ -535,11 +494,74 @@
   <si>
     <t>U2 - SWR - PTH08T241</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Dk</t>
+  </si>
+  <si>
+    <t>Total thickness</t>
+  </si>
+  <si>
+    <t>Total thickness (without solder mask)</t>
+  </si>
+  <si>
+    <t>width (mil)</t>
+  </si>
+  <si>
+    <t>spacing (mil)</t>
+  </si>
+  <si>
+    <t>impedance (ohm)</t>
+  </si>
+  <si>
+    <t>deviation (%)</t>
+  </si>
+  <si>
+    <t>50-ohm single ended</t>
+  </si>
+  <si>
+    <t>40-ohm single ended</t>
+  </si>
+  <si>
+    <t>top / bot layer</t>
+  </si>
+  <si>
+    <t>inner layer</t>
+  </si>
+  <si>
+    <t>100-ohm diff pair</t>
+  </si>
+  <si>
+    <t>80-ohm diff pair</t>
+  </si>
+  <si>
+    <t>Matérial</t>
+  </si>
+  <si>
+    <t>SM-001</t>
+  </si>
+  <si>
+    <t>CF-004</t>
+  </si>
+  <si>
+    <t>S1170G</t>
+  </si>
+  <si>
+    <t>S1141</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,7 +598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,8 +647,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -722,11 +774,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -784,11 +854,148 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6151,790 +6358,1027 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDD99-5DF5-42E2-9FB8-4E21BAF0F6C9}">
-  <dimension ref="A1:H38"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="18.7109375" style="34" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="6" width="16.7109375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="46" customWidth="1"/>
+    <col min="8" max="11" width="18.7109375" style="34" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="34" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="34" t="s">
+      <c r="D1" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="75"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="43">
         <v>2</v>
       </c>
-      <c r="D3" s="35">
-        <f>C3*0.0254</f>
+      <c r="E3" s="43">
+        <f>D3*0.0254</f>
         <v>5.0799999999999998E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="F3" s="44">
+        <v>4</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="35">
+      <c r="D4" s="43">
         <v>1.3779999999999999</v>
       </c>
-      <c r="D4" s="35">
-        <f>C4*0.0254</f>
+      <c r="E4" s="43">
+        <f>D4*0.0254</f>
         <v>3.5001199999999996E-2</v>
       </c>
-      <c r="E4" s="35">
-        <v>5</v>
-      </c>
-      <c r="F4" s="35">
-        <v>7</v>
-      </c>
-      <c r="G4" s="35">
-        <v>4</v>
-      </c>
-      <c r="H4" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="35">
-        <v>3.8</v>
-      </c>
-      <c r="D5" s="35">
-        <f t="shared" ref="D5:D31" si="0">C5*0.0254</f>
-        <v>9.6519999999999995E-2</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="D5" s="43">
+        <v>3.15</v>
+      </c>
+      <c r="E5" s="43">
+        <f t="shared" ref="E5:E27" si="0">D5*0.0254</f>
+        <v>8.0009999999999998E-2</v>
+      </c>
+      <c r="F5" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="35">
+      <c r="D6" s="43">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D6" s="35">
+      <c r="E6" s="43">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="35">
-        <v>4.2</v>
-      </c>
-      <c r="D7" s="35">
+      <c r="D7" s="43">
+        <v>7.87</v>
+      </c>
+      <c r="E7" s="43">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="34" t="s">
+        <v>0.19989799999999999</v>
+      </c>
+      <c r="F7" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="35">
+      <c r="D8" s="43">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D8" s="35">
+      <c r="E8" s="43">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E8" s="35">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35">
-        <v>5</v>
-      </c>
-      <c r="G8" s="35">
-        <v>3</v>
-      </c>
-      <c r="H8" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="43">
+        <v>3.15</v>
+      </c>
+      <c r="E9" s="43">
+        <f t="shared" si="0"/>
+        <v>8.0009999999999998E-2</v>
+      </c>
+      <c r="F9" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="35">
-        <v>3.8</v>
-      </c>
-      <c r="D9" s="35">
-        <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="35">
+      <c r="D10" s="43">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D10" s="35">
+      <c r="E10" s="43">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="F10" s="44"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="35">
-        <v>4.2</v>
-      </c>
-      <c r="D11" s="35">
+      <c r="D11" s="43">
+        <v>7.87</v>
+      </c>
+      <c r="E11" s="43">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="34" t="s">
+        <v>0.19989799999999999</v>
+      </c>
+      <c r="F11" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="35">
+      <c r="D12" s="43">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D12" s="35">
+      <c r="E12" s="43">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E12" s="35">
-        <v>3</v>
-      </c>
-      <c r="F12" s="35">
-        <v>5</v>
-      </c>
-      <c r="G12" s="35">
-        <v>3</v>
-      </c>
-      <c r="H12" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="34" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="35">
-        <v>3.8</v>
-      </c>
-      <c r="D13" s="35">
+      <c r="D13" s="43">
+        <v>3.15</v>
+      </c>
+      <c r="E13" s="43">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="34" t="s">
+        <v>8.0009999999999998E-2</v>
+      </c>
+      <c r="F13" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="35">
+      <c r="D14" s="43">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D14" s="35">
+      <c r="E14" s="43">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="35">
-        <v>4.2</v>
-      </c>
-      <c r="D15" s="35">
+      <c r="D15" s="43">
+        <v>7.87</v>
+      </c>
+      <c r="E15" s="43">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="34" t="s">
+        <v>0.19989799999999999</v>
+      </c>
+      <c r="F15" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="35">
+      <c r="D16" s="43">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D16" s="35">
+      <c r="E16" s="43">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="34" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="35">
-        <v>3.8</v>
-      </c>
-      <c r="D17" s="35">
+      <c r="D17" s="43">
+        <v>3.15</v>
+      </c>
+      <c r="E17" s="43">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="34" t="s">
+        <v>8.0009999999999998E-2</v>
+      </c>
+      <c r="F17" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="35">
+      <c r="D18" s="43">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D18" s="35">
+      <c r="E18" s="43">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="34" t="s">
+      <c r="F18" s="44"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="35">
-        <v>4.2</v>
-      </c>
-      <c r="D19" s="35">
+      <c r="D19" s="43">
+        <v>7.87</v>
+      </c>
+      <c r="E19" s="43">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="34" t="s">
+        <v>0.19989799999999999</v>
+      </c>
+      <c r="F19" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="35">
+      <c r="D20" s="43">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D20" s="35">
+      <c r="E20" s="43">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="34" t="s">
+      <c r="F20" s="44"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="35">
-        <v>3.8</v>
-      </c>
-      <c r="D21" s="35">
+      <c r="D21" s="43">
+        <v>3.15</v>
+      </c>
+      <c r="E21" s="43">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="34" t="s">
+        <v>8.0009999999999998E-2</v>
+      </c>
+      <c r="F21" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="35">
+      <c r="D22" s="43">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D22" s="35">
+      <c r="E22" s="43">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="34" t="s">
+      <c r="F22" s="44"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="35">
-        <v>4.2</v>
-      </c>
-      <c r="D23" s="35">
+      <c r="D23" s="43">
+        <v>7.87</v>
+      </c>
+      <c r="E23" s="43">
         <f t="shared" si="0"/>
-        <v>0.10668</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="34" t="s">
+        <v>0.19989799999999999</v>
+      </c>
+      <c r="F23" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="35">
+      <c r="D24" s="43">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D24" s="35">
+      <c r="E24" s="43">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="34" t="s">
+      <c r="F24" s="44"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="35">
-        <v>3.8</v>
-      </c>
-      <c r="D25" s="35">
+      <c r="D25" s="43">
+        <v>3.15</v>
+      </c>
+      <c r="E25" s="43">
         <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="34" t="s">
+        <v>8.0009999999999998E-2</v>
+      </c>
+      <c r="F25" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="35">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="D26" s="35">
-        <f t="shared" si="0"/>
-        <v>1.7500599999999998E-2</v>
-      </c>
-      <c r="E26" s="35">
-        <v>3</v>
-      </c>
-      <c r="F26" s="35">
-        <v>5</v>
-      </c>
-      <c r="G26" s="35">
-        <v>3</v>
-      </c>
-      <c r="H26" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="35">
-        <v>4.2</v>
-      </c>
-      <c r="D27" s="35">
-        <f t="shared" si="0"/>
-        <v>0.10668</v>
-      </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="35">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="D28" s="35">
-        <f t="shared" si="0"/>
-        <v>1.7500599999999998E-2</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="35">
-        <v>3.8</v>
-      </c>
-      <c r="D29" s="35">
-        <f t="shared" si="0"/>
-        <v>9.6519999999999995E-2</v>
-      </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="35">
+      <c r="D26" s="43">
         <v>1.3779999999999999</v>
       </c>
-      <c r="D30" s="35">
+      <c r="E26" s="43">
         <f t="shared" si="0"/>
         <v>3.5001199999999996E-2</v>
       </c>
-      <c r="E30" s="35">
-        <v>5</v>
-      </c>
-      <c r="F30" s="35">
-        <v>7</v>
-      </c>
-      <c r="G30" s="35">
-        <v>4</v>
-      </c>
-      <c r="H30" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="35">
+      <c r="F26" s="44"/>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="43">
         <v>2</v>
       </c>
-      <c r="D31" s="35">
+      <c r="E27" s="43">
         <f t="shared" si="0"/>
         <v>5.0799999999999998E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="35">
-        <f>SUM(C3:C31)</f>
-        <v>66.823999999999998</v>
-      </c>
-      <c r="D32" s="35">
-        <f t="shared" ref="D32" si="1">C32*0.0254</f>
-        <v>1.6973295999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="34">
-        <f>COUNTIF(B3:B31, "Signal (GND)")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="34">
-        <f>COUNTIF(B3:B31, "Signal (PWR)")</f>
-        <v>0</v>
+      <c r="F27" s="44">
+        <v>4</v>
+      </c>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="76">
+        <f>SUM(D3:D27)</f>
+        <v>71.895999999999987</v>
+      </c>
+      <c r="E28" s="76">
+        <f t="shared" ref="E28:E29" si="1">D28*0.0254</f>
+        <v>1.8261583999999995</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78">
+        <f>SUM(D4:D26)</f>
+        <v>67.895999999999987</v>
+      </c>
+      <c r="E29" s="77">
+        <f t="shared" si="1"/>
+        <v>1.7245583999999996</v>
+      </c>
+      <c r="F29" s="79"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="34">
-        <f>COUNTIF(B3:B31, "Top")+COUNTIF(B3:B31, "Bot")+COUNTIF(B3:B31, "Signal")</f>
-        <v>14</v>
-      </c>
-      <c r="F35" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="34">
+        <v>2.4</v>
+      </c>
+      <c r="F35" s="34">
+        <f>E35*39.37</f>
+        <v>94.487999999999985</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G35" s="34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="34">
-        <v>1</v>
-      </c>
-      <c r="G36" s="34">
-        <f>F36*39.37</f>
-        <v>39.369999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="34">
-        <v>1</v>
-      </c>
-      <c r="G38" s="34">
-        <f>F38*0.0254</f>
-        <v>2.5399999999999999E-2</v>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="34">
+        <v>7.87</v>
+      </c>
+      <c r="F37" s="34">
+        <f>E37*0.0254</f>
+        <v>0.19989799999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A3:H31">
-    <cfRule type="expression" dxfId="17" priority="253">
-      <formula>$B3="Solder Mask"</formula>
+  <conditionalFormatting sqref="A3:F27">
+    <cfRule type="expression" dxfId="21" priority="253">
+      <formula>$C3="Solder Mask"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="255">
-      <formula>$B3="Signal"</formula>
+    <cfRule type="expression" dxfId="20" priority="255">
+      <formula>$C3="Signal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="258">
-      <formula>$B3="Prepreg"</formula>
+    <cfRule type="expression" dxfId="19" priority="258">
+      <formula>$C3="Prepreg"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:H32">
-    <cfRule type="expression" dxfId="14" priority="245">
-      <formula>$B3="Core"</formula>
+  <conditionalFormatting sqref="A3:F28">
+    <cfRule type="expression" dxfId="18" priority="245">
+      <formula>$C3="Core"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="13" priority="36">
-      <formula>$B32="Bot"</formula>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="expression" dxfId="17" priority="36">
+      <formula>$C28="Bot"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="37">
-      <formula>$B32="Signal"</formula>
+    <cfRule type="expression" dxfId="16" priority="37">
+      <formula>$C28="Signal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="38">
-      <formula>$B32="Signal (PWR)"</formula>
+    <cfRule type="expression" dxfId="15" priority="38">
+      <formula>$C28="Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="39">
-      <formula>$B32="Core"</formula>
+    <cfRule type="expression" dxfId="14" priority="39">
+      <formula>$C28="Core"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="40">
-      <formula>$B32="Signal (GND)"</formula>
+    <cfRule type="expression" dxfId="13" priority="40">
+      <formula>$C28="Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="41">
-      <formula>$B32="Prepreg"</formula>
+    <cfRule type="expression" dxfId="12" priority="41">
+      <formula>$C28="Prepreg"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="42">
-      <formula>$B32="Top"</formula>
+    <cfRule type="expression" dxfId="11" priority="42">
+      <formula>$C28="Top"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:G34">
-    <cfRule type="cellIs" dxfId="6" priority="225" operator="equal">
+  <conditionalFormatting sqref="E33:F33">
+    <cfRule type="cellIs" dxfId="10" priority="225" operator="equal">
       <formula>"Signal (PWR)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="226" operator="equal">
       <formula>"Signal (GND)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="227" operator="equal">
       <formula>"Core"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="228" operator="equal">
       <formula>"Prepreg"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="229" operator="equal">
       <formula>"Signal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="230" operator="equal">
       <formula>"Bot"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="231" operator="equal">
       <formula>"Top"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20767CD0-8653-43DA-874A-5FC68A534B68}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G26:G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="49">
+        <v>4</v>
+      </c>
+      <c r="C3" s="49">
+        <v>7</v>
+      </c>
+      <c r="D3" s="49">
+        <v>3</v>
+      </c>
+      <c r="E3" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="52">
+        <v>12</v>
+      </c>
+      <c r="C4" s="52">
+        <v>21</v>
+      </c>
+      <c r="D4" s="52">
+        <v>7</v>
+      </c>
+      <c r="E4" s="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="62">
+        <v>50.5</v>
+      </c>
+      <c r="C5" s="62">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="D5" s="62">
+        <v>99.27</v>
+      </c>
+      <c r="E5" s="63">
+        <v>79.819999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="65">
+        <v>1</v>
+      </c>
+      <c r="C6" s="65">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D6" s="65">
+        <v>0.73</v>
+      </c>
+      <c r="E6" s="66">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="49">
+        <v>3</v>
+      </c>
+      <c r="C8" s="49">
+        <v>5</v>
+      </c>
+      <c r="D8" s="49">
+        <v>3</v>
+      </c>
+      <c r="E8" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="52">
+        <v>9</v>
+      </c>
+      <c r="C9" s="52">
+        <v>15</v>
+      </c>
+      <c r="D9" s="52">
+        <v>8</v>
+      </c>
+      <c r="E9" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="62">
+        <v>51.18</v>
+      </c>
+      <c r="C10" s="62">
+        <v>40.51</v>
+      </c>
+      <c r="D10" s="62">
+        <v>97.88</v>
+      </c>
+      <c r="E10" s="63">
+        <v>78.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="68">
+        <v>2.36</v>
+      </c>
+      <c r="C11" s="68">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D11" s="68">
+        <v>2.12</v>
+      </c>
+      <c r="E11" s="69">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:E27">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$C3="Solder Mask"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C3="Signal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$C3="Prepreg"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E27">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C3="Core"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13094,51 +13538,51 @@
       </c>
       <c r="C1" s="40"/>
       <c r="E1" s="39" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F1" s="40"/>
       <c r="H1" s="39" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I1" s="40"/>
       <c r="K1" s="39" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L1" s="40"/>
       <c r="N1" s="39" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O1" s="40"/>
       <c r="Q1" s="39" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="R1" s="40"/>
       <c r="T1" s="39" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="U1" s="40"/>
       <c r="W1" s="39" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="X1" s="40"/>
       <c r="Z1" s="39" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AA1" s="40"/>
       <c r="AC1" s="39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AD1" s="40"/>
       <c r="AF1" s="39" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AG1" s="40"/>
       <c r="AI1" s="39" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AJ1" s="40"/>
       <c r="AL1" s="39" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AM1" s="40"/>
     </row>
@@ -13501,7 +13945,7 @@
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C6" s="18">
         <v>261.18</v>
@@ -14509,7 +14953,7 @@
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C31" s="31">
         <f>C8/1000</f>
@@ -14519,7 +14963,7 @@
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C32" s="31">
         <f>C31*C26</f>
@@ -14528,7 +14972,7 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C33" s="27">
         <f>1-C29/C32</f>
@@ -14637,47 +15081,47 @@
       </c>
       <c r="C1" s="40"/>
       <c r="E1" s="39" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F1" s="40"/>
       <c r="H1" s="39" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I1" s="40"/>
       <c r="K1" s="39" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L1" s="40"/>
       <c r="N1" s="39" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O1" s="40"/>
       <c r="Q1" s="39" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="R1" s="40"/>
       <c r="T1" s="39" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="U1" s="40"/>
       <c r="W1" s="39" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="X1" s="40"/>
       <c r="Z1" s="39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AA1" s="40"/>
       <c r="AC1" s="39" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AD1" s="40"/>
       <c r="AF1" s="39" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AG1" s="40"/>
       <c r="AI1" s="39" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AJ1" s="40"/>
     </row>
@@ -15013,7 +15457,7 @@
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C6" s="18">
         <v>261.18</v>
@@ -16039,7 +16483,7 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C34" s="31">
         <f>C8/1000</f>
@@ -16048,7 +16492,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C35" s="31">
         <f>C34*C29</f>
@@ -16057,7 +16501,7 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C36" s="27">
         <f>1-C32/C35</f>
@@ -16122,8 +16566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE97D9D4-3157-4D7D-817C-63B2B3707009}">
   <dimension ref="B1:AG48"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16159,43 +16603,43 @@
       </c>
       <c r="C1" s="40"/>
       <c r="E1" s="39" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F1" s="40"/>
       <c r="H1" s="39" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I1" s="40"/>
       <c r="K1" s="39" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L1" s="40"/>
       <c r="N1" s="39" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O1" s="40"/>
       <c r="Q1" s="39" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="R1" s="40"/>
       <c r="T1" s="39" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="U1" s="40"/>
       <c r="W1" s="39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="X1" s="40"/>
       <c r="Z1" s="39" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AA1" s="40"/>
       <c r="AC1" s="39" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AD1" s="40"/>
       <c r="AF1" s="39" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AG1" s="40"/>
     </row>
@@ -16504,7 +16948,7 @@
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C6" s="18">
         <v>261.18</v>
@@ -17488,7 +17932,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C35" s="31">
         <f>C8/1000</f>
@@ -17497,7 +17941,7 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="30" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C36" s="31">
         <f>C35*C30</f>
@@ -17506,7 +17950,7 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C37" s="27">
         <f>1-C33/C36</f>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30314661-4403-4ADC-9F5B-45888EC462A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7F5325-4EA2-43D1-86F0-E502B9A8DE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5058,13 +5058,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5122,13 +5122,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5186,13 +5186,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5250,13 +5250,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5314,13 +5314,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5378,13 +5378,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5442,13 +5442,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1679</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5506,13 +5506,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>204106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>2366</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5570,13 +5570,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7086,7 +7086,7 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G26:G27"/>
     </sheetView>
   </sheetViews>
@@ -15042,8 +15042,8 @@
   </sheetPr>
   <dimension ref="B1:AJ47"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16564,10 +16564,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE97D9D4-3157-4D7D-817C-63B2B3707009}">
-  <dimension ref="B1:AG48"/>
+  <dimension ref="B2:AG49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16597,576 +16597,539 @@
     <col min="35" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C2" s="40"/>
+      <c r="E2" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F2" s="40"/>
+      <c r="H2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I2" s="40"/>
+      <c r="K2" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L2" s="40"/>
+      <c r="N2" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O2" s="40"/>
+      <c r="Q2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R2" s="40"/>
+      <c r="T2" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U2" s="40"/>
+      <c r="W2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X2" s="40"/>
+      <c r="Z2" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA2" s="40"/>
+      <c r="AC2" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD2" s="40"/>
+      <c r="AF2" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" s="40"/>
-    </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="AG2" s="40"/>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="L3" s="38"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="O3" s="38"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="R3" s="38"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="U3" s="38"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="X3" s="38"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="38"/>
-    </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="12">
-        <v>24</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="12">
-        <f>C4</f>
-        <v>24</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="12">
-        <f>F4</f>
-        <v>6</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="12">
-        <f>F4</f>
-        <v>6</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="12">
-        <f>I4</f>
-        <v>6</v>
-      </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="12">
-        <f>L4</f>
-        <v>5</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="12">
-        <f>F4</f>
-        <v>6</v>
-      </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="12">
-        <f>U4</f>
-        <v>3.3</v>
-      </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="12">
-        <f>X4</f>
-        <v>1.8</v>
-      </c>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3" s="12">
-        <f>U4</f>
-        <v>3.3</v>
-      </c>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="12">
-        <f>AA4</f>
-        <v>1.5</v>
-      </c>
+      <c r="AG3" s="38"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="12">
         <v>24</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="12">
+        <f>C5</f>
+        <v>24</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="12">
+        <f>F5</f>
+        <v>6</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="12">
+        <f>F5</f>
+        <v>6</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="12">
+        <f>I5</f>
+        <v>6</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="12">
+        <f>L5</f>
+        <v>5</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="12">
+        <f>F5</f>
+        <v>6</v>
+      </c>
+      <c r="V4" s="13"/>
+      <c r="W4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="12">
+        <f>U5</f>
+        <v>3.3</v>
+      </c>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="12">
+        <f>X5</f>
+        <v>1.8</v>
+      </c>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" s="12">
+        <f>U5</f>
+        <v>3.3</v>
+      </c>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG4" s="12">
+        <f>AA5</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="12">
+      <c r="C5" s="12">
+        <v>24</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="12">
         <v>6</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="11" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I5" s="12">
         <v>6</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="11" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L5" s="12">
         <v>5</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="11" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O5" s="12">
         <v>5</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="11" t="s">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R5" s="12">
         <v>3.3</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="11" t="s">
+      <c r="S5" s="16"/>
+      <c r="T5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U5" s="12">
         <v>3.3</v>
       </c>
-      <c r="V4" s="16"/>
-      <c r="W4" s="11" t="s">
+      <c r="V5" s="16"/>
+      <c r="W5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X5" s="12">
         <v>1.8</v>
       </c>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="11" t="s">
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA5" s="12">
         <v>1.5</v>
       </c>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="11" t="s">
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AD5" s="12">
         <v>1.2</v>
       </c>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="11" t="s">
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AG4" s="12">
+      <c r="AG5" s="12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="18">
-        <f>SUM(C6:C23)</f>
+      <c r="C6" s="18">
+        <f>SUM(C7:C24)</f>
         <v>2970.7940934743488</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="18">
-        <f>SUM(F7:F23)</f>
+      <c r="F6" s="18">
+        <f>SUM(F8:F24)</f>
         <v>2189.9524815517607</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="18">
-        <f>SUM(I6:I23)</f>
+      <c r="I6" s="18">
+        <f>SUM(I7:I24)</f>
         <v>34.900000000000006</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="18">
-        <f>SUM(L6:L23)</f>
+      <c r="L6" s="18">
+        <f>SUM(L7:L24)</f>
         <v>541.69000000000005</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="18">
-        <f>SUM(O6:O23)</f>
+      <c r="O6" s="18">
+        <f>SUM(O7:O24)</f>
         <v>34.900000000000006</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="18">
-        <f>SUM(R6:R23)</f>
+      <c r="R6" s="18">
+        <f>SUM(R7:R24)</f>
         <v>506.79</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="T6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="U5" s="18">
-        <f>SUM(U6:U23)</f>
+      <c r="U6" s="18">
+        <f>SUM(U7:U24)</f>
         <v>2787.0620142602497</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="X5" s="18">
-        <f>SUM(X6:X23)</f>
+      <c r="X6" s="18">
+        <f>SUM(X7:X24)</f>
         <v>981.05</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AA5" s="18">
-        <f>SUM(AA6:AA23)</f>
+      <c r="AA6" s="18">
+        <f>SUM(AA7:AA24)</f>
         <v>580.04999999999995</v>
       </c>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="17" t="s">
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AD5" s="18">
-        <f>SUM(AD6:AD23)</f>
+      <c r="AD6" s="18">
+        <f>SUM(AD7:AD24)</f>
         <v>3000</v>
       </c>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="17" t="s">
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AG5" s="18">
-        <f>SUM(AG6:AG23)</f>
-        <v>98.47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="18">
-        <v>261.18</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="18">
-        <f>I27/I3</f>
-        <v>41.058823529411775</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="18">
-        <f>O27/O3</f>
-        <v>34.900000000000006</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="18">
-        <v>21.6</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="18">
-        <v>21.6</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="18">
-        <v>75.760000000000005</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="18">
-        <v>13</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="X6" s="18">
-        <v>58</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA6" s="18">
-        <v>300</v>
-      </c>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD6" s="18">
-        <v>3000</v>
-      </c>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="AG6" s="18">
+        <f>SUM(AG7:AG24)</f>
         <v>98.47</v>
       </c>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C7" s="18">
-        <v>2073</v>
+        <v>261.18</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F7" s="18">
-        <f>L27/L3</f>
-        <v>541.69000000000005</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
+        <f>I28/I4</f>
+        <v>41.058823529411775</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="18">
+        <f>O28/O4</f>
+        <v>34.900000000000006</v>
+      </c>
       <c r="K7" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="18">
-        <v>13.3</v>
+        <v>21.6</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O7" s="18">
-        <v>13.3</v>
+        <v>21.6</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R7" s="18">
-        <v>23.03</v>
+        <v>75.760000000000005</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U7" s="18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W7" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X7" s="18">
-        <v>343</v>
+        <v>58</v>
       </c>
       <c r="Z7" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA7" s="18">
-        <v>181.53</v>
-      </c>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="18"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="18"/>
+        <v>300</v>
+      </c>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>3000</v>
+      </c>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG7" s="18">
+        <v>98.47</v>
+      </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C8" s="18">
-        <f>F27/F3</f>
-        <v>636.61409347434903</v>
+        <v>2073</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F8" s="18">
-        <f>U27/U3</f>
-        <v>1648.2624815517604</v>
+        <f>L28/L4</f>
+        <v>541.69000000000005</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="18"/>
       <c r="K8" s="19" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="L8" s="18">
-        <f>R27/R3</f>
-        <v>506.79000000000008</v>
-      </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="18"/>
+        <v>13.3</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="18">
+        <v>13.3</v>
+      </c>
       <c r="Q8" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R8" s="18">
-        <v>56</v>
+        <v>23.03</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U8" s="18">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="W8" s="19" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="X8" s="18">
-        <f>AA27/AA3</f>
-        <v>580.04999999999995</v>
+        <v>343</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="AA8" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AB8" s="13"/>
+        <v>181.53</v>
+      </c>
       <c r="AC8" s="19"/>
       <c r="AD8" s="18"/>
-      <c r="AE8" s="13"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="18"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="18">
+        <f>F28/F4</f>
+        <v>636.61409347434903</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="18">
+        <f>U28/U4</f>
+        <v>1648.2624815517604</v>
+      </c>
       <c r="H9" s="19"/>
       <c r="I9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="18"/>
+      <c r="K9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="18">
+        <f>R28/R4</f>
+        <v>506.79000000000008</v>
+      </c>
       <c r="N9" s="19"/>
       <c r="O9" s="18"/>
       <c r="Q9" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R9" s="18">
-        <v>318</v>
+        <v>56</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="U9" s="18">
-        <v>35</v>
-      </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="18"/>
+        <v>6.6</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" s="18">
+        <f>AA28/AA4</f>
+        <v>580.04999999999995</v>
+      </c>
       <c r="Z9" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA9" s="18">
-        <f>AG27/AG3</f>
-        <v>98.469999999999985</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="AB9" s="13"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="18"/>
+      <c r="AE9" s="13"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="18"/>
     </row>
@@ -17182,21 +17145,26 @@
       <c r="N10" s="19"/>
       <c r="O10" s="18"/>
       <c r="Q10" s="19" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R10" s="18">
-        <v>34</v>
+        <v>318</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U10" s="18">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="W10" s="19"/>
       <c r="X10" s="18"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="18"/>
+      <c r="Z10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="18">
+        <f>AG28/AG4</f>
+        <v>98.469999999999985</v>
+      </c>
       <c r="AC10" s="19"/>
       <c r="AD10" s="18"/>
       <c r="AF10" s="19"/>
@@ -17210,16 +17178,20 @@
       <c r="H11" s="19"/>
       <c r="I11" s="18"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
+      <c r="L11" s="18"/>
       <c r="N11" s="19"/>
       <c r="O11" s="18"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="18"/>
+      <c r="Q11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="18">
+        <v>34</v>
+      </c>
       <c r="T11" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U11" s="18">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="W11" s="19"/>
       <c r="X11" s="18"/>
@@ -17238,16 +17210,16 @@
       <c r="H12" s="19"/>
       <c r="I12" s="18"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="18"/>
+      <c r="L12" s="20"/>
       <c r="N12" s="19"/>
       <c r="O12" s="18"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="18"/>
       <c r="T12" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U12" s="18">
-        <v>25.76</v>
+        <v>8</v>
       </c>
       <c r="W12" s="19"/>
       <c r="X12" s="18"/>
@@ -17272,10 +17244,10 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="18"/>
       <c r="T13" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U13" s="18">
-        <v>4</v>
+        <v>25.76</v>
       </c>
       <c r="W13" s="19"/>
       <c r="X13" s="18"/>
@@ -17300,10 +17272,10 @@
       <c r="Q14" s="19"/>
       <c r="R14" s="18"/>
       <c r="T14" s="19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="U14" s="18">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="W14" s="19"/>
       <c r="X14" s="18"/>
@@ -17328,10 +17300,10 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="18"/>
       <c r="T15" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U15" s="18">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="W15" s="19"/>
       <c r="X15" s="18"/>
@@ -17356,11 +17328,10 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="18"/>
       <c r="T16" s="19" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="U16" s="18">
-        <f>X27/X3</f>
-        <v>629.5508021390375</v>
+        <v>0.66</v>
       </c>
       <c r="W16" s="19"/>
       <c r="X16" s="18"/>
@@ -17375,7 +17346,7 @@
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="18"/>
       <c r="H17" s="19"/>
       <c r="I17" s="18"/>
       <c r="K17" s="19"/>
@@ -17385,10 +17356,11 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="18"/>
       <c r="T17" s="19" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="U17" s="18">
-        <v>163.63999999999999</v>
+        <f>X28/X4</f>
+        <v>629.5508021390375</v>
       </c>
       <c r="W17" s="19"/>
       <c r="X17" s="18"/>
@@ -17403,7 +17375,7 @@
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="20"/>
       <c r="H18" s="19"/>
       <c r="I18" s="18"/>
       <c r="K18" s="19"/>
@@ -17413,10 +17385,10 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="18"/>
       <c r="T18" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U18" s="18">
-        <v>23.03</v>
+        <v>163.63999999999999</v>
       </c>
       <c r="W18" s="19"/>
       <c r="X18" s="18"/>
@@ -17441,10 +17413,10 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="18"/>
       <c r="T19" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U19" s="18">
-        <v>100</v>
+        <v>23.03</v>
       </c>
       <c r="W19" s="19"/>
       <c r="X19" s="18"/>
@@ -17469,11 +17441,10 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="18"/>
       <c r="T20" s="19" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="U20" s="18">
-        <f>AD27/AD3</f>
-        <v>1212.1212121212122</v>
+        <v>100</v>
       </c>
       <c r="W20" s="19"/>
       <c r="X20" s="18"/>
@@ -17498,10 +17469,11 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="18"/>
       <c r="T21" s="19" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="U21" s="18">
-        <v>100</v>
+        <f>AD28/AD4</f>
+        <v>1212.1212121212122</v>
       </c>
       <c r="W21" s="19"/>
       <c r="X21" s="18"/>
@@ -17526,7 +17498,7 @@
       <c r="Q22" s="19"/>
       <c r="R22" s="18"/>
       <c r="T22" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U22" s="18">
         <v>100</v>
@@ -17554,10 +17526,10 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="18"/>
       <c r="T23" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="U23" s="20">
-        <v>250</v>
+        <v>55</v>
+      </c>
+      <c r="U23" s="18">
+        <v>100</v>
       </c>
       <c r="W23" s="19"/>
       <c r="X23" s="18"/>
@@ -17568,440 +17540,468 @@
       <c r="AF23" s="19"/>
       <c r="AG23" s="18"/>
     </row>
-    <row r="24" spans="2:33" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="18"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="18"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="18"/>
+      <c r="T24" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="U24" s="20">
+        <v>250</v>
+      </c>
+      <c r="W24" s="19"/>
+      <c r="X24" s="18"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="18"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="18"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="18"/>
+    </row>
+    <row r="25" spans="2:33" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="22">
-        <f>C5*C4</f>
+      <c r="C25" s="22">
+        <f>C6*C5</f>
         <v>71299.058243384367</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="22">
-        <f>F5*F4</f>
+      <c r="F25" s="22">
+        <f>F6*F5</f>
         <v>13139.714889310564</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="22">
-        <f>I5*I4</f>
+      <c r="I25" s="22">
+        <f>I6*I5</f>
         <v>209.40000000000003</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="22">
-        <f>L5*L4</f>
+      <c r="L25" s="22">
+        <f>L6*L5</f>
         <v>2708.4500000000003</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="O24" s="22">
-        <f>O5*O4</f>
+      <c r="O25" s="22">
+        <f>O6*O5</f>
         <v>174.50000000000003</v>
       </c>
-      <c r="Q24" s="21" t="s">
+      <c r="Q25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="R24" s="22">
-        <f>R5*R4</f>
+      <c r="R25" s="22">
+        <f>R6*R5</f>
         <v>1672.4069999999999</v>
       </c>
-      <c r="T24" s="21" t="s">
+      <c r="T25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="U24" s="22">
-        <f>U5*U4</f>
+      <c r="U25" s="22">
+        <f>U6*U5</f>
         <v>9197.3046470588233</v>
       </c>
-      <c r="V24" s="9"/>
-      <c r="W24" s="21" t="s">
+      <c r="V25" s="9"/>
+      <c r="W25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="X24" s="22">
-        <f>X5*X4</f>
+      <c r="X25" s="22">
+        <f>X6*X5</f>
         <v>1765.8899999999999</v>
       </c>
-      <c r="Z24" s="21" t="s">
+      <c r="Z25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA24" s="22">
-        <f>AA5*AA4</f>
+      <c r="AA25" s="22">
+        <f>AA6*AA5</f>
         <v>870.07499999999993</v>
       </c>
-      <c r="AC24" s="21" t="s">
+      <c r="AC25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AD24" s="22">
-        <f>AD5*AD4</f>
+      <c r="AD25" s="22">
+        <f>AD6*AD5</f>
         <v>3600</v>
       </c>
-      <c r="AF24" s="21" t="s">
+      <c r="AF25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AG24" s="22">
-        <f>AG5*AG4</f>
+      <c r="AG25" s="22">
+        <f>AG6*AG5</f>
         <v>73.852499999999992</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="22">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="22">
-        <v>0.86</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="22">
-        <v>0.85</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="22">
-        <f>L4/L3</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O25" s="22">
-        <f>O4/O3</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Q25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R25" s="22">
-        <f>R4/R3</f>
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="T25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="U25" s="22">
-        <v>0.93</v>
-      </c>
-      <c r="V25" s="13"/>
-      <c r="W25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="X25" s="22">
-        <v>0.85</v>
-      </c>
-      <c r="Z25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA25" s="22">
-        <f>AA4/AA3</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="AC25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD25" s="22">
-        <v>0.9</v>
-      </c>
-      <c r="AF25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG25" s="22">
-        <f>AG4/AG3</f>
-        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="22">
+        <v>1</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="22">
+        <f>L5/L4</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="22">
+        <f>O5/O4</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" s="22">
+        <f>R5/R4</f>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="T26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U26" s="22">
+        <v>0.93</v>
+      </c>
+      <c r="V26" s="13"/>
+      <c r="W26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X26" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="Z26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA26" s="22">
+        <f>AA5/AA4</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="AC26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD26" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="AF26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG26" s="22">
+        <f>AG5/AG4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="22">
-        <f>C24/C25-C24</f>
+      <c r="C27" s="22">
+        <f>C25/C26-C25</f>
         <v>0</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="22">
-        <f>F24/F25-F24</f>
+      <c r="F27" s="22">
+        <f>F25/F26-F25</f>
         <v>2139.0233540738136</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="22">
-        <f>I24/I25-I24</f>
+      <c r="I27" s="22">
+        <f>I25/I26-I25</f>
         <v>36.952941176470603</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="22">
-        <f>L24/L25-L24</f>
+      <c r="L27" s="22">
+        <f>L25/L26-L25</f>
         <v>541.69000000000005</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O26" s="22">
-        <f>O24/O25-O24</f>
+      <c r="O27" s="22">
+        <f>O25/O26-O25</f>
         <v>34.900000000000006</v>
       </c>
-      <c r="Q26" s="23" t="s">
+      <c r="Q27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="R26" s="22">
-        <f>R24/R25-R24</f>
+      <c r="R27" s="22">
+        <f>R25/R26-R25</f>
         <v>861.54300000000035</v>
       </c>
-      <c r="T26" s="23" t="s">
+      <c r="T27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="U26" s="22">
-        <f>U24/U25-U24</f>
+      <c r="U27" s="22">
+        <f>U25/U26-U25</f>
         <v>692.27024225173955</v>
       </c>
-      <c r="W26" s="23" t="s">
+      <c r="W27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="X26" s="22">
-        <f>X24/X25-X24</f>
+      <c r="X27" s="22">
+        <f>X25/X26-X25</f>
         <v>311.62764705882364</v>
       </c>
-      <c r="Z26" s="23" t="s">
+      <c r="Z27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA26" s="22">
-        <f>AA24/AA25-AA24</f>
+      <c r="AA27" s="22">
+        <f>AA25/AA26-AA25</f>
         <v>174.01499999999999</v>
       </c>
-      <c r="AC26" s="23" t="s">
+      <c r="AC27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AD26" s="22">
-        <f>AD24/AD25-AD24</f>
+      <c r="AD27" s="22">
+        <f>AD25/AD26-AD25</f>
         <v>400</v>
       </c>
-      <c r="AF26" s="23" t="s">
+      <c r="AF27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AG26" s="22">
-        <f>AG24/AG25-AG24</f>
+      <c r="AG27" s="22">
+        <f>AG25/AG26-AG25</f>
         <v>73.852499999999992</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="25">
-        <f>C26+C24</f>
+      <c r="C28" s="25">
+        <f>C27+C25</f>
         <v>71299.058243384367</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="25">
-        <f>F26+F24</f>
+      <c r="F28" s="25">
+        <f>F27+F25</f>
         <v>15278.738243384378</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="25">
-        <f>I26+I24</f>
+      <c r="I28" s="25">
+        <f>I27+I25</f>
         <v>246.35294117647064</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="25">
-        <f>L26+L24</f>
+      <c r="L28" s="25">
+        <f>L27+L25</f>
         <v>3250.1400000000003</v>
       </c>
-      <c r="N27" s="24" t="s">
+      <c r="N28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O27" s="25">
-        <f>O26+O24</f>
+      <c r="O28" s="25">
+        <f>O27+O25</f>
         <v>209.40000000000003</v>
       </c>
-      <c r="Q27" s="24" t="s">
+      <c r="Q28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="25">
-        <f>R26+R24</f>
+      <c r="R28" s="25">
+        <f>R27+R25</f>
         <v>2533.9500000000003</v>
       </c>
-      <c r="T27" s="24" t="s">
+      <c r="T28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="U27" s="25">
-        <f>U26+U24</f>
+      <c r="U28" s="25">
+        <f>U27+U25</f>
         <v>9889.5748893105629</v>
       </c>
-      <c r="W27" s="24" t="s">
+      <c r="W28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="X27" s="25">
-        <f>X26+X24</f>
+      <c r="X28" s="25">
+        <f>X27+X25</f>
         <v>2077.5176470588235</v>
       </c>
-      <c r="Z27" s="24" t="s">
+      <c r="Z28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AA27" s="25">
-        <f>AA26+AA24</f>
+      <c r="AA28" s="25">
+        <f>AA27+AA25</f>
         <v>1044.0899999999999</v>
       </c>
-      <c r="AC27" s="24" t="s">
+      <c r="AC28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AD27" s="25">
-        <f>AD26+AD24</f>
+      <c r="AD28" s="25">
+        <f>AD27+AD25</f>
         <v>4000</v>
       </c>
-      <c r="AF27" s="24" t="s">
+      <c r="AF28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AG27" s="25">
-        <f>AG26+AG24</f>
+      <c r="AG28" s="25">
+        <f>AG27+AG25</f>
         <v>147.70499999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="AC29"/>
-    </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
+      <c r="AC30"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B31" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C31" s="29">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B31" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="31">
-        <f>C5/1000</f>
-        <v>2.9707940934743489</v>
-      </c>
-      <c r="F31"/>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="31">
-        <f>C27/1000</f>
-        <v>71.299058243384366</v>
-      </c>
+        <f>C6/1000</f>
+        <v>2.9707940934743489</v>
+      </c>
+      <c r="F32"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="30" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C33" s="31">
-        <f>(C26+F26+L26+O26+R26+U26+X26+AA26+AD26+AG26+I26)/1000</f>
-        <v>5.2658746845608482</v>
+        <f>C28/1000</f>
+        <v>71.299058243384366</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C34" s="31">
-        <f>1-C33/C32</f>
-        <v>0.9261438395639755</v>
-      </c>
-      <c r="N34"/>
-      <c r="Q34"/>
+        <f>(C27+F27+L27+O27+R27+U27+X27+AA27+AD27+AG27+I27)/1000</f>
+        <v>5.2658746845608482</v>
+      </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="C35" s="31">
-        <f>C8/1000</f>
-        <v>0.63661409347434905</v>
-      </c>
+        <f>1-C34/C33</f>
+        <v>0.9261438395639755</v>
+      </c>
+      <c r="N35"/>
+      <c r="Q35"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="31">
+        <f>C9/1000</f>
+        <v>0.63661409347434905</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="31">
-        <f>C35*C30</f>
+      <c r="C37" s="31">
+        <f>C36*C31</f>
         <v>15.278738243384378</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="26" t="s">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="27">
-        <f>1-C33/C36</f>
+      <c r="C38" s="27">
+        <f>1-C34/C37</f>
         <v>0.65534623339457054</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D38"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="32" t="s">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="33" t="e">
-        <f>(#REF!*#REF!+AA4*AA6)/1000</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="U44"/>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="U46"/>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="S48"/>
+      <c r="C41" s="33">
+        <f>(AD5*AD7+AA5*AA7+U22*U5+U23*U5+U24*U5)/1000</f>
+        <v>5.5350000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U45"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U47"/>
+    </row>
+    <row r="49" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S49"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7F5325-4EA2-43D1-86F0-E502B9A8DE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D02CE-1AED-4192-AF23-8C05E4CD7147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId8"/>
     <sheet name="Sheet10" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet12" sheetId="9" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -16564,9 +16564,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE97D9D4-3157-4D7D-817C-63B2B3707009}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -18003,8 +18006,9 @@
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/power_tree.xlsx
+++ b/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flore\OneDrive\Desktop\uni\session7\APP1\S7_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D02CE-1AED-4192-AF23-8C05E4CD7147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169680FF-A680-44EE-9CC8-8D2B1C6449F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -796,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -839,49 +839,25 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,26 +871,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,13 +915,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,18 +939,26 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -993,6 +977,13 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5930,26 +5921,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="36"/>
+      <c r="L1" s="74"/>
       <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
@@ -6361,7 +6352,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
@@ -6370,603 +6361,574 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="16.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="46" customWidth="1"/>
-    <col min="8" max="11" width="18.7109375" style="34" customWidth="1"/>
+    <col min="7" max="11" width="18.7109375" style="34" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="F2" s="67"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="37">
         <v>2</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="37">
         <f>D3*0.0254</f>
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="38">
         <v>4</v>
       </c>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="37">
         <v>1.3779999999999999</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="37">
         <f>D4*0.0254</f>
         <v>3.5001199999999996E-2</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="37">
         <v>3.15</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="37">
         <f t="shared" ref="E5:E27" si="0">D5*0.0254</f>
         <v>8.0009999999999998E-2</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="37">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="37">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="37">
         <v>7.87</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="37">
         <f t="shared" si="0"/>
         <v>0.19989799999999999</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="37">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="37">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="37">
         <v>3.15</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="37">
         <f t="shared" si="0"/>
         <v>8.0009999999999998E-2</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="37">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="37">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="34"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="37">
         <v>7.87</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="37">
         <f t="shared" si="0"/>
         <v>0.19989799999999999</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="37">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="37">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="34"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="37">
         <v>3.15</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="37">
         <f t="shared" si="0"/>
         <v>8.0009999999999998E-2</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="37">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="37">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="34"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="37">
         <v>7.87</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="37">
         <f t="shared" si="0"/>
         <v>0.19989799999999999</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="37">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="37">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="37">
         <v>3.15</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="37">
         <f t="shared" si="0"/>
         <v>8.0009999999999998E-2</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="37">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="37">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="37">
         <v>7.87</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="37">
         <f t="shared" si="0"/>
         <v>0.19989799999999999</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="37">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="37">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="37">
         <v>3.15</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="37">
         <f t="shared" si="0"/>
         <v>8.0009999999999998E-2</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="37">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="37">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="37">
         <v>7.87</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="37">
         <f t="shared" si="0"/>
         <v>0.19989799999999999</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="37">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="37">
         <f t="shared" si="0"/>
         <v>1.7500599999999998E-2</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="37">
         <v>3.15</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="37">
         <f t="shared" si="0"/>
         <v>8.0009999999999998E-2</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="37">
         <v>1.3779999999999999</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="37">
         <f t="shared" si="0"/>
         <v>3.5001199999999996E-2</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="37">
         <v>2</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="37">
         <f t="shared" si="0"/>
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="38">
         <v>4</v>
       </c>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="76">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="68">
         <f>SUM(D3:D27)</f>
         <v>71.895999999999987</v>
       </c>
-      <c r="E28" s="76">
+      <c r="E28" s="68">
         <f t="shared" ref="E28:E29" si="1">D28*0.0254</f>
         <v>1.8261583999999995</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
+      <c r="F28" s="53"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78">
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70">
         <f>SUM(D4:D26)</f>
         <v>67.895999999999987</v>
       </c>
-      <c r="E29" s="77">
+      <c r="E29" s="69">
         <f t="shared" si="1"/>
         <v>1.7245583999999996</v>
       </c>
-      <c r="F29" s="79"/>
+      <c r="F29" s="71"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="34" t="s">
@@ -7086,8 +7048,8 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G26:G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7096,171 +7058,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="48" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="41">
         <v>4</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="41">
         <v>7</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="41">
         <v>3</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="44">
         <v>12</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="44">
         <v>21</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="44">
         <v>7</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="54">
         <v>50.5</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="54">
         <v>39.020000000000003</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="54">
         <v>99.27</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="55">
         <v>79.819999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="57">
         <v>1</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="57">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="57">
         <v>0.73</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="58">
         <v>0.23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="41">
         <v>3</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="41">
         <v>5</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="41">
         <v>3</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="44">
         <v>9</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="44">
         <v>15</v>
       </c>
-      <c r="D9" s="52">
-        <v>8</v>
-      </c>
-      <c r="E9" s="53">
+      <c r="D9" s="44">
+        <v>9</v>
+      </c>
+      <c r="E9" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="54">
         <v>51.18</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="54">
         <v>40.51</v>
       </c>
-      <c r="D10" s="62">
-        <v>97.88</v>
-      </c>
-      <c r="E10" s="63">
+      <c r="D10" s="54">
+        <v>98.88</v>
+      </c>
+      <c r="E10" s="55">
         <v>78.39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="60">
         <v>2.36</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="60">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D11" s="68">
-        <v>2.12</v>
-      </c>
-      <c r="E11" s="69">
+      <c r="D11" s="60">
+        <v>1.02</v>
+      </c>
+      <c r="E11" s="61">
         <v>2.0099999999999998</v>
       </c>
     </row>
@@ -7362,19 +7324,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:E27">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$C3="Core"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$C3="Solder Mask"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$C3="Signal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$C3="Prepreg"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:E27">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C3="Core"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7419,97 +7379,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="76"/>
+      <c r="E1" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="76"/>
+      <c r="H1" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="76"/>
+      <c r="K1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="76"/>
+      <c r="N1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="76"/>
+      <c r="Q1" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="76"/>
+      <c r="T1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="76"/>
+      <c r="W1" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="76"/>
+      <c r="Z1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="76"/>
+      <c r="AC1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="76"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="78"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="78"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="78"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="78"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="78"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -8540,11 +8500,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="W2:X2"/>
@@ -8560,6 +8515,11 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" r:id="rId1"/>
@@ -8599,88 +8559,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="76"/>
+      <c r="E1" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="76"/>
+      <c r="H1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="76"/>
+      <c r="K1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="76"/>
+      <c r="N1" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="76"/>
+      <c r="Q1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="76"/>
+      <c r="T1" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="76"/>
+      <c r="W1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="76"/>
+      <c r="Z1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="40"/>
+      <c r="AA1" s="76"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="78"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="78"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="78"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="78"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -9640,6 +9600,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -9648,16 +9618,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9698,97 +9658,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="76"/>
+      <c r="E1" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="76"/>
+      <c r="H1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="76"/>
+      <c r="K1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="76"/>
+      <c r="N1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="76"/>
+      <c r="Q1" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="76"/>
+      <c r="T1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="76"/>
+      <c r="W1" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="76"/>
+      <c r="Z1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="76"/>
+      <c r="AC1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="76"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="78"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="78"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="78"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="78"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="78"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -10837,16 +10797,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="E1:F1"/>
@@ -10857,6 +10807,16 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10897,97 +10857,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="76"/>
+      <c r="E1" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="76"/>
+      <c r="H1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="76"/>
+      <c r="K1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="76"/>
+      <c r="N1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="76"/>
+      <c r="Q1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="76"/>
+      <c r="T1" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="76"/>
+      <c r="W1" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="76"/>
+      <c r="Z1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="76"/>
+      <c r="AC1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="40"/>
+      <c r="AD1" s="76"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="78"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="78"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="78"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="78"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="78"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -12044,6 +12004,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -12056,14 +12024,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12108,115 +12068,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="76"/>
+      <c r="E1" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="76"/>
+      <c r="H1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="76"/>
+      <c r="K1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="76"/>
+      <c r="N1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="76"/>
+      <c r="Q1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="76"/>
+      <c r="T1" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="76"/>
+      <c r="W1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="76"/>
+      <c r="Z1" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="76"/>
+      <c r="AC1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="76"/>
+      <c r="AF1" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="76"/>
+      <c r="AI1" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" s="40"/>
+      <c r="AJ1" s="76"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="78"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="78"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="78"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="78"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="78"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="78"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="78"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -13460,6 +13420,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -13472,18 +13444,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13533,124 +13493,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="76"/>
+      <c r="E1" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="76"/>
+      <c r="H1" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="76"/>
+      <c r="K1" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="76"/>
+      <c r="N1" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="76"/>
+      <c r="Q1" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="76"/>
+      <c r="T1" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="76"/>
+      <c r="W1" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="76"/>
+      <c r="Z1" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="76"/>
+      <c r="AC1" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="76"/>
+      <c r="AF1" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="76"/>
+      <c r="AI1" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="AJ1" s="40"/>
-      <c r="AL1" s="39" t="s">
+      <c r="AJ1" s="76"/>
+      <c r="AL1" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="AM1" s="40"/>
+      <c r="AM1" s="76"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="78"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="78"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="78"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="78"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="78"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="78"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="78"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="37" t="s">
+      <c r="AL2" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="38"/>
+      <c r="AM2" s="78"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -15002,6 +14962,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -15015,19 +14988,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="36" orientation="landscape" r:id="rId1"/>
@@ -15076,115 +15036,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="76"/>
+      <c r="E1" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="76"/>
+      <c r="H1" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="76"/>
+      <c r="K1" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="76"/>
+      <c r="N1" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="76"/>
+      <c r="Q1" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="76"/>
+      <c r="T1" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="76"/>
+      <c r="W1" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="76"/>
+      <c r="Z1" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AA1" s="76"/>
+      <c r="AC1" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="76"/>
+      <c r="AF1" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AI1" s="39" t="s">
+      <c r="AG1" s="76"/>
+      <c r="AI1" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="AJ1" s="40"/>
+      <c r="AJ1" s="76"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="38"/>
+      <c r="R2" s="78"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="38"/>
+      <c r="U2" s="78"/>
       <c r="V2" s="10"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="38"/>
+      <c r="X2" s="78"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="38"/>
+      <c r="AA2" s="78"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="38"/>
+      <c r="AD2" s="78"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="78"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="78"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -16531,6 +16491,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -16539,22 +16515,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="38" orientation="landscape" r:id="rId1"/>
@@ -16569,7 +16529,7 @@
   </sheetPr>
   <dimension ref="B2:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -16601,106 +16561,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="76"/>
+      <c r="E2" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="H2" s="39" t="s">
+      <c r="F2" s="76"/>
+      <c r="H2" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="K2" s="39" t="s">
+      <c r="I2" s="76"/>
+      <c r="K2" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="N2" s="39" t="s">
+      <c r="L2" s="76"/>
+      <c r="N2" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="Q2" s="39" t="s">
+      <c r="O2" s="76"/>
+      <c r="Q2" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="T2" s="39" t="s">
+      <c r="R2" s="76"/>
+      <c r="T2" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="U2" s="40"/>
-      <c r="W2" s="39" t="s">
+      <c r="U2" s="76"/>
+      <c r="W2" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Z2" s="39" t="s">
+      <c r="X2" s="76"/>
+      <c r="Z2" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="AA2" s="40"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AA2" s="76"/>
+      <c r="AC2" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" s="40"/>
-      <c r="AF2" s="39" t="s">
+      <c r="AD2" s="76"/>
+      <c r="AF2" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="AG2" s="40"/>
+      <c r="AG2" s="76"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="I3" s="78"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="38"/>
+      <c r="L3" s="78"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="38"/>
+      <c r="O3" s="78"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="38"/>
+      <c r="R3" s="78"/>
       <c r="S3" s="10"/>
-      <c r="T3" s="37" t="s">
+      <c r="T3" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="38"/>
+      <c r="U3" s="78"/>
       <c r="V3" s="10"/>
-      <c r="W3" s="37" t="s">
+      <c r="W3" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="38"/>
+      <c r="X3" s="78"/>
       <c r="Y3" s="10"/>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="38"/>
+      <c r="AA3" s="78"/>
       <c r="AB3" s="10"/>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="38"/>
+      <c r="AD3" s="78"/>
       <c r="AE3" s="10"/>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="38"/>
+      <c r="AG3" s="78"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -17983,17 +17943,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -18005,6 +17954,17 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="42" orientation="landscape" r:id="rId1"/>
@@ -18019,6 +17979,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EF5FF2E39E20848B3E11F33FC3786D6" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3864aad841ac7f073fafde2aa4519978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7973e0ec14fa603f0f0627b8d3dbc3e5" ns2:_="">
     <xsd:import namespace="dc6fab8e-e7ea-4375-ad2d-3d16fa06b599"/>
@@ -18162,15 +18131,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81071054-CA9B-46EF-B7D4-B30ABA030C0D}">
   <ds:schemaRefs>
@@ -18188,6 +18148,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381E7AF4-1B59-4048-B236-2367CB6455CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18203,12 +18171,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75538A2B-1A28-41AF-9383-AF30D5B3C88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>